--- a/python/Pi4.xlsx
+++ b/python/Pi4.xlsx
@@ -354,13 +354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:ALM2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:1001">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -406,52 +406,5968 @@
       <c r="O1" s="1">
         <v>15.972</v>
       </c>
+      <c r="P1" s="1">
+        <v>16.97</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>17.968</v>
+      </c>
+      <c r="R1" s="1">
+        <v>18.966</v>
+      </c>
+      <c r="S1" s="1">
+        <v>19.964</v>
+      </c>
+      <c r="T1" s="1">
+        <v>20.962</v>
+      </c>
+      <c r="U1" s="1">
+        <v>21.96</v>
+      </c>
+      <c r="V1" s="1">
+        <v>22.958</v>
+      </c>
+      <c r="W1" s="1">
+        <v>23.956</v>
+      </c>
+      <c r="X1" s="1">
+        <v>24.954</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>25.952</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>26.95</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>27.948</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>28.946</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>29.944</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>30.942</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>31.94</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>32.938</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>33.936</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>34.934</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>35.932</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>36.93</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>37.928</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>38.926</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>39.924</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>40.922</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>41.92</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>42.918</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>43.916</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>44.914</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>45.912</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>46.91</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>47.908</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>48.906</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>49.904</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>50.902</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>51.9</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>52.898</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>53.896</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>54.894</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>55.892</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>56.89</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>57.888</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>58.886</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>59.884</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>60.882</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>61.88</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>62.878</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>63.876</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>64.874</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>65.872</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>66.87</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>67.86799999999999</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>68.866</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>69.864</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>70.86199999999999</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>71.86</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>72.858</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>73.85599999999999</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>74.854</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>75.852</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>76.84999999999999</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>77.848</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>78.846</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>79.84399999999999</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>80.842</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>81.84</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>82.83799999999999</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>83.836</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>84.834</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>85.83199999999999</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>86.83</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>87.828</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>88.82599999999999</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>89.824</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>90.822</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>91.81999999999999</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>92.818</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>93.816</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>94.81399999999999</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>95.812</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>96.81</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>97.80800000000001</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>98.806</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>99.804</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>100.802</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>101.8</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>102.798</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>103.796</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>104.794</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>105.792</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>106.79</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>107.788</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>108.786</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>109.784</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>110.782</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>111.78</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>112.778</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>113.776</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>114.774</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>115.772</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>116.77</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>117.768</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>118.766</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>119.764</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>120.762</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>121.76</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>122.758</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>123.756</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>124.754</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>125.752</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>126.75</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>127.748</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>128.746</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>129.744</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>130.742</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>131.74</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>132.738</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>133.736</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>134.734</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>135.732</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>136.73</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>137.728</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>138.726</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>139.724</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>140.722</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>141.72</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>142.718</v>
+      </c>
+      <c r="EM1" s="1">
+        <v>143.716</v>
+      </c>
+      <c r="EN1" s="1">
+        <v>144.714</v>
+      </c>
+      <c r="EO1" s="1">
+        <v>145.712</v>
+      </c>
+      <c r="EP1" s="1">
+        <v>146.71</v>
+      </c>
+      <c r="EQ1" s="1">
+        <v>147.708</v>
+      </c>
+      <c r="ER1" s="1">
+        <v>148.706</v>
+      </c>
+      <c r="ES1" s="1">
+        <v>149.704</v>
+      </c>
+      <c r="ET1" s="1">
+        <v>150.702</v>
+      </c>
+      <c r="EU1" s="1">
+        <v>151.7</v>
+      </c>
+      <c r="EV1" s="1">
+        <v>152.698</v>
+      </c>
+      <c r="EW1" s="1">
+        <v>153.696</v>
+      </c>
+      <c r="EX1" s="1">
+        <v>154.694</v>
+      </c>
+      <c r="EY1" s="1">
+        <v>155.692</v>
+      </c>
+      <c r="EZ1" s="1">
+        <v>156.69</v>
+      </c>
+      <c r="FA1" s="1">
+        <v>157.688</v>
+      </c>
+      <c r="FB1" s="1">
+        <v>158.686</v>
+      </c>
+      <c r="FC1" s="1">
+        <v>159.684</v>
+      </c>
+      <c r="FD1" s="1">
+        <v>160.682</v>
+      </c>
+      <c r="FE1" s="1">
+        <v>161.68</v>
+      </c>
+      <c r="FF1" s="1">
+        <v>162.678</v>
+      </c>
+      <c r="FG1" s="1">
+        <v>163.676</v>
+      </c>
+      <c r="FH1" s="1">
+        <v>164.674</v>
+      </c>
+      <c r="FI1" s="1">
+        <v>165.672</v>
+      </c>
+      <c r="FJ1" s="1">
+        <v>166.67</v>
+      </c>
+      <c r="FK1" s="1">
+        <v>167.668</v>
+      </c>
+      <c r="FL1" s="1">
+        <v>168.666</v>
+      </c>
+      <c r="FM1" s="1">
+        <v>169.664</v>
+      </c>
+      <c r="FN1" s="1">
+        <v>170.662</v>
+      </c>
+      <c r="FO1" s="1">
+        <v>171.66</v>
+      </c>
+      <c r="FP1" s="1">
+        <v>172.658</v>
+      </c>
+      <c r="FQ1" s="1">
+        <v>173.656</v>
+      </c>
+      <c r="FR1" s="1">
+        <v>174.654</v>
+      </c>
+      <c r="FS1" s="1">
+        <v>175.652</v>
+      </c>
+      <c r="FT1" s="1">
+        <v>176.65</v>
+      </c>
+      <c r="FU1" s="1">
+        <v>177.648</v>
+      </c>
+      <c r="FV1" s="1">
+        <v>178.646</v>
+      </c>
+      <c r="FW1" s="1">
+        <v>179.644</v>
+      </c>
+      <c r="FX1" s="1">
+        <v>180.642</v>
+      </c>
+      <c r="FY1" s="1">
+        <v>181.64</v>
+      </c>
+      <c r="FZ1" s="1">
+        <v>182.638</v>
+      </c>
+      <c r="GA1" s="1">
+        <v>183.636</v>
+      </c>
+      <c r="GB1" s="1">
+        <v>184.634</v>
+      </c>
+      <c r="GC1" s="1">
+        <v>185.632</v>
+      </c>
+      <c r="GD1" s="1">
+        <v>186.63</v>
+      </c>
+      <c r="GE1" s="1">
+        <v>187.628</v>
+      </c>
+      <c r="GF1" s="1">
+        <v>188.626</v>
+      </c>
+      <c r="GG1" s="1">
+        <v>189.624</v>
+      </c>
+      <c r="GH1" s="1">
+        <v>190.622</v>
+      </c>
+      <c r="GI1" s="1">
+        <v>191.62</v>
+      </c>
+      <c r="GJ1" s="1">
+        <v>192.618</v>
+      </c>
+      <c r="GK1" s="1">
+        <v>193.616</v>
+      </c>
+      <c r="GL1" s="1">
+        <v>194.614</v>
+      </c>
+      <c r="GM1" s="1">
+        <v>195.612</v>
+      </c>
+      <c r="GN1" s="1">
+        <v>196.61</v>
+      </c>
+      <c r="GO1" s="1">
+        <v>197.608</v>
+      </c>
+      <c r="GP1" s="1">
+        <v>198.606</v>
+      </c>
+      <c r="GQ1" s="1">
+        <v>199.604</v>
+      </c>
+      <c r="GR1" s="1">
+        <v>200.602</v>
+      </c>
+      <c r="GS1" s="1">
+        <v>201.6</v>
+      </c>
+      <c r="GT1" s="1">
+        <v>202.598</v>
+      </c>
+      <c r="GU1" s="1">
+        <v>203.596</v>
+      </c>
+      <c r="GV1" s="1">
+        <v>204.594</v>
+      </c>
+      <c r="GW1" s="1">
+        <v>205.592</v>
+      </c>
+      <c r="GX1" s="1">
+        <v>206.59</v>
+      </c>
+      <c r="GY1" s="1">
+        <v>207.588</v>
+      </c>
+      <c r="GZ1" s="1">
+        <v>208.586</v>
+      </c>
+      <c r="HA1" s="1">
+        <v>209.584</v>
+      </c>
+      <c r="HB1" s="1">
+        <v>210.582</v>
+      </c>
+      <c r="HC1" s="1">
+        <v>211.58</v>
+      </c>
+      <c r="HD1" s="1">
+        <v>212.578</v>
+      </c>
+      <c r="HE1" s="1">
+        <v>213.576</v>
+      </c>
+      <c r="HF1" s="1">
+        <v>214.574</v>
+      </c>
+      <c r="HG1" s="1">
+        <v>215.572</v>
+      </c>
+      <c r="HH1" s="1">
+        <v>216.57</v>
+      </c>
+      <c r="HI1" s="1">
+        <v>217.568</v>
+      </c>
+      <c r="HJ1" s="1">
+        <v>218.566</v>
+      </c>
+      <c r="HK1" s="1">
+        <v>219.564</v>
+      </c>
+      <c r="HL1" s="1">
+        <v>220.562</v>
+      </c>
+      <c r="HM1" s="1">
+        <v>221.56</v>
+      </c>
+      <c r="HN1" s="1">
+        <v>222.558</v>
+      </c>
+      <c r="HO1" s="1">
+        <v>223.556</v>
+      </c>
+      <c r="HP1" s="1">
+        <v>224.554</v>
+      </c>
+      <c r="HQ1" s="1">
+        <v>225.552</v>
+      </c>
+      <c r="HR1" s="1">
+        <v>226.55</v>
+      </c>
+      <c r="HS1" s="1">
+        <v>227.548</v>
+      </c>
+      <c r="HT1" s="1">
+        <v>228.546</v>
+      </c>
+      <c r="HU1" s="1">
+        <v>229.544</v>
+      </c>
+      <c r="HV1" s="1">
+        <v>230.542</v>
+      </c>
+      <c r="HW1" s="1">
+        <v>231.54</v>
+      </c>
+      <c r="HX1" s="1">
+        <v>232.538</v>
+      </c>
+      <c r="HY1" s="1">
+        <v>233.536</v>
+      </c>
+      <c r="HZ1" s="1">
+        <v>234.534</v>
+      </c>
+      <c r="IA1" s="1">
+        <v>235.532</v>
+      </c>
+      <c r="IB1" s="1">
+        <v>236.53</v>
+      </c>
+      <c r="IC1" s="1">
+        <v>237.528</v>
+      </c>
+      <c r="ID1" s="1">
+        <v>238.526</v>
+      </c>
+      <c r="IE1" s="1">
+        <v>239.524</v>
+      </c>
+      <c r="IF1" s="1">
+        <v>240.522</v>
+      </c>
+      <c r="IG1" s="1">
+        <v>241.52</v>
+      </c>
+      <c r="IH1" s="1">
+        <v>242.518</v>
+      </c>
+      <c r="II1" s="1">
+        <v>243.516</v>
+      </c>
+      <c r="IJ1" s="1">
+        <v>244.514</v>
+      </c>
+      <c r="IK1" s="1">
+        <v>245.512</v>
+      </c>
+      <c r="IL1" s="1">
+        <v>246.51</v>
+      </c>
+      <c r="IM1" s="1">
+        <v>247.508</v>
+      </c>
+      <c r="IN1" s="1">
+        <v>248.506</v>
+      </c>
+      <c r="IO1" s="1">
+        <v>249.504</v>
+      </c>
+      <c r="IP1" s="1">
+        <v>250.502</v>
+      </c>
+      <c r="IQ1" s="1">
+        <v>251.5</v>
+      </c>
+      <c r="IR1" s="1">
+        <v>252.498</v>
+      </c>
+      <c r="IS1" s="1">
+        <v>253.496</v>
+      </c>
+      <c r="IT1" s="1">
+        <v>254.494</v>
+      </c>
+      <c r="IU1" s="1">
+        <v>255.492</v>
+      </c>
+      <c r="IV1" s="1">
+        <v>256.49</v>
+      </c>
+      <c r="IW1" s="1">
+        <v>257.488</v>
+      </c>
+      <c r="IX1" s="1">
+        <v>258.486</v>
+      </c>
+      <c r="IY1" s="1">
+        <v>259.484</v>
+      </c>
+      <c r="IZ1" s="1">
+        <v>260.482</v>
+      </c>
+      <c r="JA1" s="1">
+        <v>261.48</v>
+      </c>
+      <c r="JB1" s="1">
+        <v>262.478</v>
+      </c>
+      <c r="JC1" s="1">
+        <v>263.476</v>
+      </c>
+      <c r="JD1" s="1">
+        <v>264.474</v>
+      </c>
+      <c r="JE1" s="1">
+        <v>265.472</v>
+      </c>
+      <c r="JF1" s="1">
+        <v>266.47</v>
+      </c>
+      <c r="JG1" s="1">
+        <v>267.468</v>
+      </c>
+      <c r="JH1" s="1">
+        <v>268.466</v>
+      </c>
+      <c r="JI1" s="1">
+        <v>269.464</v>
+      </c>
+      <c r="JJ1" s="1">
+        <v>270.462</v>
+      </c>
+      <c r="JK1" s="1">
+        <v>271.46</v>
+      </c>
+      <c r="JL1" s="1">
+        <v>272.458</v>
+      </c>
+      <c r="JM1" s="1">
+        <v>273.456</v>
+      </c>
+      <c r="JN1" s="1">
+        <v>274.454</v>
+      </c>
+      <c r="JO1" s="1">
+        <v>275.452</v>
+      </c>
+      <c r="JP1" s="1">
+        <v>276.45</v>
+      </c>
+      <c r="JQ1" s="1">
+        <v>277.448</v>
+      </c>
+      <c r="JR1" s="1">
+        <v>278.446</v>
+      </c>
+      <c r="JS1" s="1">
+        <v>279.444</v>
+      </c>
+      <c r="JT1" s="1">
+        <v>280.442</v>
+      </c>
+      <c r="JU1" s="1">
+        <v>281.44</v>
+      </c>
+      <c r="JV1" s="1">
+        <v>282.438</v>
+      </c>
+      <c r="JW1" s="1">
+        <v>283.436</v>
+      </c>
+      <c r="JX1" s="1">
+        <v>284.434</v>
+      </c>
+      <c r="JY1" s="1">
+        <v>285.432</v>
+      </c>
+      <c r="JZ1" s="1">
+        <v>286.43</v>
+      </c>
+      <c r="KA1" s="1">
+        <v>287.428</v>
+      </c>
+      <c r="KB1" s="1">
+        <v>288.426</v>
+      </c>
+      <c r="KC1" s="1">
+        <v>289.424</v>
+      </c>
+      <c r="KD1" s="1">
+        <v>290.422</v>
+      </c>
+      <c r="KE1" s="1">
+        <v>291.42</v>
+      </c>
+      <c r="KF1" s="1">
+        <v>292.418</v>
+      </c>
+      <c r="KG1" s="1">
+        <v>293.416</v>
+      </c>
+      <c r="KH1" s="1">
+        <v>294.414</v>
+      </c>
+      <c r="KI1" s="1">
+        <v>295.412</v>
+      </c>
+      <c r="KJ1" s="1">
+        <v>296.41</v>
+      </c>
+      <c r="KK1" s="1">
+        <v>297.408</v>
+      </c>
+      <c r="KL1" s="1">
+        <v>298.406</v>
+      </c>
+      <c r="KM1" s="1">
+        <v>299.404</v>
+      </c>
+      <c r="KN1" s="1">
+        <v>300.402</v>
+      </c>
+      <c r="KO1" s="1">
+        <v>301.4</v>
+      </c>
+      <c r="KP1" s="1">
+        <v>302.398</v>
+      </c>
+      <c r="KQ1" s="1">
+        <v>303.396</v>
+      </c>
+      <c r="KR1" s="1">
+        <v>304.394</v>
+      </c>
+      <c r="KS1" s="1">
+        <v>305.392</v>
+      </c>
+      <c r="KT1" s="1">
+        <v>306.39</v>
+      </c>
+      <c r="KU1" s="1">
+        <v>307.388</v>
+      </c>
+      <c r="KV1" s="1">
+        <v>308.386</v>
+      </c>
+      <c r="KW1" s="1">
+        <v>309.384</v>
+      </c>
+      <c r="KX1" s="1">
+        <v>310.382</v>
+      </c>
+      <c r="KY1" s="1">
+        <v>311.38</v>
+      </c>
+      <c r="KZ1" s="1">
+        <v>312.378</v>
+      </c>
+      <c r="LA1" s="1">
+        <v>313.376</v>
+      </c>
+      <c r="LB1" s="1">
+        <v>314.374</v>
+      </c>
+      <c r="LC1" s="1">
+        <v>315.372</v>
+      </c>
+      <c r="LD1" s="1">
+        <v>316.37</v>
+      </c>
+      <c r="LE1" s="1">
+        <v>317.368</v>
+      </c>
+      <c r="LF1" s="1">
+        <v>318.366</v>
+      </c>
+      <c r="LG1" s="1">
+        <v>319.364</v>
+      </c>
+      <c r="LH1" s="1">
+        <v>320.362</v>
+      </c>
+      <c r="LI1" s="1">
+        <v>321.36</v>
+      </c>
+      <c r="LJ1" s="1">
+        <v>322.358</v>
+      </c>
+      <c r="LK1" s="1">
+        <v>323.356</v>
+      </c>
+      <c r="LL1" s="1">
+        <v>324.354</v>
+      </c>
+      <c r="LM1" s="1">
+        <v>325.352</v>
+      </c>
+      <c r="LN1" s="1">
+        <v>326.35</v>
+      </c>
+      <c r="LO1" s="1">
+        <v>327.348</v>
+      </c>
+      <c r="LP1" s="1">
+        <v>328.346</v>
+      </c>
+      <c r="LQ1" s="1">
+        <v>329.344</v>
+      </c>
+      <c r="LR1" s="1">
+        <v>330.342</v>
+      </c>
+      <c r="LS1" s="1">
+        <v>331.34</v>
+      </c>
+      <c r="LT1" s="1">
+        <v>332.338</v>
+      </c>
+      <c r="LU1" s="1">
+        <v>333.336</v>
+      </c>
+      <c r="LV1" s="1">
+        <v>334.334</v>
+      </c>
+      <c r="LW1" s="1">
+        <v>335.332</v>
+      </c>
+      <c r="LX1" s="1">
+        <v>336.33</v>
+      </c>
+      <c r="LY1" s="1">
+        <v>337.328</v>
+      </c>
+      <c r="LZ1" s="1">
+        <v>338.326</v>
+      </c>
+      <c r="MA1" s="1">
+        <v>339.324</v>
+      </c>
+      <c r="MB1" s="1">
+        <v>340.322</v>
+      </c>
+      <c r="MC1" s="1">
+        <v>341.32</v>
+      </c>
+      <c r="MD1" s="1">
+        <v>342.318</v>
+      </c>
+      <c r="ME1" s="1">
+        <v>343.316</v>
+      </c>
+      <c r="MF1" s="1">
+        <v>344.314</v>
+      </c>
+      <c r="MG1" s="1">
+        <v>345.312</v>
+      </c>
+      <c r="MH1" s="1">
+        <v>346.31</v>
+      </c>
+      <c r="MI1" s="1">
+        <v>347.308</v>
+      </c>
+      <c r="MJ1" s="1">
+        <v>348.306</v>
+      </c>
+      <c r="MK1" s="1">
+        <v>349.304</v>
+      </c>
+      <c r="ML1" s="1">
+        <v>350.302</v>
+      </c>
+      <c r="MM1" s="1">
+        <v>351.3</v>
+      </c>
+      <c r="MN1" s="1">
+        <v>352.298</v>
+      </c>
+      <c r="MO1" s="1">
+        <v>353.296</v>
+      </c>
+      <c r="MP1" s="1">
+        <v>354.294</v>
+      </c>
+      <c r="MQ1" s="1">
+        <v>355.292</v>
+      </c>
+      <c r="MR1" s="1">
+        <v>356.29</v>
+      </c>
+      <c r="MS1" s="1">
+        <v>357.288</v>
+      </c>
+      <c r="MT1" s="1">
+        <v>358.286</v>
+      </c>
+      <c r="MU1" s="1">
+        <v>359.284</v>
+      </c>
+      <c r="MV1" s="1">
+        <v>360.282</v>
+      </c>
+      <c r="MW1" s="1">
+        <v>361.28</v>
+      </c>
+      <c r="MX1" s="1">
+        <v>362.278</v>
+      </c>
+      <c r="MY1" s="1">
+        <v>363.276</v>
+      </c>
+      <c r="MZ1" s="1">
+        <v>364.274</v>
+      </c>
+      <c r="NA1" s="1">
+        <v>365.272</v>
+      </c>
+      <c r="NB1" s="1">
+        <v>366.27</v>
+      </c>
+      <c r="NC1" s="1">
+        <v>367.268</v>
+      </c>
+      <c r="ND1" s="1">
+        <v>368.266</v>
+      </c>
+      <c r="NE1" s="1">
+        <v>369.264</v>
+      </c>
+      <c r="NF1" s="1">
+        <v>370.262</v>
+      </c>
+      <c r="NG1" s="1">
+        <v>371.26</v>
+      </c>
+      <c r="NH1" s="1">
+        <v>372.258</v>
+      </c>
+      <c r="NI1" s="1">
+        <v>373.256</v>
+      </c>
+      <c r="NJ1" s="1">
+        <v>374.254</v>
+      </c>
+      <c r="NK1" s="1">
+        <v>375.252</v>
+      </c>
+      <c r="NL1" s="1">
+        <v>376.25</v>
+      </c>
+      <c r="NM1" s="1">
+        <v>377.248</v>
+      </c>
+      <c r="NN1" s="1">
+        <v>378.246</v>
+      </c>
+      <c r="NO1" s="1">
+        <v>379.244</v>
+      </c>
+      <c r="NP1" s="1">
+        <v>380.242</v>
+      </c>
+      <c r="NQ1" s="1">
+        <v>381.24</v>
+      </c>
+      <c r="NR1" s="1">
+        <v>382.238</v>
+      </c>
+      <c r="NS1" s="1">
+        <v>383.236</v>
+      </c>
+      <c r="NT1" s="1">
+        <v>384.234</v>
+      </c>
+      <c r="NU1" s="1">
+        <v>385.232</v>
+      </c>
+      <c r="NV1" s="1">
+        <v>386.23</v>
+      </c>
+      <c r="NW1" s="1">
+        <v>387.228</v>
+      </c>
+      <c r="NX1" s="1">
+        <v>388.226</v>
+      </c>
+      <c r="NY1" s="1">
+        <v>389.224</v>
+      </c>
+      <c r="NZ1" s="1">
+        <v>390.222</v>
+      </c>
+      <c r="OA1" s="1">
+        <v>391.22</v>
+      </c>
+      <c r="OB1" s="1">
+        <v>392.218</v>
+      </c>
+      <c r="OC1" s="1">
+        <v>393.216</v>
+      </c>
+      <c r="OD1" s="1">
+        <v>394.214</v>
+      </c>
+      <c r="OE1" s="1">
+        <v>395.212</v>
+      </c>
+      <c r="OF1" s="1">
+        <v>396.21</v>
+      </c>
+      <c r="OG1" s="1">
+        <v>397.208</v>
+      </c>
+      <c r="OH1" s="1">
+        <v>398.206</v>
+      </c>
+      <c r="OI1" s="1">
+        <v>399.204</v>
+      </c>
+      <c r="OJ1" s="1">
+        <v>400.202</v>
+      </c>
+      <c r="OK1" s="1">
+        <v>401.2</v>
+      </c>
+      <c r="OL1" s="1">
+        <v>402.198</v>
+      </c>
+      <c r="OM1" s="1">
+        <v>403.196</v>
+      </c>
+      <c r="ON1" s="1">
+        <v>404.194</v>
+      </c>
+      <c r="OO1" s="1">
+        <v>405.192</v>
+      </c>
+      <c r="OP1" s="1">
+        <v>406.19</v>
+      </c>
+      <c r="OQ1" s="1">
+        <v>407.188</v>
+      </c>
+      <c r="OR1" s="1">
+        <v>408.186</v>
+      </c>
+      <c r="OS1" s="1">
+        <v>409.184</v>
+      </c>
+      <c r="OT1" s="1">
+        <v>410.182</v>
+      </c>
+      <c r="OU1" s="1">
+        <v>411.18</v>
+      </c>
+      <c r="OV1" s="1">
+        <v>412.178</v>
+      </c>
+      <c r="OW1" s="1">
+        <v>413.176</v>
+      </c>
+      <c r="OX1" s="1">
+        <v>414.174</v>
+      </c>
+      <c r="OY1" s="1">
+        <v>415.172</v>
+      </c>
+      <c r="OZ1" s="1">
+        <v>416.17</v>
+      </c>
+      <c r="PA1" s="1">
+        <v>417.168</v>
+      </c>
+      <c r="PB1" s="1">
+        <v>418.166</v>
+      </c>
+      <c r="PC1" s="1">
+        <v>419.164</v>
+      </c>
+      <c r="PD1" s="1">
+        <v>420.162</v>
+      </c>
+      <c r="PE1" s="1">
+        <v>421.16</v>
+      </c>
+      <c r="PF1" s="1">
+        <v>422.158</v>
+      </c>
+      <c r="PG1" s="1">
+        <v>423.156</v>
+      </c>
+      <c r="PH1" s="1">
+        <v>424.154</v>
+      </c>
+      <c r="PI1" s="1">
+        <v>425.152</v>
+      </c>
+      <c r="PJ1" s="1">
+        <v>426.15</v>
+      </c>
+      <c r="PK1" s="1">
+        <v>427.148</v>
+      </c>
+      <c r="PL1" s="1">
+        <v>428.146</v>
+      </c>
+      <c r="PM1" s="1">
+        <v>429.144</v>
+      </c>
+      <c r="PN1" s="1">
+        <v>430.142</v>
+      </c>
+      <c r="PO1" s="1">
+        <v>431.14</v>
+      </c>
+      <c r="PP1" s="1">
+        <v>432.138</v>
+      </c>
+      <c r="PQ1" s="1">
+        <v>433.136</v>
+      </c>
+      <c r="PR1" s="1">
+        <v>434.134</v>
+      </c>
+      <c r="PS1" s="1">
+        <v>435.132</v>
+      </c>
+      <c r="PT1" s="1">
+        <v>436.13</v>
+      </c>
+      <c r="PU1" s="1">
+        <v>437.128</v>
+      </c>
+      <c r="PV1" s="1">
+        <v>438.126</v>
+      </c>
+      <c r="PW1" s="1">
+        <v>439.124</v>
+      </c>
+      <c r="PX1" s="1">
+        <v>440.122</v>
+      </c>
+      <c r="PY1" s="1">
+        <v>441.12</v>
+      </c>
+      <c r="PZ1" s="1">
+        <v>442.118</v>
+      </c>
+      <c r="QA1" s="1">
+        <v>443.116</v>
+      </c>
+      <c r="QB1" s="1">
+        <v>444.114</v>
+      </c>
+      <c r="QC1" s="1">
+        <v>445.112</v>
+      </c>
+      <c r="QD1" s="1">
+        <v>446.11</v>
+      </c>
+      <c r="QE1" s="1">
+        <v>447.108</v>
+      </c>
+      <c r="QF1" s="1">
+        <v>448.106</v>
+      </c>
+      <c r="QG1" s="1">
+        <v>449.104</v>
+      </c>
+      <c r="QH1" s="1">
+        <v>450.102</v>
+      </c>
+      <c r="QI1" s="1">
+        <v>451.1</v>
+      </c>
+      <c r="QJ1" s="1">
+        <v>452.098</v>
+      </c>
+      <c r="QK1" s="1">
+        <v>453.096</v>
+      </c>
+      <c r="QL1" s="1">
+        <v>454.094</v>
+      </c>
+      <c r="QM1" s="1">
+        <v>455.092</v>
+      </c>
+      <c r="QN1" s="1">
+        <v>456.09</v>
+      </c>
+      <c r="QO1" s="1">
+        <v>457.088</v>
+      </c>
+      <c r="QP1" s="1">
+        <v>458.086</v>
+      </c>
+      <c r="QQ1" s="1">
+        <v>459.084</v>
+      </c>
+      <c r="QR1" s="1">
+        <v>460.082</v>
+      </c>
+      <c r="QS1" s="1">
+        <v>461.08</v>
+      </c>
+      <c r="QT1" s="1">
+        <v>462.078</v>
+      </c>
+      <c r="QU1" s="1">
+        <v>463.076</v>
+      </c>
+      <c r="QV1" s="1">
+        <v>464.074</v>
+      </c>
+      <c r="QW1" s="1">
+        <v>465.072</v>
+      </c>
+      <c r="QX1" s="1">
+        <v>466.07</v>
+      </c>
+      <c r="QY1" s="1">
+        <v>467.068</v>
+      </c>
+      <c r="QZ1" s="1">
+        <v>468.066</v>
+      </c>
+      <c r="RA1" s="1">
+        <v>469.064</v>
+      </c>
+      <c r="RB1" s="1">
+        <v>470.062</v>
+      </c>
+      <c r="RC1" s="1">
+        <v>471.06</v>
+      </c>
+      <c r="RD1" s="1">
+        <v>472.058</v>
+      </c>
+      <c r="RE1" s="1">
+        <v>473.056</v>
+      </c>
+      <c r="RF1" s="1">
+        <v>474.054</v>
+      </c>
+      <c r="RG1" s="1">
+        <v>475.052</v>
+      </c>
+      <c r="RH1" s="1">
+        <v>476.05</v>
+      </c>
+      <c r="RI1" s="1">
+        <v>477.048</v>
+      </c>
+      <c r="RJ1" s="1">
+        <v>478.046</v>
+      </c>
+      <c r="RK1" s="1">
+        <v>479.044</v>
+      </c>
+      <c r="RL1" s="1">
+        <v>480.042</v>
+      </c>
+      <c r="RM1" s="1">
+        <v>481.04</v>
+      </c>
+      <c r="RN1" s="1">
+        <v>482.038</v>
+      </c>
+      <c r="RO1" s="1">
+        <v>483.036</v>
+      </c>
+      <c r="RP1" s="1">
+        <v>484.034</v>
+      </c>
+      <c r="RQ1" s="1">
+        <v>485.032</v>
+      </c>
+      <c r="RR1" s="1">
+        <v>486.03</v>
+      </c>
+      <c r="RS1" s="1">
+        <v>487.028</v>
+      </c>
+      <c r="RT1" s="1">
+        <v>488.026</v>
+      </c>
+      <c r="RU1" s="1">
+        <v>489.024</v>
+      </c>
+      <c r="RV1" s="1">
+        <v>490.022</v>
+      </c>
+      <c r="RW1" s="1">
+        <v>491.02</v>
+      </c>
+      <c r="RX1" s="1">
+        <v>492.018</v>
+      </c>
+      <c r="RY1" s="1">
+        <v>493.016</v>
+      </c>
+      <c r="RZ1" s="1">
+        <v>494.014</v>
+      </c>
+      <c r="SA1" s="1">
+        <v>495.012</v>
+      </c>
+      <c r="SB1" s="1">
+        <v>496.01</v>
+      </c>
+      <c r="SC1" s="1">
+        <v>497.008</v>
+      </c>
+      <c r="SD1" s="1">
+        <v>498.006</v>
+      </c>
+      <c r="SE1" s="1">
+        <v>499.004</v>
+      </c>
+      <c r="SF1" s="1">
+        <v>500.002</v>
+      </c>
+      <c r="SG1" s="1">
+        <v>501</v>
+      </c>
+      <c r="SH1" s="1">
+        <v>501.998</v>
+      </c>
+      <c r="SI1" s="1">
+        <v>502.996</v>
+      </c>
+      <c r="SJ1" s="1">
+        <v>503.994</v>
+      </c>
+      <c r="SK1" s="1">
+        <v>504.992</v>
+      </c>
+      <c r="SL1" s="1">
+        <v>505.99</v>
+      </c>
+      <c r="SM1" s="1">
+        <v>506.988</v>
+      </c>
+      <c r="SN1" s="1">
+        <v>507.986</v>
+      </c>
+      <c r="SO1" s="1">
+        <v>508.984</v>
+      </c>
+      <c r="SP1" s="1">
+        <v>509.982</v>
+      </c>
+      <c r="SQ1" s="1">
+        <v>510.98</v>
+      </c>
+      <c r="SR1" s="1">
+        <v>511.978</v>
+      </c>
+      <c r="SS1" s="1">
+        <v>512.976</v>
+      </c>
+      <c r="ST1" s="1">
+        <v>513.974</v>
+      </c>
+      <c r="SU1" s="1">
+        <v>514.972</v>
+      </c>
+      <c r="SV1" s="1">
+        <v>515.97</v>
+      </c>
+      <c r="SW1" s="1">
+        <v>516.968</v>
+      </c>
+      <c r="SX1" s="1">
+        <v>517.966</v>
+      </c>
+      <c r="SY1" s="1">
+        <v>518.9640000000001</v>
+      </c>
+      <c r="SZ1" s="1">
+        <v>519.962</v>
+      </c>
+      <c r="TA1" s="1">
+        <v>520.96</v>
+      </c>
+      <c r="TB1" s="1">
+        <v>521.958</v>
+      </c>
+      <c r="TC1" s="1">
+        <v>522.956</v>
+      </c>
+      <c r="TD1" s="1">
+        <v>523.954</v>
+      </c>
+      <c r="TE1" s="1">
+        <v>524.952</v>
+      </c>
+      <c r="TF1" s="1">
+        <v>525.95</v>
+      </c>
+      <c r="TG1" s="1">
+        <v>526.948</v>
+      </c>
+      <c r="TH1" s="1">
+        <v>527.946</v>
+      </c>
+      <c r="TI1" s="1">
+        <v>528.944</v>
+      </c>
+      <c r="TJ1" s="1">
+        <v>529.942</v>
+      </c>
+      <c r="TK1" s="1">
+        <v>530.9400000000001</v>
+      </c>
+      <c r="TL1" s="1">
+        <v>531.938</v>
+      </c>
+      <c r="TM1" s="1">
+        <v>532.936</v>
+      </c>
+      <c r="TN1" s="1">
+        <v>533.934</v>
+      </c>
+      <c r="TO1" s="1">
+        <v>534.932</v>
+      </c>
+      <c r="TP1" s="1">
+        <v>535.9299999999999</v>
+      </c>
+      <c r="TQ1" s="1">
+        <v>536.928</v>
+      </c>
+      <c r="TR1" s="1">
+        <v>537.926</v>
+      </c>
+      <c r="TS1" s="1">
+        <v>538.924</v>
+      </c>
+      <c r="TT1" s="1">
+        <v>539.922</v>
+      </c>
+      <c r="TU1" s="1">
+        <v>540.92</v>
+      </c>
+      <c r="TV1" s="1">
+        <v>541.918</v>
+      </c>
+      <c r="TW1" s="1">
+        <v>542.9160000000001</v>
+      </c>
+      <c r="TX1" s="1">
+        <v>543.914</v>
+      </c>
+      <c r="TY1" s="1">
+        <v>544.912</v>
+      </c>
+      <c r="TZ1" s="1">
+        <v>545.91</v>
+      </c>
+      <c r="UA1" s="1">
+        <v>546.908</v>
+      </c>
+      <c r="UB1" s="1">
+        <v>547.9059999999999</v>
+      </c>
+      <c r="UC1" s="1">
+        <v>548.904</v>
+      </c>
+      <c r="UD1" s="1">
+        <v>549.902</v>
+      </c>
+      <c r="UE1" s="1">
+        <v>550.9</v>
+      </c>
+      <c r="UF1" s="1">
+        <v>551.898</v>
+      </c>
+      <c r="UG1" s="1">
+        <v>552.896</v>
+      </c>
+      <c r="UH1" s="1">
+        <v>553.894</v>
+      </c>
+      <c r="UI1" s="1">
+        <v>554.8920000000001</v>
+      </c>
+      <c r="UJ1" s="1">
+        <v>555.89</v>
+      </c>
+      <c r="UK1" s="1">
+        <v>556.888</v>
+      </c>
+      <c r="UL1" s="1">
+        <v>557.886</v>
+      </c>
+      <c r="UM1" s="1">
+        <v>558.884</v>
+      </c>
+      <c r="UN1" s="1">
+        <v>559.8819999999999</v>
+      </c>
+      <c r="UO1" s="1">
+        <v>560.88</v>
+      </c>
+      <c r="UP1" s="1">
+        <v>561.878</v>
+      </c>
+      <c r="UQ1" s="1">
+        <v>562.876</v>
+      </c>
+      <c r="UR1" s="1">
+        <v>563.874</v>
+      </c>
+      <c r="US1" s="1">
+        <v>564.872</v>
+      </c>
+      <c r="UT1" s="1">
+        <v>565.87</v>
+      </c>
+      <c r="UU1" s="1">
+        <v>566.8680000000001</v>
+      </c>
+      <c r="UV1" s="1">
+        <v>567.866</v>
+      </c>
+      <c r="UW1" s="1">
+        <v>568.864</v>
+      </c>
+      <c r="UX1" s="1">
+        <v>569.862</v>
+      </c>
+      <c r="UY1" s="1">
+        <v>570.86</v>
+      </c>
+      <c r="UZ1" s="1">
+        <v>571.8579999999999</v>
+      </c>
+      <c r="VA1" s="1">
+        <v>572.856</v>
+      </c>
+      <c r="VB1" s="1">
+        <v>573.854</v>
+      </c>
+      <c r="VC1" s="1">
+        <v>574.852</v>
+      </c>
+      <c r="VD1" s="1">
+        <v>575.85</v>
+      </c>
+      <c r="VE1" s="1">
+        <v>576.848</v>
+      </c>
+      <c r="VF1" s="1">
+        <v>577.846</v>
+      </c>
+      <c r="VG1" s="1">
+        <v>578.8440000000001</v>
+      </c>
+      <c r="VH1" s="1">
+        <v>579.842</v>
+      </c>
+      <c r="VI1" s="1">
+        <v>580.84</v>
+      </c>
+      <c r="VJ1" s="1">
+        <v>581.838</v>
+      </c>
+      <c r="VK1" s="1">
+        <v>582.836</v>
+      </c>
+      <c r="VL1" s="1">
+        <v>583.8339999999999</v>
+      </c>
+      <c r="VM1" s="1">
+        <v>584.832</v>
+      </c>
+      <c r="VN1" s="1">
+        <v>585.83</v>
+      </c>
+      <c r="VO1" s="1">
+        <v>586.828</v>
+      </c>
+      <c r="VP1" s="1">
+        <v>587.826</v>
+      </c>
+      <c r="VQ1" s="1">
+        <v>588.824</v>
+      </c>
+      <c r="VR1" s="1">
+        <v>589.822</v>
+      </c>
+      <c r="VS1" s="1">
+        <v>590.8200000000001</v>
+      </c>
+      <c r="VT1" s="1">
+        <v>591.818</v>
+      </c>
+      <c r="VU1" s="1">
+        <v>592.816</v>
+      </c>
+      <c r="VV1" s="1">
+        <v>593.814</v>
+      </c>
+      <c r="VW1" s="1">
+        <v>594.812</v>
+      </c>
+      <c r="VX1" s="1">
+        <v>595.8099999999999</v>
+      </c>
+      <c r="VY1" s="1">
+        <v>596.808</v>
+      </c>
+      <c r="VZ1" s="1">
+        <v>597.806</v>
+      </c>
+      <c r="WA1" s="1">
+        <v>598.804</v>
+      </c>
+      <c r="WB1" s="1">
+        <v>599.802</v>
+      </c>
+      <c r="WC1" s="1">
+        <v>600.8</v>
+      </c>
+      <c r="WD1" s="1">
+        <v>601.798</v>
+      </c>
+      <c r="WE1" s="1">
+        <v>602.796</v>
+      </c>
+      <c r="WF1" s="1">
+        <v>603.794</v>
+      </c>
+      <c r="WG1" s="1">
+        <v>604.792</v>
+      </c>
+      <c r="WH1" s="1">
+        <v>605.79</v>
+      </c>
+      <c r="WI1" s="1">
+        <v>606.788</v>
+      </c>
+      <c r="WJ1" s="1">
+        <v>607.7859999999999</v>
+      </c>
+      <c r="WK1" s="1">
+        <v>608.784</v>
+      </c>
+      <c r="WL1" s="1">
+        <v>609.782</v>
+      </c>
+      <c r="WM1" s="1">
+        <v>610.78</v>
+      </c>
+      <c r="WN1" s="1">
+        <v>611.778</v>
+      </c>
+      <c r="WO1" s="1">
+        <v>612.776</v>
+      </c>
+      <c r="WP1" s="1">
+        <v>613.774</v>
+      </c>
+      <c r="WQ1" s="1">
+        <v>614.772</v>
+      </c>
+      <c r="WR1" s="1">
+        <v>615.77</v>
+      </c>
+      <c r="WS1" s="1">
+        <v>616.768</v>
+      </c>
+      <c r="WT1" s="1">
+        <v>617.766</v>
+      </c>
+      <c r="WU1" s="1">
+        <v>618.764</v>
+      </c>
+      <c r="WV1" s="1">
+        <v>619.7619999999999</v>
+      </c>
+      <c r="WW1" s="1">
+        <v>620.76</v>
+      </c>
+      <c r="WX1" s="1">
+        <v>621.758</v>
+      </c>
+      <c r="WY1" s="1">
+        <v>622.756</v>
+      </c>
+      <c r="WZ1" s="1">
+        <v>623.754</v>
+      </c>
+      <c r="XA1" s="1">
+        <v>624.752</v>
+      </c>
+      <c r="XB1" s="1">
+        <v>625.75</v>
+      </c>
+      <c r="XC1" s="1">
+        <v>626.748</v>
+      </c>
+      <c r="XD1" s="1">
+        <v>627.746</v>
+      </c>
+      <c r="XE1" s="1">
+        <v>628.744</v>
+      </c>
+      <c r="XF1" s="1">
+        <v>629.742</v>
+      </c>
+      <c r="XG1" s="1">
+        <v>630.74</v>
+      </c>
+      <c r="XH1" s="1">
+        <v>631.7380000000001</v>
+      </c>
+      <c r="XI1" s="1">
+        <v>632.736</v>
+      </c>
+      <c r="XJ1" s="1">
+        <v>633.734</v>
+      </c>
+      <c r="XK1" s="1">
+        <v>634.732</v>
+      </c>
+      <c r="XL1" s="1">
+        <v>635.73</v>
+      </c>
+      <c r="XM1" s="1">
+        <v>636.728</v>
+      </c>
+      <c r="XN1" s="1">
+        <v>637.726</v>
+      </c>
+      <c r="XO1" s="1">
+        <v>638.724</v>
+      </c>
+      <c r="XP1" s="1">
+        <v>639.722</v>
+      </c>
+      <c r="XQ1" s="1">
+        <v>640.72</v>
+      </c>
+      <c r="XR1" s="1">
+        <v>641.718</v>
+      </c>
+      <c r="XS1" s="1">
+        <v>642.716</v>
+      </c>
+      <c r="XT1" s="1">
+        <v>643.7140000000001</v>
+      </c>
+      <c r="XU1" s="1">
+        <v>644.712</v>
+      </c>
+      <c r="XV1" s="1">
+        <v>645.71</v>
+      </c>
+      <c r="XW1" s="1">
+        <v>646.708</v>
+      </c>
+      <c r="XX1" s="1">
+        <v>647.706</v>
+      </c>
+      <c r="XY1" s="1">
+        <v>648.704</v>
+      </c>
+      <c r="XZ1" s="1">
+        <v>649.702</v>
+      </c>
+      <c r="YA1" s="1">
+        <v>650.7</v>
+      </c>
+      <c r="YB1" s="1">
+        <v>651.698</v>
+      </c>
+      <c r="YC1" s="1">
+        <v>652.696</v>
+      </c>
+      <c r="YD1" s="1">
+        <v>653.694</v>
+      </c>
+      <c r="YE1" s="1">
+        <v>654.692</v>
+      </c>
+      <c r="YF1" s="1">
+        <v>655.6900000000001</v>
+      </c>
+      <c r="YG1" s="1">
+        <v>656.688</v>
+      </c>
+      <c r="YH1" s="1">
+        <v>657.686</v>
+      </c>
+      <c r="YI1" s="1">
+        <v>658.684</v>
+      </c>
+      <c r="YJ1" s="1">
+        <v>659.682</v>
+      </c>
+      <c r="YK1" s="1">
+        <v>660.6799999999999</v>
+      </c>
+      <c r="YL1" s="1">
+        <v>661.678</v>
+      </c>
+      <c r="YM1" s="1">
+        <v>662.676</v>
+      </c>
+      <c r="YN1" s="1">
+        <v>663.674</v>
+      </c>
+      <c r="YO1" s="1">
+        <v>664.672</v>
+      </c>
+      <c r="YP1" s="1">
+        <v>665.67</v>
+      </c>
+      <c r="YQ1" s="1">
+        <v>666.668</v>
+      </c>
+      <c r="YR1" s="1">
+        <v>667.6660000000001</v>
+      </c>
+      <c r="YS1" s="1">
+        <v>668.664</v>
+      </c>
+      <c r="YT1" s="1">
+        <v>669.662</v>
+      </c>
+      <c r="YU1" s="1">
+        <v>670.66</v>
+      </c>
+      <c r="YV1" s="1">
+        <v>671.658</v>
+      </c>
+      <c r="YW1" s="1">
+        <v>672.6559999999999</v>
+      </c>
+      <c r="YX1" s="1">
+        <v>673.654</v>
+      </c>
+      <c r="YY1" s="1">
+        <v>674.652</v>
+      </c>
+      <c r="YZ1" s="1">
+        <v>675.65</v>
+      </c>
+      <c r="ZA1" s="1">
+        <v>676.648</v>
+      </c>
+      <c r="ZB1" s="1">
+        <v>677.646</v>
+      </c>
+      <c r="ZC1" s="1">
+        <v>678.644</v>
+      </c>
+      <c r="ZD1" s="1">
+        <v>679.6420000000001</v>
+      </c>
+      <c r="ZE1" s="1">
+        <v>680.64</v>
+      </c>
+      <c r="ZF1" s="1">
+        <v>681.638</v>
+      </c>
+      <c r="ZG1" s="1">
+        <v>682.636</v>
+      </c>
+      <c r="ZH1" s="1">
+        <v>683.634</v>
+      </c>
+      <c r="ZI1" s="1">
+        <v>684.6319999999999</v>
+      </c>
+      <c r="ZJ1" s="1">
+        <v>685.63</v>
+      </c>
+      <c r="ZK1" s="1">
+        <v>686.628</v>
+      </c>
+      <c r="ZL1" s="1">
+        <v>687.626</v>
+      </c>
+      <c r="ZM1" s="1">
+        <v>688.624</v>
+      </c>
+      <c r="ZN1" s="1">
+        <v>689.622</v>
+      </c>
+      <c r="ZO1" s="1">
+        <v>690.62</v>
+      </c>
+      <c r="ZP1" s="1">
+        <v>691.6180000000001</v>
+      </c>
+      <c r="ZQ1" s="1">
+        <v>692.616</v>
+      </c>
+      <c r="ZR1" s="1">
+        <v>693.614</v>
+      </c>
+      <c r="ZS1" s="1">
+        <v>694.612</v>
+      </c>
+      <c r="ZT1" s="1">
+        <v>695.61</v>
+      </c>
+      <c r="ZU1" s="1">
+        <v>696.6079999999999</v>
+      </c>
+      <c r="ZV1" s="1">
+        <v>697.606</v>
+      </c>
+      <c r="ZW1" s="1">
+        <v>698.604</v>
+      </c>
+      <c r="ZX1" s="1">
+        <v>699.602</v>
+      </c>
+      <c r="ZY1" s="1">
+        <v>700.6</v>
+      </c>
+      <c r="ZZ1" s="1">
+        <v>701.598</v>
+      </c>
+      <c r="AAA1" s="1">
+        <v>702.596</v>
+      </c>
+      <c r="AAB1" s="1">
+        <v>703.5940000000001</v>
+      </c>
+      <c r="AAC1" s="1">
+        <v>704.592</v>
+      </c>
+      <c r="AAD1" s="1">
+        <v>705.59</v>
+      </c>
+      <c r="AAE1" s="1">
+        <v>706.588</v>
+      </c>
+      <c r="AAF1" s="1">
+        <v>707.586</v>
+      </c>
+      <c r="AAG1" s="1">
+        <v>708.5839999999999</v>
+      </c>
+      <c r="AAH1" s="1">
+        <v>709.582</v>
+      </c>
+      <c r="AAI1" s="1">
+        <v>710.58</v>
+      </c>
+      <c r="AAJ1" s="1">
+        <v>711.578</v>
+      </c>
+      <c r="AAK1" s="1">
+        <v>712.576</v>
+      </c>
+      <c r="AAL1" s="1">
+        <v>713.574</v>
+      </c>
+      <c r="AAM1" s="1">
+        <v>714.572</v>
+      </c>
+      <c r="AAN1" s="1">
+        <v>715.5700000000001</v>
+      </c>
+      <c r="AAO1" s="1">
+        <v>716.568</v>
+      </c>
+      <c r="AAP1" s="1">
+        <v>717.566</v>
+      </c>
+      <c r="AAQ1" s="1">
+        <v>718.564</v>
+      </c>
+      <c r="AAR1" s="1">
+        <v>719.562</v>
+      </c>
+      <c r="AAS1" s="1">
+        <v>720.5599999999999</v>
+      </c>
+      <c r="AAT1" s="1">
+        <v>721.558</v>
+      </c>
+      <c r="AAU1" s="1">
+        <v>722.556</v>
+      </c>
+      <c r="AAV1" s="1">
+        <v>723.554</v>
+      </c>
+      <c r="AAW1" s="1">
+        <v>724.552</v>
+      </c>
+      <c r="AAX1" s="1">
+        <v>725.55</v>
+      </c>
+      <c r="AAY1" s="1">
+        <v>726.548</v>
+      </c>
+      <c r="AAZ1" s="1">
+        <v>727.546</v>
+      </c>
+      <c r="ABA1" s="1">
+        <v>728.544</v>
+      </c>
+      <c r="ABB1" s="1">
+        <v>729.542</v>
+      </c>
+      <c r="ABC1" s="1">
+        <v>730.54</v>
+      </c>
+      <c r="ABD1" s="1">
+        <v>731.538</v>
+      </c>
+      <c r="ABE1" s="1">
+        <v>732.5359999999999</v>
+      </c>
+      <c r="ABF1" s="1">
+        <v>733.534</v>
+      </c>
+      <c r="ABG1" s="1">
+        <v>734.532</v>
+      </c>
+      <c r="ABH1" s="1">
+        <v>735.53</v>
+      </c>
+      <c r="ABI1" s="1">
+        <v>736.528</v>
+      </c>
+      <c r="ABJ1" s="1">
+        <v>737.526</v>
+      </c>
+      <c r="ABK1" s="1">
+        <v>738.524</v>
+      </c>
+      <c r="ABL1" s="1">
+        <v>739.522</v>
+      </c>
+      <c r="ABM1" s="1">
+        <v>740.52</v>
+      </c>
+      <c r="ABN1" s="1">
+        <v>741.518</v>
+      </c>
+      <c r="ABO1" s="1">
+        <v>742.516</v>
+      </c>
+      <c r="ABP1" s="1">
+        <v>743.514</v>
+      </c>
+      <c r="ABQ1" s="1">
+        <v>744.5119999999999</v>
+      </c>
+      <c r="ABR1" s="1">
+        <v>745.51</v>
+      </c>
+      <c r="ABS1" s="1">
+        <v>746.508</v>
+      </c>
+      <c r="ABT1" s="1">
+        <v>747.506</v>
+      </c>
+      <c r="ABU1" s="1">
+        <v>748.504</v>
+      </c>
+      <c r="ABV1" s="1">
+        <v>749.502</v>
+      </c>
+      <c r="ABW1" s="1">
+        <v>750.5</v>
+      </c>
+      <c r="ABX1" s="1">
+        <v>751.498</v>
+      </c>
+      <c r="ABY1" s="1">
+        <v>752.496</v>
+      </c>
+      <c r="ABZ1" s="1">
+        <v>753.494</v>
+      </c>
+      <c r="ACA1" s="1">
+        <v>754.492</v>
+      </c>
+      <c r="ACB1" s="1">
+        <v>755.49</v>
+      </c>
+      <c r="ACC1" s="1">
+        <v>756.4880000000001</v>
+      </c>
+      <c r="ACD1" s="1">
+        <v>757.486</v>
+      </c>
+      <c r="ACE1" s="1">
+        <v>758.484</v>
+      </c>
+      <c r="ACF1" s="1">
+        <v>759.482</v>
+      </c>
+      <c r="ACG1" s="1">
+        <v>760.48</v>
+      </c>
+      <c r="ACH1" s="1">
+        <v>761.478</v>
+      </c>
+      <c r="ACI1" s="1">
+        <v>762.476</v>
+      </c>
+      <c r="ACJ1" s="1">
+        <v>763.474</v>
+      </c>
+      <c r="ACK1" s="1">
+        <v>764.472</v>
+      </c>
+      <c r="ACL1" s="1">
+        <v>765.47</v>
+      </c>
+      <c r="ACM1" s="1">
+        <v>766.468</v>
+      </c>
+      <c r="ACN1" s="1">
+        <v>767.466</v>
+      </c>
+      <c r="ACO1" s="1">
+        <v>768.4640000000001</v>
+      </c>
+      <c r="ACP1" s="1">
+        <v>769.462</v>
+      </c>
+      <c r="ACQ1" s="1">
+        <v>770.46</v>
+      </c>
+      <c r="ACR1" s="1">
+        <v>771.458</v>
+      </c>
+      <c r="ACS1" s="1">
+        <v>772.456</v>
+      </c>
+      <c r="ACT1" s="1">
+        <v>773.454</v>
+      </c>
+      <c r="ACU1" s="1">
+        <v>774.452</v>
+      </c>
+      <c r="ACV1" s="1">
+        <v>775.45</v>
+      </c>
+      <c r="ACW1" s="1">
+        <v>776.448</v>
+      </c>
+      <c r="ACX1" s="1">
+        <v>777.446</v>
+      </c>
+      <c r="ACY1" s="1">
+        <v>778.444</v>
+      </c>
+      <c r="ACZ1" s="1">
+        <v>779.442</v>
+      </c>
+      <c r="ADA1" s="1">
+        <v>780.4400000000001</v>
+      </c>
+      <c r="ADB1" s="1">
+        <v>781.438</v>
+      </c>
+      <c r="ADC1" s="1">
+        <v>782.436</v>
+      </c>
+      <c r="ADD1" s="1">
+        <v>783.434</v>
+      </c>
+      <c r="ADE1" s="1">
+        <v>784.432</v>
+      </c>
+      <c r="ADF1" s="1">
+        <v>785.4299999999999</v>
+      </c>
+      <c r="ADG1" s="1">
+        <v>786.428</v>
+      </c>
+      <c r="ADH1" s="1">
+        <v>787.426</v>
+      </c>
+      <c r="ADI1" s="1">
+        <v>788.424</v>
+      </c>
+      <c r="ADJ1" s="1">
+        <v>789.422</v>
+      </c>
+      <c r="ADK1" s="1">
+        <v>790.42</v>
+      </c>
+      <c r="ADL1" s="1">
+        <v>791.418</v>
+      </c>
+      <c r="ADM1" s="1">
+        <v>792.4160000000001</v>
+      </c>
+      <c r="ADN1" s="1">
+        <v>793.414</v>
+      </c>
+      <c r="ADO1" s="1">
+        <v>794.412</v>
+      </c>
+      <c r="ADP1" s="1">
+        <v>795.41</v>
+      </c>
+      <c r="ADQ1" s="1">
+        <v>796.408</v>
+      </c>
+      <c r="ADR1" s="1">
+        <v>797.4059999999999</v>
+      </c>
+      <c r="ADS1" s="1">
+        <v>798.404</v>
+      </c>
+      <c r="ADT1" s="1">
+        <v>799.402</v>
+      </c>
+      <c r="ADU1" s="1">
+        <v>800.4</v>
+      </c>
+      <c r="ADV1" s="1">
+        <v>801.398</v>
+      </c>
+      <c r="ADW1" s="1">
+        <v>802.396</v>
+      </c>
+      <c r="ADX1" s="1">
+        <v>803.394</v>
+      </c>
+      <c r="ADY1" s="1">
+        <v>804.3920000000001</v>
+      </c>
+      <c r="ADZ1" s="1">
+        <v>805.39</v>
+      </c>
+      <c r="AEA1" s="1">
+        <v>806.388</v>
+      </c>
+      <c r="AEB1" s="1">
+        <v>807.386</v>
+      </c>
+      <c r="AEC1" s="1">
+        <v>808.384</v>
+      </c>
+      <c r="AED1" s="1">
+        <v>809.3819999999999</v>
+      </c>
+      <c r="AEE1" s="1">
+        <v>810.38</v>
+      </c>
+      <c r="AEF1" s="1">
+        <v>811.378</v>
+      </c>
+      <c r="AEG1" s="1">
+        <v>812.376</v>
+      </c>
+      <c r="AEH1" s="1">
+        <v>813.374</v>
+      </c>
+      <c r="AEI1" s="1">
+        <v>814.372</v>
+      </c>
+      <c r="AEJ1" s="1">
+        <v>815.37</v>
+      </c>
+      <c r="AEK1" s="1">
+        <v>816.3680000000001</v>
+      </c>
+      <c r="AEL1" s="1">
+        <v>817.366</v>
+      </c>
+      <c r="AEM1" s="1">
+        <v>818.364</v>
+      </c>
+      <c r="AEN1" s="1">
+        <v>819.362</v>
+      </c>
+      <c r="AEO1" s="1">
+        <v>820.36</v>
+      </c>
+      <c r="AEP1" s="1">
+        <v>821.3579999999999</v>
+      </c>
+      <c r="AEQ1" s="1">
+        <v>822.356</v>
+      </c>
+      <c r="AER1" s="1">
+        <v>823.354</v>
+      </c>
+      <c r="AES1" s="1">
+        <v>824.352</v>
+      </c>
+      <c r="AET1" s="1">
+        <v>825.35</v>
+      </c>
+      <c r="AEU1" s="1">
+        <v>826.348</v>
+      </c>
+      <c r="AEV1" s="1">
+        <v>827.346</v>
+      </c>
+      <c r="AEW1" s="1">
+        <v>828.3440000000001</v>
+      </c>
+      <c r="AEX1" s="1">
+        <v>829.342</v>
+      </c>
+      <c r="AEY1" s="1">
+        <v>830.34</v>
+      </c>
+      <c r="AEZ1" s="1">
+        <v>831.338</v>
+      </c>
+      <c r="AFA1" s="1">
+        <v>832.336</v>
+      </c>
+      <c r="AFB1" s="1">
+        <v>833.3339999999999</v>
+      </c>
+      <c r="AFC1" s="1">
+        <v>834.332</v>
+      </c>
+      <c r="AFD1" s="1">
+        <v>835.33</v>
+      </c>
+      <c r="AFE1" s="1">
+        <v>836.328</v>
+      </c>
+      <c r="AFF1" s="1">
+        <v>837.326</v>
+      </c>
+      <c r="AFG1" s="1">
+        <v>838.324</v>
+      </c>
+      <c r="AFH1" s="1">
+        <v>839.322</v>
+      </c>
+      <c r="AFI1" s="1">
+        <v>840.3200000000001</v>
+      </c>
+      <c r="AFJ1" s="1">
+        <v>841.318</v>
+      </c>
+      <c r="AFK1" s="1">
+        <v>842.316</v>
+      </c>
+      <c r="AFL1" s="1">
+        <v>843.314</v>
+      </c>
+      <c r="AFM1" s="1">
+        <v>844.312</v>
+      </c>
+      <c r="AFN1" s="1">
+        <v>845.3099999999999</v>
+      </c>
+      <c r="AFO1" s="1">
+        <v>846.308</v>
+      </c>
+      <c r="AFP1" s="1">
+        <v>847.306</v>
+      </c>
+      <c r="AFQ1" s="1">
+        <v>848.304</v>
+      </c>
+      <c r="AFR1" s="1">
+        <v>849.302</v>
+      </c>
+      <c r="AFS1" s="1">
+        <v>850.3</v>
+      </c>
+      <c r="AFT1" s="1">
+        <v>851.298</v>
+      </c>
+      <c r="AFU1" s="1">
+        <v>852.296</v>
+      </c>
+      <c r="AFV1" s="1">
+        <v>853.294</v>
+      </c>
+      <c r="AFW1" s="1">
+        <v>854.292</v>
+      </c>
+      <c r="AFX1" s="1">
+        <v>855.29</v>
+      </c>
+      <c r="AFY1" s="1">
+        <v>856.288</v>
+      </c>
+      <c r="AFZ1" s="1">
+        <v>857.2859999999999</v>
+      </c>
+      <c r="AGA1" s="1">
+        <v>858.284</v>
+      </c>
+      <c r="AGB1" s="1">
+        <v>859.282</v>
+      </c>
+      <c r="AGC1" s="1">
+        <v>860.28</v>
+      </c>
+      <c r="AGD1" s="1">
+        <v>861.278</v>
+      </c>
+      <c r="AGE1" s="1">
+        <v>862.276</v>
+      </c>
+      <c r="AGF1" s="1">
+        <v>863.274</v>
+      </c>
+      <c r="AGG1" s="1">
+        <v>864.272</v>
+      </c>
+      <c r="AGH1" s="1">
+        <v>865.27</v>
+      </c>
+      <c r="AGI1" s="1">
+        <v>866.268</v>
+      </c>
+      <c r="AGJ1" s="1">
+        <v>867.266</v>
+      </c>
+      <c r="AGK1" s="1">
+        <v>868.264</v>
+      </c>
+      <c r="AGL1" s="1">
+        <v>869.2619999999999</v>
+      </c>
+      <c r="AGM1" s="1">
+        <v>870.26</v>
+      </c>
+      <c r="AGN1" s="1">
+        <v>871.258</v>
+      </c>
+      <c r="AGO1" s="1">
+        <v>872.256</v>
+      </c>
+      <c r="AGP1" s="1">
+        <v>873.254</v>
+      </c>
+      <c r="AGQ1" s="1">
+        <v>874.252</v>
+      </c>
+      <c r="AGR1" s="1">
+        <v>875.25</v>
+      </c>
+      <c r="AGS1" s="1">
+        <v>876.248</v>
+      </c>
+      <c r="AGT1" s="1">
+        <v>877.246</v>
+      </c>
+      <c r="AGU1" s="1">
+        <v>878.244</v>
+      </c>
+      <c r="AGV1" s="1">
+        <v>879.242</v>
+      </c>
+      <c r="AGW1" s="1">
+        <v>880.24</v>
+      </c>
+      <c r="AGX1" s="1">
+        <v>881.2380000000001</v>
+      </c>
+      <c r="AGY1" s="1">
+        <v>882.236</v>
+      </c>
+      <c r="AGZ1" s="1">
+        <v>883.234</v>
+      </c>
+      <c r="AHA1" s="1">
+        <v>884.232</v>
+      </c>
+      <c r="AHB1" s="1">
+        <v>885.23</v>
+      </c>
+      <c r="AHC1" s="1">
+        <v>886.228</v>
+      </c>
+      <c r="AHD1" s="1">
+        <v>887.226</v>
+      </c>
+      <c r="AHE1" s="1">
+        <v>888.224</v>
+      </c>
+      <c r="AHF1" s="1">
+        <v>889.222</v>
+      </c>
+      <c r="AHG1" s="1">
+        <v>890.22</v>
+      </c>
+      <c r="AHH1" s="1">
+        <v>891.218</v>
+      </c>
+      <c r="AHI1" s="1">
+        <v>892.216</v>
+      </c>
+      <c r="AHJ1" s="1">
+        <v>893.2140000000001</v>
+      </c>
+      <c r="AHK1" s="1">
+        <v>894.212</v>
+      </c>
+      <c r="AHL1" s="1">
+        <v>895.21</v>
+      </c>
+      <c r="AHM1" s="1">
+        <v>896.208</v>
+      </c>
+      <c r="AHN1" s="1">
+        <v>897.206</v>
+      </c>
+      <c r="AHO1" s="1">
+        <v>898.204</v>
+      </c>
+      <c r="AHP1" s="1">
+        <v>899.202</v>
+      </c>
+      <c r="AHQ1" s="1">
+        <v>900.2</v>
+      </c>
+      <c r="AHR1" s="1">
+        <v>901.198</v>
+      </c>
+      <c r="AHS1" s="1">
+        <v>902.196</v>
+      </c>
+      <c r="AHT1" s="1">
+        <v>903.194</v>
+      </c>
+      <c r="AHU1" s="1">
+        <v>904.192</v>
+      </c>
+      <c r="AHV1" s="1">
+        <v>905.1900000000001</v>
+      </c>
+      <c r="AHW1" s="1">
+        <v>906.188</v>
+      </c>
+      <c r="AHX1" s="1">
+        <v>907.186</v>
+      </c>
+      <c r="AHY1" s="1">
+        <v>908.184</v>
+      </c>
+      <c r="AHZ1" s="1">
+        <v>909.182</v>
+      </c>
+      <c r="AIA1" s="1">
+        <v>910.1799999999999</v>
+      </c>
+      <c r="AIB1" s="1">
+        <v>911.178</v>
+      </c>
+      <c r="AIC1" s="1">
+        <v>912.176</v>
+      </c>
+      <c r="AID1" s="1">
+        <v>913.174</v>
+      </c>
+      <c r="AIE1" s="1">
+        <v>914.172</v>
+      </c>
+      <c r="AIF1" s="1">
+        <v>915.17</v>
+      </c>
+      <c r="AIG1" s="1">
+        <v>916.168</v>
+      </c>
+      <c r="AIH1" s="1">
+        <v>917.1660000000001</v>
+      </c>
+      <c r="AII1" s="1">
+        <v>918.164</v>
+      </c>
+      <c r="AIJ1" s="1">
+        <v>919.162</v>
+      </c>
+      <c r="AIK1" s="1">
+        <v>920.16</v>
+      </c>
+      <c r="AIL1" s="1">
+        <v>921.158</v>
+      </c>
+      <c r="AIM1" s="1">
+        <v>922.1559999999999</v>
+      </c>
+      <c r="AIN1" s="1">
+        <v>923.154</v>
+      </c>
+      <c r="AIO1" s="1">
+        <v>924.152</v>
+      </c>
+      <c r="AIP1" s="1">
+        <v>925.15</v>
+      </c>
+      <c r="AIQ1" s="1">
+        <v>926.148</v>
+      </c>
+      <c r="AIR1" s="1">
+        <v>927.146</v>
+      </c>
+      <c r="AIS1" s="1">
+        <v>928.144</v>
+      </c>
+      <c r="AIT1" s="1">
+        <v>929.1420000000001</v>
+      </c>
+      <c r="AIU1" s="1">
+        <v>930.14</v>
+      </c>
+      <c r="AIV1" s="1">
+        <v>931.138</v>
+      </c>
+      <c r="AIW1" s="1">
+        <v>932.136</v>
+      </c>
+      <c r="AIX1" s="1">
+        <v>933.134</v>
+      </c>
+      <c r="AIY1" s="1">
+        <v>934.1319999999999</v>
+      </c>
+      <c r="AIZ1" s="1">
+        <v>935.13</v>
+      </c>
+      <c r="AJA1" s="1">
+        <v>936.128</v>
+      </c>
+      <c r="AJB1" s="1">
+        <v>937.126</v>
+      </c>
+      <c r="AJC1" s="1">
+        <v>938.124</v>
+      </c>
+      <c r="AJD1" s="1">
+        <v>939.122</v>
+      </c>
+      <c r="AJE1" s="1">
+        <v>940.12</v>
+      </c>
+      <c r="AJF1" s="1">
+        <v>941.1180000000001</v>
+      </c>
+      <c r="AJG1" s="1">
+        <v>942.116</v>
+      </c>
+      <c r="AJH1" s="1">
+        <v>943.114</v>
+      </c>
+      <c r="AJI1" s="1">
+        <v>944.112</v>
+      </c>
+      <c r="AJJ1" s="1">
+        <v>945.11</v>
+      </c>
+      <c r="AJK1" s="1">
+        <v>946.1079999999999</v>
+      </c>
+      <c r="AJL1" s="1">
+        <v>947.106</v>
+      </c>
+      <c r="AJM1" s="1">
+        <v>948.104</v>
+      </c>
+      <c r="AJN1" s="1">
+        <v>949.102</v>
+      </c>
+      <c r="AJO1" s="1">
+        <v>950.1</v>
+      </c>
+      <c r="AJP1" s="1">
+        <v>951.098</v>
+      </c>
+      <c r="AJQ1" s="1">
+        <v>952.096</v>
+      </c>
+      <c r="AJR1" s="1">
+        <v>953.0940000000001</v>
+      </c>
+      <c r="AJS1" s="1">
+        <v>954.092</v>
+      </c>
+      <c r="AJT1" s="1">
+        <v>955.09</v>
+      </c>
+      <c r="AJU1" s="1">
+        <v>956.088</v>
+      </c>
+      <c r="AJV1" s="1">
+        <v>957.086</v>
+      </c>
+      <c r="AJW1" s="1">
+        <v>958.0839999999999</v>
+      </c>
+      <c r="AJX1" s="1">
+        <v>959.082</v>
+      </c>
+      <c r="AJY1" s="1">
+        <v>960.08</v>
+      </c>
+      <c r="AJZ1" s="1">
+        <v>961.078</v>
+      </c>
+      <c r="AKA1" s="1">
+        <v>962.076</v>
+      </c>
+      <c r="AKB1" s="1">
+        <v>963.074</v>
+      </c>
+      <c r="AKC1" s="1">
+        <v>964.072</v>
+      </c>
+      <c r="AKD1" s="1">
+        <v>965.0700000000001</v>
+      </c>
+      <c r="AKE1" s="1">
+        <v>966.068</v>
+      </c>
+      <c r="AKF1" s="1">
+        <v>967.066</v>
+      </c>
+      <c r="AKG1" s="1">
+        <v>968.064</v>
+      </c>
+      <c r="AKH1" s="1">
+        <v>969.062</v>
+      </c>
+      <c r="AKI1" s="1">
+        <v>970.0599999999999</v>
+      </c>
+      <c r="AKJ1" s="1">
+        <v>971.058</v>
+      </c>
+      <c r="AKK1" s="1">
+        <v>972.056</v>
+      </c>
+      <c r="AKL1" s="1">
+        <v>973.054</v>
+      </c>
+      <c r="AKM1" s="1">
+        <v>974.052</v>
+      </c>
+      <c r="AKN1" s="1">
+        <v>975.05</v>
+      </c>
+      <c r="AKO1" s="1">
+        <v>976.048</v>
+      </c>
+      <c r="AKP1" s="1">
+        <v>977.046</v>
+      </c>
+      <c r="AKQ1" s="1">
+        <v>978.044</v>
+      </c>
+      <c r="AKR1" s="1">
+        <v>979.042</v>
+      </c>
+      <c r="AKS1" s="1">
+        <v>980.04</v>
+      </c>
+      <c r="AKT1" s="1">
+        <v>981.038</v>
+      </c>
+      <c r="AKU1" s="1">
+        <v>982.0359999999999</v>
+      </c>
+      <c r="AKV1" s="1">
+        <v>983.034</v>
+      </c>
+      <c r="AKW1" s="1">
+        <v>984.032</v>
+      </c>
+      <c r="AKX1" s="1">
+        <v>985.03</v>
+      </c>
+      <c r="AKY1" s="1">
+        <v>986.028</v>
+      </c>
+      <c r="AKZ1" s="1">
+        <v>987.026</v>
+      </c>
+      <c r="ALA1" s="1">
+        <v>988.024</v>
+      </c>
+      <c r="ALB1" s="1">
+        <v>989.022</v>
+      </c>
+      <c r="ALC1" s="1">
+        <v>990.02</v>
+      </c>
+      <c r="ALD1" s="1">
+        <v>991.018</v>
+      </c>
+      <c r="ALE1" s="1">
+        <v>992.016</v>
+      </c>
+      <c r="ALF1" s="1">
+        <v>993.014</v>
+      </c>
+      <c r="ALG1" s="1">
+        <v>994.0119999999999</v>
+      </c>
+      <c r="ALH1" s="1">
+        <v>995.01</v>
+      </c>
+      <c r="ALI1" s="1">
+        <v>996.008</v>
+      </c>
+      <c r="ALJ1" s="1">
+        <v>997.006</v>
+      </c>
+      <c r="ALK1" s="1">
+        <v>998.004</v>
+      </c>
+      <c r="ALL1" s="1">
+        <v>999.002</v>
+      </c>
+      <c r="ALM1" s="1">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-2.17641368640834</v>
+        <v>-3.49536412316195</v>
       </c>
       <c r="B2" s="2">
-        <v>-2.80897410561851</v>
+        <v>-6.93509169884686</v>
       </c>
       <c r="C2" s="2">
-        <v>-2.81539781902261</v>
+        <v>-13.4014261697641</v>
       </c>
       <c r="D2" s="2">
-        <v>-2.81257927991902</v>
+        <v>-12.2133318277562</v>
       </c>
       <c r="E2" s="2">
-        <v>-2.82915217241298</v>
+        <v>-6.73329852135422</v>
       </c>
       <c r="F2" s="2">
-        <v>-2.82789038372421</v>
+        <v>-4.27826667255736</v>
       </c>
       <c r="G2" s="2">
-        <v>-2.83093765861587</v>
+        <v>-3.22704478204904</v>
       </c>
       <c r="H2" s="2">
-        <v>-2.82588086048765</v>
+        <v>-2.87485962114559</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.82332191661965</v>
+        <v>-2.95812068264931</v>
       </c>
       <c r="J2" s="2">
-        <v>-2.8540236899681</v>
+        <v>-3.29749212090895</v>
       </c>
       <c r="K2" s="2">
-        <v>-2.9249786700427</v>
+        <v>-3.88746611145561</v>
       </c>
       <c r="L2" s="2">
-        <v>-2.97746217478478</v>
+        <v>-4.63002815797022</v>
       </c>
       <c r="M2" s="2">
-        <v>-3.05662932409349</v>
+        <v>-5.3324979783315</v>
       </c>
       <c r="N2" s="2">
-        <v>-3.21596528408126</v>
+        <v>-5.79213437346863</v>
       </c>
       <c r="O2" s="2">
-        <v>-3.48111062568795</v>
+        <v>-5.83089614646893</v>
+      </c>
+      <c r="P2" s="2">
+        <v>-5.60033446658983</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>-5.27490013615009</v>
+      </c>
+      <c r="R2" s="2">
+        <v>-4.99210841828433</v>
+      </c>
+      <c r="S2" s="2">
+        <v>-4.8230909009594</v>
+      </c>
+      <c r="T2" s="2">
+        <v>-4.7872701720408</v>
+      </c>
+      <c r="U2" s="2">
+        <v>-4.9084555252384</v>
+      </c>
+      <c r="V2" s="2">
+        <v>-5.07572046650928</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-5.35075325142474</v>
+      </c>
+      <c r="X2" s="2">
+        <v>-5.64652740925109</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>-5.95640067172622</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>-6.23956695887345</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>-6.53695223891158</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>-6.82722877156435</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>-7.14949792391736</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>-7.53551465503045</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>-7.96409503766143</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>-8.523694342645021</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>-9.175799285891159</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>-9.88525754236411</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>-10.5935224159026</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>-11.2701329487876</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>-11.6480955036741</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>-11.7178974837006</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>-11.3734883775981</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>-10.8034600134564</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>-10.1295363198212</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>-9.375433072298391</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>-8.7089485205321</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>-8.06105248170679</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>-7.5418675371707</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>-7.04704645788235</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>-6.6741845274551</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>-6.31630900524627</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>-6.02354007950115</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>-5.80106315217659</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>-5.59535884229463</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>-5.42104064690678</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>-5.30344428798936</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>-5.17420588263688</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>-5.06429937636234</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>-4.98811856132406</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>-4.93468962077724</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>-4.87086787689608</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>-4.82474226988652</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>-4.75303671190277</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>-4.73634578299248</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>-4.70838414087811</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>-4.66615181258282</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>-4.63650195850427</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>-4.63497218041007</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>-4.63878676364891</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>-4.59823343848774</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>-4.59709530304904</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>-4.58825328538896</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>-4.58434892816338</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>-4.57363238806543</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>-4.56168106759996</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>-4.54081882906456</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>-4.53351984881118</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>-4.51384668289372</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>-4.47567992573804</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>-4.48665900798654</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>-4.43086542280899</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>-4.42854536162102</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>-4.38963055186421</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>-4.36528153544216</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>-4.31575281063074</v>
+      </c>
+      <c r="CE2" s="2">
+        <v>-4.29400869238293</v>
+      </c>
+      <c r="CF2" s="2">
+        <v>-4.28957966059253</v>
+      </c>
+      <c r="CG2" s="2">
+        <v>-4.24371887942303</v>
+      </c>
+      <c r="CH2" s="2">
+        <v>-4.20115911333098</v>
+      </c>
+      <c r="CI2" s="2">
+        <v>-4.16322907729841</v>
+      </c>
+      <c r="CJ2" s="2">
+        <v>-4.16168124179501</v>
+      </c>
+      <c r="CK2" s="2">
+        <v>-4.11999064833834</v>
+      </c>
+      <c r="CL2" s="2">
+        <v>-4.0846025603849</v>
+      </c>
+      <c r="CM2" s="2">
+        <v>-4.06282880651112</v>
+      </c>
+      <c r="CN2" s="2">
+        <v>-4.01329238956409</v>
+      </c>
+      <c r="CO2" s="2">
+        <v>-3.97748491034732</v>
+      </c>
+      <c r="CP2" s="2">
+        <v>-3.92068918870057</v>
+      </c>
+      <c r="CQ2" s="2">
+        <v>-3.89559444059423</v>
+      </c>
+      <c r="CR2" s="2">
+        <v>-3.87483413332742</v>
+      </c>
+      <c r="CS2" s="2">
+        <v>-3.87427238080817</v>
+      </c>
+      <c r="CT2" s="2">
+        <v>-3.83620057283177</v>
+      </c>
+      <c r="CU2" s="2">
+        <v>-3.80267923256119</v>
+      </c>
+      <c r="CV2" s="2">
+        <v>-3.75916818221664</v>
+      </c>
+      <c r="CW2" s="2">
+        <v>-3.73346493549322</v>
+      </c>
+      <c r="CX2" s="2">
+        <v>-3.7080931067133</v>
+      </c>
+      <c r="CY2" s="2">
+        <v>-3.69064777626757</v>
+      </c>
+      <c r="CZ2" s="2">
+        <v>-3.64045233250852</v>
+      </c>
+      <c r="DA2" s="2">
+        <v>-3.62275217718424</v>
+      </c>
+      <c r="DB2" s="2">
+        <v>-3.60230419385339</v>
+      </c>
+      <c r="DC2" s="2">
+        <v>-3.57409139225052</v>
+      </c>
+      <c r="DD2" s="2">
+        <v>-3.53083421363764</v>
+      </c>
+      <c r="DE2" s="2">
+        <v>-3.51404314758866</v>
+      </c>
+      <c r="DF2" s="2">
+        <v>-3.51259303395629</v>
+      </c>
+      <c r="DG2" s="2">
+        <v>-3.49387722861696</v>
+      </c>
+      <c r="DH2" s="2">
+        <v>-3.43666448491992</v>
+      </c>
+      <c r="DI2" s="2">
+        <v>-3.42886719533724</v>
+      </c>
+      <c r="DJ2" s="2">
+        <v>-3.38798786057534</v>
+      </c>
+      <c r="DK2" s="2">
+        <v>-3.393336099221</v>
+      </c>
+      <c r="DL2" s="2">
+        <v>-3.39191248652794</v>
+      </c>
+      <c r="DM2" s="2">
+        <v>-3.37788209907546</v>
+      </c>
+      <c r="DN2" s="2">
+        <v>-3.35618696901591</v>
+      </c>
+      <c r="DO2" s="2">
+        <v>-3.34625143649227</v>
+      </c>
+      <c r="DP2" s="2">
+        <v>-3.32555398063912</v>
+      </c>
+      <c r="DQ2" s="2">
+        <v>-3.32843508439629</v>
+      </c>
+      <c r="DR2" s="2">
+        <v>-3.30090904528268</v>
+      </c>
+      <c r="DS2" s="2">
+        <v>-3.30729171843211</v>
+      </c>
+      <c r="DT2" s="2">
+        <v>-3.31488603667625</v>
+      </c>
+      <c r="DU2" s="2">
+        <v>-3.30183667366756</v>
+      </c>
+      <c r="DV2" s="2">
+        <v>-3.29508675492802</v>
+      </c>
+      <c r="DW2" s="2">
+        <v>-3.29592885416266</v>
+      </c>
+      <c r="DX2" s="2">
+        <v>-3.2975561686342</v>
+      </c>
+      <c r="DY2" s="2">
+        <v>-3.30577916264112</v>
+      </c>
+      <c r="DZ2" s="2">
+        <v>-3.30818608280843</v>
+      </c>
+      <c r="EA2" s="2">
+        <v>-3.31867464281477</v>
+      </c>
+      <c r="EB2" s="2">
+        <v>-3.32764781025646</v>
+      </c>
+      <c r="EC2" s="2">
+        <v>-3.34377377254796</v>
+      </c>
+      <c r="ED2" s="2">
+        <v>-3.35477268231001</v>
+      </c>
+      <c r="EE2" s="2">
+        <v>-3.36000009226695</v>
+      </c>
+      <c r="EF2" s="2">
+        <v>-3.38003695539622</v>
+      </c>
+      <c r="EG2" s="2">
+        <v>-3.38599219689962</v>
+      </c>
+      <c r="EH2" s="2">
+        <v>-3.40683067361789</v>
+      </c>
+      <c r="EI2" s="2">
+        <v>-3.40975360644623</v>
+      </c>
+      <c r="EJ2" s="2">
+        <v>-3.44541128092859</v>
+      </c>
+      <c r="EK2" s="2">
+        <v>-3.45932745535039</v>
+      </c>
+      <c r="EL2" s="2">
+        <v>-3.48914400597543</v>
+      </c>
+      <c r="EM2" s="2">
+        <v>-3.49423332129449</v>
+      </c>
+      <c r="EN2" s="2">
+        <v>-3.54706570214201</v>
+      </c>
+      <c r="EO2" s="2">
+        <v>-3.56476777990136</v>
+      </c>
+      <c r="EP2" s="2">
+        <v>-3.58214599107805</v>
+      </c>
+      <c r="EQ2" s="2">
+        <v>-3.63490064637417</v>
+      </c>
+      <c r="ER2" s="2">
+        <v>-3.65466579387487</v>
+      </c>
+      <c r="ES2" s="2">
+        <v>-3.6763698968633</v>
+      </c>
+      <c r="ET2" s="2">
+        <v>-3.72474335409492</v>
+      </c>
+      <c r="EU2" s="2">
+        <v>-3.74172712426719</v>
+      </c>
+      <c r="EV2" s="2">
+        <v>-3.78363555419827</v>
+      </c>
+      <c r="EW2" s="2">
+        <v>-3.79760122079899</v>
+      </c>
+      <c r="EX2" s="2">
+        <v>-3.82308292852139</v>
+      </c>
+      <c r="EY2" s="2">
+        <v>-3.84918737802146</v>
+      </c>
+      <c r="EZ2" s="2">
+        <v>-3.88298378930688</v>
+      </c>
+      <c r="FA2" s="2">
+        <v>-3.8992990192548</v>
+      </c>
+      <c r="FB2" s="2">
+        <v>-3.93282070006566</v>
+      </c>
+      <c r="FC2" s="2">
+        <v>-3.94819118303531</v>
+      </c>
+      <c r="FD2" s="2">
+        <v>-3.95810662675635</v>
+      </c>
+      <c r="FE2" s="2">
+        <v>-3.98648907440442</v>
+      </c>
+      <c r="FF2" s="2">
+        <v>-4.01561683865079</v>
+      </c>
+      <c r="FG2" s="2">
+        <v>-4.01011891568193</v>
+      </c>
+      <c r="FH2" s="2">
+        <v>-4.03447002676928</v>
+      </c>
+      <c r="FI2" s="2">
+        <v>-4.07591891525681</v>
+      </c>
+      <c r="FJ2" s="2">
+        <v>-4.08185095711853</v>
+      </c>
+      <c r="FK2" s="2">
+        <v>-4.06389434558278</v>
+      </c>
+      <c r="FL2" s="2">
+        <v>-4.07340020103666</v>
+      </c>
+      <c r="FM2" s="2">
+        <v>-4.08506736863561</v>
+      </c>
+      <c r="FN2" s="2">
+        <v>-4.07479608295828</v>
+      </c>
+      <c r="FO2" s="2">
+        <v>-4.11524682311235</v>
+      </c>
+      <c r="FP2" s="2">
+        <v>-4.09033989427166</v>
+      </c>
+      <c r="FQ2" s="2">
+        <v>-4.10729348319362</v>
+      </c>
+      <c r="FR2" s="2">
+        <v>-4.09867325133978</v>
+      </c>
+      <c r="FS2" s="2">
+        <v>-4.10730331169578</v>
+      </c>
+      <c r="FT2" s="2">
+        <v>-4.11974382882345</v>
+      </c>
+      <c r="FU2" s="2">
+        <v>-4.12239872380083</v>
+      </c>
+      <c r="FV2" s="2">
+        <v>-4.12158419368111</v>
+      </c>
+      <c r="FW2" s="2">
+        <v>-4.11894631184595</v>
+      </c>
+      <c r="FX2" s="2">
+        <v>-4.11774703460563</v>
+      </c>
+      <c r="FY2" s="2">
+        <v>-4.10908199126471</v>
+      </c>
+      <c r="FZ2" s="2">
+        <v>-4.1438657380867</v>
+      </c>
+      <c r="GA2" s="2">
+        <v>-4.12258850294525</v>
+      </c>
+      <c r="GB2" s="2">
+        <v>-4.13478570734529</v>
+      </c>
+      <c r="GC2" s="2">
+        <v>-4.11975006624537</v>
+      </c>
+      <c r="GD2" s="2">
+        <v>-4.12357094419963</v>
+      </c>
+      <c r="GE2" s="2">
+        <v>-4.10086898636101</v>
+      </c>
+      <c r="GF2" s="2">
+        <v>-4.05583671147751</v>
+      </c>
+      <c r="GG2" s="2">
+        <v>-4.11179905946464</v>
+      </c>
+      <c r="GH2" s="2">
+        <v>-4.10620966861246</v>
+      </c>
+      <c r="GI2" s="2">
+        <v>-4.10942079348872</v>
+      </c>
+      <c r="GJ2" s="2">
+        <v>-4.07704762208289</v>
+      </c>
+      <c r="GK2" s="2">
+        <v>-4.07325861718159</v>
+      </c>
+      <c r="GL2" s="2">
+        <v>-4.05800035602908</v>
+      </c>
+      <c r="GM2" s="2">
+        <v>-4.08952747082226</v>
+      </c>
+      <c r="GN2" s="2">
+        <v>-4.08310683868845</v>
+      </c>
+      <c r="GO2" s="2">
+        <v>-4.05789505852455</v>
+      </c>
+      <c r="GP2" s="2">
+        <v>-4.0565430024511</v>
+      </c>
+      <c r="GQ2" s="2">
+        <v>-4.05002900263826</v>
+      </c>
+      <c r="GR2" s="2">
+        <v>-4.03605790488638</v>
+      </c>
+      <c r="GS2" s="2">
+        <v>-4.0387801160344</v>
+      </c>
+      <c r="GT2" s="2">
+        <v>-4.03835204818114</v>
+      </c>
+      <c r="GU2" s="2">
+        <v>-4.01435939505339</v>
+      </c>
+      <c r="GV2" s="2">
+        <v>-3.99804561201625</v>
+      </c>
+      <c r="GW2" s="2">
+        <v>-3.98354070088779</v>
+      </c>
+      <c r="GX2" s="2">
+        <v>-3.98320383301605</v>
+      </c>
+      <c r="GY2" s="2">
+        <v>-3.97579835176997</v>
+      </c>
+      <c r="GZ2" s="2">
+        <v>-3.97634438071325</v>
+      </c>
+      <c r="HA2" s="2">
+        <v>-3.96711493902096</v>
+      </c>
+      <c r="HB2" s="2">
+        <v>-3.94876639140076</v>
+      </c>
+      <c r="HC2" s="2">
+        <v>-3.93578131460826</v>
+      </c>
+      <c r="HD2" s="2">
+        <v>-3.91754696234436</v>
+      </c>
+      <c r="HE2" s="2">
+        <v>-3.91082780808057</v>
+      </c>
+      <c r="HF2" s="2">
+        <v>-3.91587718721068</v>
+      </c>
+      <c r="HG2" s="2">
+        <v>-3.90452270521642</v>
+      </c>
+      <c r="HH2" s="2">
+        <v>-3.89616111757188</v>
+      </c>
+      <c r="HI2" s="2">
+        <v>-3.86810013269003</v>
+      </c>
+      <c r="HJ2" s="2">
+        <v>-3.87160898626338</v>
+      </c>
+      <c r="HK2" s="2">
+        <v>-3.85790562675328</v>
+      </c>
+      <c r="HL2" s="2">
+        <v>-3.82794502145904</v>
+      </c>
+      <c r="HM2" s="2">
+        <v>-3.83000176758535</v>
+      </c>
+      <c r="HN2" s="2">
+        <v>-3.82991501348208</v>
+      </c>
+      <c r="HO2" s="2">
+        <v>-3.80551836416604</v>
+      </c>
+      <c r="HP2" s="2">
+        <v>-3.78679289649325</v>
+      </c>
+      <c r="HQ2" s="2">
+        <v>-3.7920523433265</v>
+      </c>
+      <c r="HR2" s="2">
+        <v>-3.76907797988794</v>
+      </c>
+      <c r="HS2" s="2">
+        <v>-3.75034082589905</v>
+      </c>
+      <c r="HT2" s="2">
+        <v>-3.77453645539451</v>
+      </c>
+      <c r="HU2" s="2">
+        <v>-3.73109923256663</v>
+      </c>
+      <c r="HV2" s="2">
+        <v>-3.72122754154883</v>
+      </c>
+      <c r="HW2" s="2">
+        <v>-3.72900826762731</v>
+      </c>
+      <c r="HX2" s="2">
+        <v>-3.72300942271322</v>
+      </c>
+      <c r="HY2" s="2">
+        <v>-3.68167365588745</v>
+      </c>
+      <c r="HZ2" s="2">
+        <v>-3.67097491868322</v>
+      </c>
+      <c r="IA2" s="2">
+        <v>-3.69645236666427</v>
+      </c>
+      <c r="IB2" s="2">
+        <v>-3.65336808682728</v>
+      </c>
+      <c r="IC2" s="2">
+        <v>-3.65606697457588</v>
+      </c>
+      <c r="ID2" s="2">
+        <v>-3.63020801358217</v>
+      </c>
+      <c r="IE2" s="2">
+        <v>-3.62470742424026</v>
+      </c>
+      <c r="IF2" s="2">
+        <v>-3.60495440197462</v>
+      </c>
+      <c r="IG2" s="2">
+        <v>-3.59829679585316</v>
+      </c>
+      <c r="IH2" s="2">
+        <v>-3.6010782052721</v>
+      </c>
+      <c r="II2" s="2">
+        <v>-3.6003935890125</v>
+      </c>
+      <c r="IJ2" s="2">
+        <v>-3.58816017440336</v>
+      </c>
+      <c r="IK2" s="2">
+        <v>-3.56595302920406</v>
+      </c>
+      <c r="IL2" s="2">
+        <v>-3.5589308154449</v>
+      </c>
+      <c r="IM2" s="2">
+        <v>-3.55922618744872</v>
+      </c>
+      <c r="IN2" s="2">
+        <v>-3.52571373365937</v>
+      </c>
+      <c r="IO2" s="2">
+        <v>-3.53990506778073</v>
+      </c>
+      <c r="IP2" s="2">
+        <v>-3.53021946526233</v>
+      </c>
+      <c r="IQ2" s="2">
+        <v>-3.53093091239585</v>
+      </c>
+      <c r="IR2" s="2">
+        <v>-3.51773067632134</v>
+      </c>
+      <c r="IS2" s="2">
+        <v>-3.50635921822266</v>
+      </c>
+      <c r="IT2" s="2">
+        <v>-3.53471828700283</v>
+      </c>
+      <c r="IU2" s="2">
+        <v>-3.48665264216612</v>
+      </c>
+      <c r="IV2" s="2">
+        <v>-3.51366778707897</v>
+      </c>
+      <c r="IW2" s="2">
+        <v>-3.46497581905351</v>
+      </c>
+      <c r="IX2" s="2">
+        <v>-3.49744616681273</v>
+      </c>
+      <c r="IY2" s="2">
+        <v>-3.47651062984482</v>
+      </c>
+      <c r="IZ2" s="2">
+        <v>-3.49807291959104</v>
+      </c>
+      <c r="JA2" s="2">
+        <v>-3.49847535652505</v>
+      </c>
+      <c r="JB2" s="2">
+        <v>-3.4727875683761</v>
+      </c>
+      <c r="JC2" s="2">
+        <v>-3.49371900213209</v>
+      </c>
+      <c r="JD2" s="2">
+        <v>-3.49239481873341</v>
+      </c>
+      <c r="JE2" s="2">
+        <v>-3.4646659930607</v>
+      </c>
+      <c r="JF2" s="2">
+        <v>-3.47178195253948</v>
+      </c>
+      <c r="JG2" s="2">
+        <v>-3.45441500236221</v>
+      </c>
+      <c r="JH2" s="2">
+        <v>-3.48170452844339</v>
+      </c>
+      <c r="JI2" s="2">
+        <v>-3.45761405567323</v>
+      </c>
+      <c r="JJ2" s="2">
+        <v>-3.48657168957593</v>
+      </c>
+      <c r="JK2" s="2">
+        <v>-3.48194706327663</v>
+      </c>
+      <c r="JL2" s="2">
+        <v>-3.46012642532787</v>
+      </c>
+      <c r="JM2" s="2">
+        <v>-3.48504274348605</v>
+      </c>
+      <c r="JN2" s="2">
+        <v>-3.48101225667421</v>
+      </c>
+      <c r="JO2" s="2">
+        <v>-3.48167190382851</v>
+      </c>
+      <c r="JP2" s="2">
+        <v>-3.48862472431289</v>
+      </c>
+      <c r="JQ2" s="2">
+        <v>-3.48865373562975</v>
+      </c>
+      <c r="JR2" s="2">
+        <v>-3.51392389662613</v>
+      </c>
+      <c r="JS2" s="2">
+        <v>-3.5168398117299</v>
+      </c>
+      <c r="JT2" s="2">
+        <v>-3.47724052823396</v>
+      </c>
+      <c r="JU2" s="2">
+        <v>-3.5153876212637</v>
+      </c>
+      <c r="JV2" s="2">
+        <v>-3.48706476539511</v>
+      </c>
+      <c r="JW2" s="2">
+        <v>-3.5164080022728</v>
+      </c>
+      <c r="JX2" s="2">
+        <v>-3.50015910750312</v>
+      </c>
+      <c r="JY2" s="2">
+        <v>-3.49946325963882</v>
+      </c>
+      <c r="JZ2" s="2">
+        <v>-3.53374524355689</v>
+      </c>
+      <c r="KA2" s="2">
+        <v>-3.54365111041027</v>
+      </c>
+      <c r="KB2" s="2">
+        <v>-3.513138938612</v>
+      </c>
+      <c r="KC2" s="2">
+        <v>-3.54118848034579</v>
+      </c>
+      <c r="KD2" s="2">
+        <v>-3.53129470063489</v>
+      </c>
+      <c r="KE2" s="2">
+        <v>-3.54506873153072</v>
+      </c>
+      <c r="KF2" s="2">
+        <v>-3.54657258220853</v>
+      </c>
+      <c r="KG2" s="2">
+        <v>-3.53725925764822</v>
+      </c>
+      <c r="KH2" s="2">
+        <v>-3.54712486103946</v>
+      </c>
+      <c r="KI2" s="2">
+        <v>-3.55261810356351</v>
+      </c>
+      <c r="KJ2" s="2">
+        <v>-3.56756105172352</v>
+      </c>
+      <c r="KK2" s="2">
+        <v>-3.55033346056956</v>
+      </c>
+      <c r="KL2" s="2">
+        <v>-3.57169950304658</v>
+      </c>
+      <c r="KM2" s="2">
+        <v>-3.57410554703274</v>
+      </c>
+      <c r="KN2" s="2">
+        <v>-3.56858451046561</v>
+      </c>
+      <c r="KO2" s="2">
+        <v>-3.55990242816023</v>
+      </c>
+      <c r="KP2" s="2">
+        <v>-3.58128854505965</v>
+      </c>
+      <c r="KQ2" s="2">
+        <v>-3.5637062671034</v>
+      </c>
+      <c r="KR2" s="2">
+        <v>-3.57048427384965</v>
+      </c>
+      <c r="KS2" s="2">
+        <v>-3.60207617478036</v>
+      </c>
+      <c r="KT2" s="2">
+        <v>-3.57633253753655</v>
+      </c>
+      <c r="KU2" s="2">
+        <v>-3.58900436777283</v>
+      </c>
+      <c r="KV2" s="2">
+        <v>-3.56782014938595</v>
+      </c>
+      <c r="KW2" s="2">
+        <v>-3.57055676796829</v>
+      </c>
+      <c r="KX2" s="2">
+        <v>-3.56689724385253</v>
+      </c>
+      <c r="KY2" s="2">
+        <v>-3.60058597449083</v>
+      </c>
+      <c r="KZ2" s="2">
+        <v>-3.6006775398134</v>
+      </c>
+      <c r="LA2" s="2">
+        <v>-3.59488532490819</v>
+      </c>
+      <c r="LB2" s="2">
+        <v>-3.6023918588398</v>
+      </c>
+      <c r="LC2" s="2">
+        <v>-3.58700296179096</v>
+      </c>
+      <c r="LD2" s="2">
+        <v>-3.59597510511841</v>
+      </c>
+      <c r="LE2" s="2">
+        <v>-3.60863591445553</v>
+      </c>
+      <c r="LF2" s="2">
+        <v>-3.62249611367904</v>
+      </c>
+      <c r="LG2" s="2">
+        <v>-3.60746859665188</v>
+      </c>
+      <c r="LH2" s="2">
+        <v>-3.61227873117116</v>
+      </c>
+      <c r="LI2" s="2">
+        <v>-3.6029467035913</v>
+      </c>
+      <c r="LJ2" s="2">
+        <v>-3.60915488635089</v>
+      </c>
+      <c r="LK2" s="2">
+        <v>-3.63238784031077</v>
+      </c>
+      <c r="LL2" s="2">
+        <v>-3.62947305435926</v>
+      </c>
+      <c r="LM2" s="2">
+        <v>-3.64377976894142</v>
+      </c>
+      <c r="LN2" s="2">
+        <v>-3.60993428117109</v>
+      </c>
+      <c r="LO2" s="2">
+        <v>-3.62767637166843</v>
+      </c>
+      <c r="LP2" s="2">
+        <v>-3.64524689385713</v>
+      </c>
+      <c r="LQ2" s="2">
+        <v>-3.61829198302847</v>
+      </c>
+      <c r="LR2" s="2">
+        <v>-3.64745104664989</v>
+      </c>
+      <c r="LS2" s="2">
+        <v>-3.66987256715094</v>
+      </c>
+      <c r="LT2" s="2">
+        <v>-3.66253278916689</v>
+      </c>
+      <c r="LU2" s="2">
+        <v>-3.69359476641172</v>
+      </c>
+      <c r="LV2" s="2">
+        <v>-3.67809450242231</v>
+      </c>
+      <c r="LW2" s="2">
+        <v>-3.67048502696568</v>
+      </c>
+      <c r="LX2" s="2">
+        <v>-3.68903205099824</v>
+      </c>
+      <c r="LY2" s="2">
+        <v>-3.68516600628027</v>
+      </c>
+      <c r="LZ2" s="2">
+        <v>-3.69990315482735</v>
+      </c>
+      <c r="MA2" s="2">
+        <v>-3.69732073656133</v>
+      </c>
+      <c r="MB2" s="2">
+        <v>-3.71009469738738</v>
+      </c>
+      <c r="MC2" s="2">
+        <v>-3.68372702065764</v>
+      </c>
+      <c r="MD2" s="2">
+        <v>-3.68680860132306</v>
+      </c>
+      <c r="ME2" s="2">
+        <v>-3.69529835128634</v>
+      </c>
+      <c r="MF2" s="2">
+        <v>-3.68190206336497</v>
+      </c>
+      <c r="MG2" s="2">
+        <v>-3.70755043328576</v>
+      </c>
+      <c r="MH2" s="2">
+        <v>-3.69829256619189</v>
+      </c>
+      <c r="MI2" s="2">
+        <v>-3.69740134166455</v>
+      </c>
+      <c r="MJ2" s="2">
+        <v>-3.70758194186131</v>
+      </c>
+      <c r="MK2" s="2">
+        <v>-3.70809532683873</v>
+      </c>
+      <c r="ML2" s="2">
+        <v>-3.70708668659658</v>
+      </c>
+      <c r="MM2" s="2">
+        <v>-3.7144082849232</v>
+      </c>
+      <c r="MN2" s="2">
+        <v>-3.71113266604564</v>
+      </c>
+      <c r="MO2" s="2">
+        <v>-3.72140228425932</v>
+      </c>
+      <c r="MP2" s="2">
+        <v>-3.72191317517031</v>
+      </c>
+      <c r="MQ2" s="2">
+        <v>-3.71041618048651</v>
+      </c>
+      <c r="MR2" s="2">
+        <v>-3.74222537127635</v>
+      </c>
+      <c r="MS2" s="2">
+        <v>-3.70919363986671</v>
+      </c>
+      <c r="MT2" s="2">
+        <v>-3.71606946901828</v>
+      </c>
+      <c r="MU2" s="2">
+        <v>-3.70356492597889</v>
+      </c>
+      <c r="MV2" s="2">
+        <v>-3.68611828952964</v>
+      </c>
+      <c r="MW2" s="2">
+        <v>-3.72871662226436</v>
+      </c>
+      <c r="MX2" s="2">
+        <v>-3.73498530952767</v>
+      </c>
+      <c r="MY2" s="2">
+        <v>-3.70194157870375</v>
+      </c>
+      <c r="MZ2" s="2">
+        <v>-3.71414095393285</v>
+      </c>
+      <c r="NA2" s="2">
+        <v>-3.69722850242954</v>
+      </c>
+      <c r="NB2" s="2">
+        <v>-3.69735446313854</v>
+      </c>
+      <c r="NC2" s="2">
+        <v>-3.70460080264779</v>
+      </c>
+      <c r="ND2" s="2">
+        <v>-3.71214452870643</v>
+      </c>
+      <c r="NE2" s="2">
+        <v>-3.69705276604453</v>
+      </c>
+      <c r="NF2" s="2">
+        <v>-3.69152397566971</v>
+      </c>
+      <c r="NG2" s="2">
+        <v>-3.68398700149865</v>
+      </c>
+      <c r="NH2" s="2">
+        <v>-3.70420113186042</v>
+      </c>
+      <c r="NI2" s="2">
+        <v>-3.67878486269128</v>
+      </c>
+      <c r="NJ2" s="2">
+        <v>-3.66832914886289</v>
+      </c>
+      <c r="NK2" s="2">
+        <v>-3.68648065018556</v>
+      </c>
+      <c r="NL2" s="2">
+        <v>-3.65812257107393</v>
+      </c>
+      <c r="NM2" s="2">
+        <v>-3.63853174708221</v>
+      </c>
+      <c r="NN2" s="2">
+        <v>-3.63403167766546</v>
+      </c>
+      <c r="NO2" s="2">
+        <v>-3.64655456073598</v>
+      </c>
+      <c r="NP2" s="2">
+        <v>-3.63699738978609</v>
+      </c>
+      <c r="NQ2" s="2">
+        <v>-3.62025520679573</v>
+      </c>
+      <c r="NR2" s="2">
+        <v>-3.60976875848687</v>
+      </c>
+      <c r="NS2" s="2">
+        <v>-3.62058875224007</v>
+      </c>
+      <c r="NT2" s="2">
+        <v>-3.59496961435495</v>
+      </c>
+      <c r="NU2" s="2">
+        <v>-3.58408614279372</v>
+      </c>
+      <c r="NV2" s="2">
+        <v>-3.57355681247787</v>
+      </c>
+      <c r="NW2" s="2">
+        <v>-3.59639448962129</v>
+      </c>
+      <c r="NX2" s="2">
+        <v>-3.58151169521867</v>
+      </c>
+      <c r="NY2" s="2">
+        <v>-3.57283520842206</v>
+      </c>
+      <c r="NZ2" s="2">
+        <v>-3.55822692060146</v>
+      </c>
+      <c r="OA2" s="2">
+        <v>-3.5485304439124</v>
+      </c>
+      <c r="OB2" s="2">
+        <v>-3.54652380871279</v>
+      </c>
+      <c r="OC2" s="2">
+        <v>-3.55825245151698</v>
+      </c>
+      <c r="OD2" s="2">
+        <v>-3.52255364770748</v>
+      </c>
+      <c r="OE2" s="2">
+        <v>-3.5417530882281</v>
+      </c>
+      <c r="OF2" s="2">
+        <v>-3.53202895012764</v>
+      </c>
+      <c r="OG2" s="2">
+        <v>-3.50709529092315</v>
+      </c>
+      <c r="OH2" s="2">
+        <v>-3.5050797186969</v>
+      </c>
+      <c r="OI2" s="2">
+        <v>-3.50065015139682</v>
+      </c>
+      <c r="OJ2" s="2">
+        <v>-3.49551993194633</v>
+      </c>
+      <c r="OK2" s="2">
+        <v>-3.49289333549926</v>
+      </c>
+      <c r="OL2" s="2">
+        <v>-3.48637595851246</v>
+      </c>
+      <c r="OM2" s="2">
+        <v>-3.47510270039185</v>
+      </c>
+      <c r="ON2" s="2">
+        <v>-3.45892609739275</v>
+      </c>
+      <c r="OO2" s="2">
+        <v>-3.43243304082348</v>
+      </c>
+      <c r="OP2" s="2">
+        <v>-3.4624755667141</v>
+      </c>
+      <c r="OQ2" s="2">
+        <v>-3.46564419793183</v>
+      </c>
+      <c r="OR2" s="2">
+        <v>-3.43613582051014</v>
+      </c>
+      <c r="OS2" s="2">
+        <v>-3.44073786994956</v>
+      </c>
+      <c r="OT2" s="2">
+        <v>-3.46946814760959</v>
+      </c>
+      <c r="OU2" s="2">
+        <v>-3.42512229887242</v>
+      </c>
+      <c r="OV2" s="2">
+        <v>-3.41623574292385</v>
+      </c>
+      <c r="OW2" s="2">
+        <v>-3.39435655491607</v>
+      </c>
+      <c r="OX2" s="2">
+        <v>-3.42426509809312</v>
+      </c>
+      <c r="OY2" s="2">
+        <v>-3.38928567508031</v>
+      </c>
+      <c r="OZ2" s="2">
+        <v>-3.39393397711171</v>
+      </c>
+      <c r="PA2" s="2">
+        <v>-3.37256449024665</v>
+      </c>
+      <c r="PB2" s="2">
+        <v>-3.39008561997029</v>
+      </c>
+      <c r="PC2" s="2">
+        <v>-3.38770319308004</v>
+      </c>
+      <c r="PD2" s="2">
+        <v>-3.37818266600427</v>
+      </c>
+      <c r="PE2" s="2">
+        <v>-3.34970375872749</v>
+      </c>
+      <c r="PF2" s="2">
+        <v>-3.35167747440401</v>
+      </c>
+      <c r="PG2" s="2">
+        <v>-3.35486760871202</v>
+      </c>
+      <c r="PH2" s="2">
+        <v>-3.35517413105295</v>
+      </c>
+      <c r="PI2" s="2">
+        <v>-3.31907696281225</v>
+      </c>
+      <c r="PJ2" s="2">
+        <v>-3.31686325429381</v>
+      </c>
+      <c r="PK2" s="2">
+        <v>-3.31477138060713</v>
+      </c>
+      <c r="PL2" s="2">
+        <v>-3.32136989360078</v>
+      </c>
+      <c r="PM2" s="2">
+        <v>-3.3191600577476</v>
+      </c>
+      <c r="PN2" s="2">
+        <v>-3.30847776415605</v>
+      </c>
+      <c r="PO2" s="2">
+        <v>-3.30919217190151</v>
+      </c>
+      <c r="PP2" s="2">
+        <v>-3.32011313146543</v>
+      </c>
+      <c r="PQ2" s="2">
+        <v>-3.31284871935021</v>
+      </c>
+      <c r="PR2" s="2">
+        <v>-3.29758607048077</v>
+      </c>
+      <c r="PS2" s="2">
+        <v>-3.27199337760544</v>
+      </c>
+      <c r="PT2" s="2">
+        <v>-3.29007624297993</v>
+      </c>
+      <c r="PU2" s="2">
+        <v>-3.28534534573602</v>
+      </c>
+      <c r="PV2" s="2">
+        <v>-3.27536639291175</v>
+      </c>
+      <c r="PW2" s="2">
+        <v>-3.28486907162137</v>
+      </c>
+      <c r="PX2" s="2">
+        <v>-3.25738680203712</v>
+      </c>
+      <c r="PY2" s="2">
+        <v>-3.26180151688837</v>
+      </c>
+      <c r="PZ2" s="2">
+        <v>-3.25253511337958</v>
+      </c>
+      <c r="QA2" s="2">
+        <v>-3.26721494320207</v>
+      </c>
+      <c r="QB2" s="2">
+        <v>-3.24041294644785</v>
+      </c>
+      <c r="QC2" s="2">
+        <v>-3.24335622770159</v>
+      </c>
+      <c r="QD2" s="2">
+        <v>-3.25642702853735</v>
+      </c>
+      <c r="QE2" s="2">
+        <v>-3.24096661406388</v>
+      </c>
+      <c r="QF2" s="2">
+        <v>-3.21364088005809</v>
+      </c>
+      <c r="QG2" s="2">
+        <v>-3.24491124953791</v>
+      </c>
+      <c r="QH2" s="2">
+        <v>-3.22703560082292</v>
+      </c>
+      <c r="QI2" s="2">
+        <v>-3.24740599983042</v>
+      </c>
+      <c r="QJ2" s="2">
+        <v>-3.2303795372722</v>
+      </c>
+      <c r="QK2" s="2">
+        <v>-3.21450023463377</v>
+      </c>
+      <c r="QL2" s="2">
+        <v>-3.25827900945193</v>
+      </c>
+      <c r="QM2" s="2">
+        <v>-3.24113994445927</v>
+      </c>
+      <c r="QN2" s="2">
+        <v>-3.23784554807993</v>
+      </c>
+      <c r="QO2" s="2">
+        <v>-3.24542854205012</v>
+      </c>
+      <c r="QP2" s="2">
+        <v>-3.24839465197484</v>
+      </c>
+      <c r="QQ2" s="2">
+        <v>-3.22903754565839</v>
+      </c>
+      <c r="QR2" s="2">
+        <v>-3.23593861364217</v>
+      </c>
+      <c r="QS2" s="2">
+        <v>-3.24988284367251</v>
+      </c>
+      <c r="QT2" s="2">
+        <v>-3.25795719765055</v>
+      </c>
+      <c r="QU2" s="2">
+        <v>-3.24898980391008</v>
+      </c>
+      <c r="QV2" s="2">
+        <v>-3.27311202382846</v>
+      </c>
+      <c r="QW2" s="2">
+        <v>-3.24803479021218</v>
+      </c>
+      <c r="QX2" s="2">
+        <v>-3.27136104257411</v>
+      </c>
+      <c r="QY2" s="2">
+        <v>-3.26139858112272</v>
+      </c>
+      <c r="QZ2" s="2">
+        <v>-3.26605114179003</v>
+      </c>
+      <c r="RA2" s="2">
+        <v>-3.25852153877273</v>
+      </c>
+      <c r="RB2" s="2">
+        <v>-3.27710368802822</v>
+      </c>
+      <c r="RC2" s="2">
+        <v>-3.28607543312587</v>
+      </c>
+      <c r="RD2" s="2">
+        <v>-3.3095620890369</v>
+      </c>
+      <c r="RE2" s="2">
+        <v>-3.30321764912464</v>
+      </c>
+      <c r="RF2" s="2">
+        <v>-3.3068705224665</v>
+      </c>
+      <c r="RG2" s="2">
+        <v>-3.30344914364549</v>
+      </c>
+      <c r="RH2" s="2">
+        <v>-3.31303303954572</v>
+      </c>
+      <c r="RI2" s="2">
+        <v>-3.32653465100121</v>
+      </c>
+      <c r="RJ2" s="2">
+        <v>-3.35323247569281</v>
+      </c>
+      <c r="RK2" s="2">
+        <v>-3.36008245072261</v>
+      </c>
+      <c r="RL2" s="2">
+        <v>-3.35786491981612</v>
+      </c>
+      <c r="RM2" s="2">
+        <v>-3.35789505520672</v>
+      </c>
+      <c r="RN2" s="2">
+        <v>-3.37055806609162</v>
+      </c>
+      <c r="RO2" s="2">
+        <v>-3.37046537278114</v>
+      </c>
+      <c r="RP2" s="2">
+        <v>-3.36807687314797</v>
+      </c>
+      <c r="RQ2" s="2">
+        <v>-3.38686120290413</v>
+      </c>
+      <c r="RR2" s="2">
+        <v>-3.36888386699015</v>
+      </c>
+      <c r="RS2" s="2">
+        <v>-3.39813060399868</v>
+      </c>
+      <c r="RT2" s="2">
+        <v>-3.38194012772121</v>
+      </c>
+      <c r="RU2" s="2">
+        <v>-3.38895108119721</v>
+      </c>
+      <c r="RV2" s="2">
+        <v>-3.40613810065902</v>
+      </c>
+      <c r="RW2" s="2">
+        <v>-3.40893198455161</v>
+      </c>
+      <c r="RX2" s="2">
+        <v>-3.39857482413804</v>
+      </c>
+      <c r="RY2" s="2">
+        <v>-3.4291894302799</v>
+      </c>
+      <c r="RZ2" s="2">
+        <v>-3.40704691577589</v>
+      </c>
+      <c r="SA2" s="2">
+        <v>-3.39004003189222</v>
+      </c>
+      <c r="SB2" s="2">
+        <v>-3.3924382898566</v>
+      </c>
+      <c r="SC2" s="2">
+        <v>-3.38250057288523</v>
+      </c>
+      <c r="SD2" s="2">
+        <v>-3.3677837867033</v>
+      </c>
+      <c r="SE2" s="2">
+        <v>-3.38533333184168</v>
+      </c>
+      <c r="SF2" s="2">
+        <v>-3.36683720272415</v>
+      </c>
+      <c r="SG2" s="2">
+        <v>-3.36958120590149</v>
+      </c>
+      <c r="SH2" s="2">
+        <v>-3.33948094027887</v>
+      </c>
+      <c r="SI2" s="2">
+        <v>-3.30315512546888</v>
+      </c>
+      <c r="SJ2" s="2">
+        <v>-3.3380426809474</v>
+      </c>
+      <c r="SK2" s="2">
+        <v>-3.32284276958828</v>
+      </c>
+      <c r="SL2" s="2">
+        <v>-3.33100512838551</v>
+      </c>
+      <c r="SM2" s="2">
+        <v>-3.26455652522099</v>
+      </c>
+      <c r="SN2" s="2">
+        <v>-3.27265352967785</v>
+      </c>
+      <c r="SO2" s="2">
+        <v>-3.24923185690782</v>
+      </c>
+      <c r="SP2" s="2">
+        <v>-3.23848800493099</v>
+      </c>
+      <c r="SQ2" s="2">
+        <v>-3.2097108164347</v>
+      </c>
+      <c r="SR2" s="2">
+        <v>-3.20977157432945</v>
+      </c>
+      <c r="SS2" s="2">
+        <v>-3.15672656880571</v>
+      </c>
+      <c r="ST2" s="2">
+        <v>-3.15962126734471</v>
+      </c>
+      <c r="SU2" s="2">
+        <v>-3.12758293509443</v>
+      </c>
+      <c r="SV2" s="2">
+        <v>-3.11311632987564</v>
+      </c>
+      <c r="SW2" s="2">
+        <v>-3.09427785735075</v>
+      </c>
+      <c r="SX2" s="2">
+        <v>-3.07584549303963</v>
+      </c>
+      <c r="SY2" s="2">
+        <v>-3.06003130208224</v>
+      </c>
+      <c r="SZ2" s="2">
+        <v>-3.02529099708167</v>
+      </c>
+      <c r="TA2" s="2">
+        <v>-2.98878707898017</v>
+      </c>
+      <c r="TB2" s="2">
+        <v>-2.98678953103507</v>
+      </c>
+      <c r="TC2" s="2">
+        <v>-2.95431253248254</v>
+      </c>
+      <c r="TD2" s="2">
+        <v>-2.9397544084147</v>
+      </c>
+      <c r="TE2" s="2">
+        <v>-2.922297964021</v>
+      </c>
+      <c r="TF2" s="2">
+        <v>-2.89222965555786</v>
+      </c>
+      <c r="TG2" s="2">
+        <v>-2.88103703782751</v>
+      </c>
+      <c r="TH2" s="2">
+        <v>-2.86190124167232</v>
+      </c>
+      <c r="TI2" s="2">
+        <v>-2.83032297207134</v>
+      </c>
+      <c r="TJ2" s="2">
+        <v>-2.83031461701214</v>
+      </c>
+      <c r="TK2" s="2">
+        <v>-2.8154934977624</v>
+      </c>
+      <c r="TL2" s="2">
+        <v>-2.77451860564222</v>
+      </c>
+      <c r="TM2" s="2">
+        <v>-2.76587002773767</v>
+      </c>
+      <c r="TN2" s="2">
+        <v>-2.73968401782374</v>
+      </c>
+      <c r="TO2" s="2">
+        <v>-2.73408002208872</v>
+      </c>
+      <c r="TP2" s="2">
+        <v>-2.69083172226467</v>
+      </c>
+      <c r="TQ2" s="2">
+        <v>-2.6915163922771</v>
+      </c>
+      <c r="TR2" s="2">
+        <v>-2.67381017795941</v>
+      </c>
+      <c r="TS2" s="2">
+        <v>-2.65115725497144</v>
+      </c>
+      <c r="TT2" s="2">
+        <v>-2.65037117226097</v>
+      </c>
+      <c r="TU2" s="2">
+        <v>-2.63321653802054</v>
+      </c>
+      <c r="TV2" s="2">
+        <v>-2.62781936016193</v>
+      </c>
+      <c r="TW2" s="2">
+        <v>-2.59727041658926</v>
+      </c>
+      <c r="TX2" s="2">
+        <v>-2.59246870378135</v>
+      </c>
+      <c r="TY2" s="2">
+        <v>-2.57078015269322</v>
+      </c>
+      <c r="TZ2" s="2">
+        <v>-2.56074877811949</v>
+      </c>
+      <c r="UA2" s="2">
+        <v>-2.55295203931453</v>
+      </c>
+      <c r="UB2" s="2">
+        <v>-2.55509113293912</v>
+      </c>
+      <c r="UC2" s="2">
+        <v>-2.52834283451252</v>
+      </c>
+      <c r="UD2" s="2">
+        <v>-2.53135069618858</v>
+      </c>
+      <c r="UE2" s="2">
+        <v>-2.52010789613496</v>
+      </c>
+      <c r="UF2" s="2">
+        <v>-2.515751181581</v>
+      </c>
+      <c r="UG2" s="2">
+        <v>-2.48327805460026</v>
+      </c>
+      <c r="UH2" s="2">
+        <v>-2.49378209458582</v>
+      </c>
+      <c r="UI2" s="2">
+        <v>-2.48151611714555</v>
+      </c>
+      <c r="UJ2" s="2">
+        <v>-2.47425819114207</v>
+      </c>
+      <c r="UK2" s="2">
+        <v>-2.47460066996865</v>
+      </c>
+      <c r="UL2" s="2">
+        <v>-2.46712231711061</v>
+      </c>
+      <c r="UM2" s="2">
+        <v>-2.45724587801829</v>
+      </c>
+      <c r="UN2" s="2">
+        <v>-2.44990209757793</v>
+      </c>
+      <c r="UO2" s="2">
+        <v>-2.45671030381855</v>
+      </c>
+      <c r="UP2" s="2">
+        <v>-2.46070030366715</v>
+      </c>
+      <c r="UQ2" s="2">
+        <v>-2.44765437738105</v>
+      </c>
+      <c r="UR2" s="2">
+        <v>-2.42179962771372</v>
+      </c>
+      <c r="US2" s="2">
+        <v>-2.4409954894299</v>
+      </c>
+      <c r="UT2" s="2">
+        <v>-2.4436213469061</v>
+      </c>
+      <c r="UU2" s="2">
+        <v>-2.44474366279199</v>
+      </c>
+      <c r="UV2" s="2">
+        <v>-2.44854634265642</v>
+      </c>
+      <c r="UW2" s="2">
+        <v>-2.44593870812854</v>
+      </c>
+      <c r="UX2" s="2">
+        <v>-2.43306215083673</v>
+      </c>
+      <c r="UY2" s="2">
+        <v>-2.42568948066673</v>
+      </c>
+      <c r="UZ2" s="2">
+        <v>-2.41970098193885</v>
+      </c>
+      <c r="VA2" s="2">
+        <v>-2.42980935798081</v>
+      </c>
+      <c r="VB2" s="2">
+        <v>-2.45259097577628</v>
+      </c>
+      <c r="VC2" s="2">
+        <v>-2.46347711627144</v>
+      </c>
+      <c r="VD2" s="2">
+        <v>-2.43539890196917</v>
+      </c>
+      <c r="VE2" s="2">
+        <v>-2.4531598027841</v>
+      </c>
+      <c r="VF2" s="2">
+        <v>-2.47106145745109</v>
+      </c>
+      <c r="VG2" s="2">
+        <v>-2.46679953155593</v>
+      </c>
+      <c r="VH2" s="2">
+        <v>-2.47120752944373</v>
+      </c>
+      <c r="VI2" s="2">
+        <v>-2.48767371113635</v>
+      </c>
+      <c r="VJ2" s="2">
+        <v>-2.49841933351231</v>
+      </c>
+      <c r="VK2" s="2">
+        <v>-2.49224483709234</v>
+      </c>
+      <c r="VL2" s="2">
+        <v>-2.49249315339796</v>
+      </c>
+      <c r="VM2" s="2">
+        <v>-2.51974583234869</v>
+      </c>
+      <c r="VN2" s="2">
+        <v>-2.53188731040717</v>
+      </c>
+      <c r="VO2" s="2">
+        <v>-2.52011224515343</v>
+      </c>
+      <c r="VP2" s="2">
+        <v>-2.54624169397334</v>
+      </c>
+      <c r="VQ2" s="2">
+        <v>-2.52996471779948</v>
+      </c>
+      <c r="VR2" s="2">
+        <v>-2.55137317098446</v>
+      </c>
+      <c r="VS2" s="2">
+        <v>-2.54829271014671</v>
+      </c>
+      <c r="VT2" s="2">
+        <v>-2.58899254808958</v>
+      </c>
+      <c r="VU2" s="2">
+        <v>-2.60076236405118</v>
+      </c>
+      <c r="VV2" s="2">
+        <v>-2.62300519375648</v>
+      </c>
+      <c r="VW2" s="2">
+        <v>-2.61397170226101</v>
+      </c>
+      <c r="VX2" s="2">
+        <v>-2.62805631039106</v>
+      </c>
+      <c r="VY2" s="2">
+        <v>-2.65779721307344</v>
+      </c>
+      <c r="VZ2" s="2">
+        <v>-2.64296470748952</v>
+      </c>
+      <c r="WA2" s="2">
+        <v>-2.66308870212369</v>
+      </c>
+      <c r="WB2" s="2">
+        <v>-2.72639000452914</v>
+      </c>
+      <c r="WC2" s="2">
+        <v>-2.71136525430073</v>
+      </c>
+      <c r="WD2" s="2">
+        <v>-2.73670320416085</v>
+      </c>
+      <c r="WE2" s="2">
+        <v>-2.74027688818319</v>
+      </c>
+      <c r="WF2" s="2">
+        <v>-2.76762263688293</v>
+      </c>
+      <c r="WG2" s="2">
+        <v>-2.75723494747422</v>
+      </c>
+      <c r="WH2" s="2">
+        <v>-2.7828586352767</v>
+      </c>
+      <c r="WI2" s="2">
+        <v>-2.78231231730961</v>
+      </c>
+      <c r="WJ2" s="2">
+        <v>-2.82484463736074</v>
+      </c>
+      <c r="WK2" s="2">
+        <v>-2.83718921233592</v>
+      </c>
+      <c r="WL2" s="2">
+        <v>-2.8500674459778</v>
+      </c>
+      <c r="WM2" s="2">
+        <v>-2.89140830645649</v>
+      </c>
+      <c r="WN2" s="2">
+        <v>-2.90812903754883</v>
+      </c>
+      <c r="WO2" s="2">
+        <v>-2.90086195506496</v>
+      </c>
+      <c r="WP2" s="2">
+        <v>-2.9296825761186</v>
+      </c>
+      <c r="WQ2" s="2">
+        <v>-2.94300706759832</v>
+      </c>
+      <c r="WR2" s="2">
+        <v>-2.9851717257749</v>
+      </c>
+      <c r="WS2" s="2">
+        <v>-2.98188543164659</v>
+      </c>
+      <c r="WT2" s="2">
+        <v>-3.02302813132374</v>
+      </c>
+      <c r="WU2" s="2">
+        <v>-3.04265708871043</v>
+      </c>
+      <c r="WV2" s="2">
+        <v>-3.03687728198519</v>
+      </c>
+      <c r="WW2" s="2">
+        <v>-3.04857584725398</v>
+      </c>
+      <c r="WX2" s="2">
+        <v>-3.0681424510053</v>
+      </c>
+      <c r="WY2" s="2">
+        <v>-3.10473211332817</v>
+      </c>
+      <c r="WZ2" s="2">
+        <v>-3.08988330484369</v>
+      </c>
+      <c r="XA2" s="2">
+        <v>-3.10756962147248</v>
+      </c>
+      <c r="XB2" s="2">
+        <v>-3.1206417593338</v>
+      </c>
+      <c r="XC2" s="2">
+        <v>-3.1297184833297</v>
+      </c>
+      <c r="XD2" s="2">
+        <v>-3.14789935213862</v>
+      </c>
+      <c r="XE2" s="2">
+        <v>-3.13558647717061</v>
+      </c>
+      <c r="XF2" s="2">
+        <v>-3.16564365660401</v>
+      </c>
+      <c r="XG2" s="2">
+        <v>-3.17507179310007</v>
+      </c>
+      <c r="XH2" s="2">
+        <v>-3.21285261895311</v>
+      </c>
+      <c r="XI2" s="2">
+        <v>-3.21961362687333</v>
+      </c>
+      <c r="XJ2" s="2">
+        <v>-3.19522368262866</v>
+      </c>
+      <c r="XK2" s="2">
+        <v>-3.20512947752827</v>
+      </c>
+      <c r="XL2" s="2">
+        <v>-3.21613377744785</v>
+      </c>
+      <c r="XM2" s="2">
+        <v>-3.19465485945172</v>
+      </c>
+      <c r="XN2" s="2">
+        <v>-3.18914609901356</v>
+      </c>
+      <c r="XO2" s="2">
+        <v>-3.21847761989278</v>
+      </c>
+      <c r="XP2" s="2">
+        <v>-3.17595031291081</v>
+      </c>
+      <c r="XQ2" s="2">
+        <v>-3.20065501816618</v>
+      </c>
+      <c r="XR2" s="2">
+        <v>-3.17636780248154</v>
+      </c>
+      <c r="XS2" s="2">
+        <v>-3.16341960687983</v>
+      </c>
+      <c r="XT2" s="2">
+        <v>-3.20174985233828</v>
+      </c>
+      <c r="XU2" s="2">
+        <v>-3.15810099110816</v>
+      </c>
+      <c r="XV2" s="2">
+        <v>-3.16157698306981</v>
+      </c>
+      <c r="XW2" s="2">
+        <v>-3.11469716879136</v>
+      </c>
+      <c r="XX2" s="2">
+        <v>-3.11554788265093</v>
+      </c>
+      <c r="XY2" s="2">
+        <v>-3.10873237675697</v>
+      </c>
+      <c r="XZ2" s="2">
+        <v>-3.08893254501823</v>
+      </c>
+      <c r="YA2" s="2">
+        <v>-3.07322543350844</v>
+      </c>
+      <c r="YB2" s="2">
+        <v>-3.06462680965258</v>
+      </c>
+      <c r="YC2" s="2">
+        <v>-3.0480482408227</v>
+      </c>
+      <c r="YD2" s="2">
+        <v>-3.03840812306362</v>
+      </c>
+      <c r="YE2" s="2">
+        <v>-3.01573075167999</v>
+      </c>
+      <c r="YF2" s="2">
+        <v>-2.99814958775023</v>
+      </c>
+      <c r="YG2" s="2">
+        <v>-2.99419512007126</v>
+      </c>
+      <c r="YH2" s="2">
+        <v>-2.96192600175883</v>
+      </c>
+      <c r="YI2" s="2">
+        <v>-2.95266427831911</v>
+      </c>
+      <c r="YJ2" s="2">
+        <v>-2.93527400311349</v>
+      </c>
+      <c r="YK2" s="2">
+        <v>-2.89346324874739</v>
+      </c>
+      <c r="YL2" s="2">
+        <v>-2.87588959652528</v>
+      </c>
+      <c r="YM2" s="2">
+        <v>-2.87308143398945</v>
+      </c>
+      <c r="YN2" s="2">
+        <v>-2.86651797351027</v>
+      </c>
+      <c r="YO2" s="2">
+        <v>-2.84899322462041</v>
+      </c>
+      <c r="YP2" s="2">
+        <v>-2.83500026972459</v>
+      </c>
+      <c r="YQ2" s="2">
+        <v>-2.79133562196036</v>
+      </c>
+      <c r="YR2" s="2">
+        <v>-2.79928581266887</v>
+      </c>
+      <c r="YS2" s="2">
+        <v>-2.79386351611842</v>
+      </c>
+      <c r="YT2" s="2">
+        <v>-2.74148138666475</v>
+      </c>
+      <c r="YU2" s="2">
+        <v>-2.73597721268668</v>
+      </c>
+      <c r="YV2" s="2">
+        <v>-2.70679625743521</v>
+      </c>
+      <c r="YW2" s="2">
+        <v>-2.69643442769679</v>
+      </c>
+      <c r="YX2" s="2">
+        <v>-2.69339077661976</v>
+      </c>
+      <c r="YY2" s="2">
+        <v>-2.66658109802301</v>
+      </c>
+      <c r="YZ2" s="2">
+        <v>-2.65402193966123</v>
+      </c>
+      <c r="ZA2" s="2">
+        <v>-2.66499361320974</v>
+      </c>
+      <c r="ZB2" s="2">
+        <v>-2.63736462612635</v>
+      </c>
+      <c r="ZC2" s="2">
+        <v>-2.63115115728495</v>
+      </c>
+      <c r="ZD2" s="2">
+        <v>-2.59521932314058</v>
+      </c>
+      <c r="ZE2" s="2">
+        <v>-2.59739223016135</v>
+      </c>
+      <c r="ZF2" s="2">
+        <v>-2.60068605067507</v>
+      </c>
+      <c r="ZG2" s="2">
+        <v>-2.55735427222827</v>
+      </c>
+      <c r="ZH2" s="2">
+        <v>-2.56512301773591</v>
+      </c>
+      <c r="ZI2" s="2">
+        <v>-2.53767316004978</v>
+      </c>
+      <c r="ZJ2" s="2">
+        <v>-2.56602073542391</v>
+      </c>
+      <c r="ZK2" s="2">
+        <v>-2.55100461960355</v>
+      </c>
+      <c r="ZL2" s="2">
+        <v>-2.52032542993571</v>
+      </c>
+      <c r="ZM2" s="2">
+        <v>-2.51097414041596</v>
+      </c>
+      <c r="ZN2" s="2">
+        <v>-2.49280683431207</v>
+      </c>
+      <c r="ZO2" s="2">
+        <v>-2.5002667915992</v>
+      </c>
+      <c r="ZP2" s="2">
+        <v>-2.48405688539567</v>
+      </c>
+      <c r="ZQ2" s="2">
+        <v>-2.49447877772784</v>
+      </c>
+      <c r="ZR2" s="2">
+        <v>-2.48678697931259</v>
+      </c>
+      <c r="ZS2" s="2">
+        <v>-2.47145068644467</v>
+      </c>
+      <c r="ZT2" s="2">
+        <v>-2.45048615267258</v>
+      </c>
+      <c r="ZU2" s="2">
+        <v>-2.45662095032588</v>
+      </c>
+      <c r="ZV2" s="2">
+        <v>-2.45742405327119</v>
+      </c>
+      <c r="ZW2" s="2">
+        <v>-2.44874945302447</v>
+      </c>
+      <c r="ZX2" s="2">
+        <v>-2.44928056193033</v>
+      </c>
+      <c r="ZY2" s="2">
+        <v>-2.45452434513105</v>
+      </c>
+      <c r="ZZ2" s="2">
+        <v>-2.44511336743851</v>
+      </c>
+      <c r="AAA2" s="2">
+        <v>-2.42316591787851</v>
+      </c>
+      <c r="AAB2" s="2">
+        <v>-2.40574978397613</v>
+      </c>
+      <c r="AAC2" s="2">
+        <v>-2.42445224038329</v>
+      </c>
+      <c r="AAD2" s="2">
+        <v>-2.41675624763752</v>
+      </c>
+      <c r="AAE2" s="2">
+        <v>-2.41729417417757</v>
+      </c>
+      <c r="AAF2" s="2">
+        <v>-2.41966848313837</v>
+      </c>
+      <c r="AAG2" s="2">
+        <v>-2.40161175047755</v>
+      </c>
+      <c r="AAH2" s="2">
+        <v>-2.41271987990486</v>
+      </c>
+      <c r="AAI2" s="2">
+        <v>-2.38425504119707</v>
+      </c>
+      <c r="AAJ2" s="2">
+        <v>-2.39356107528546</v>
+      </c>
+      <c r="AAK2" s="2">
+        <v>-2.38370427857161</v>
+      </c>
+      <c r="AAL2" s="2">
+        <v>-2.3836231435599</v>
+      </c>
+      <c r="AAM2" s="2">
+        <v>-2.39647323447723</v>
+      </c>
+      <c r="AAN2" s="2">
+        <v>-2.38314972161255</v>
+      </c>
+      <c r="AAO2" s="2">
+        <v>-2.38076947514499</v>
+      </c>
+      <c r="AAP2" s="2">
+        <v>-2.36864090106945</v>
+      </c>
+      <c r="AAQ2" s="2">
+        <v>-2.34958651333372</v>
+      </c>
+      <c r="AAR2" s="2">
+        <v>-2.39427108753652</v>
+      </c>
+      <c r="AAS2" s="2">
+        <v>-2.36916763167986</v>
+      </c>
+      <c r="AAT2" s="2">
+        <v>-2.3627186775918</v>
+      </c>
+      <c r="AAU2" s="2">
+        <v>-2.3716653153221</v>
+      </c>
+      <c r="AAV2" s="2">
+        <v>-2.36712859542776</v>
+      </c>
+      <c r="AAW2" s="2">
+        <v>-2.34782067732285</v>
+      </c>
+      <c r="AAX2" s="2">
+        <v>-2.37176771939922</v>
+      </c>
+      <c r="AAY2" s="2">
+        <v>-2.35557071714146</v>
+      </c>
+      <c r="AAZ2" s="2">
+        <v>-2.36035501816081</v>
+      </c>
+      <c r="ABA2" s="2">
+        <v>-2.33780329644801</v>
+      </c>
+      <c r="ABB2" s="2">
+        <v>-2.35530503566464</v>
+      </c>
+      <c r="ABC2" s="2">
+        <v>-2.33759308449125</v>
+      </c>
+      <c r="ABD2" s="2">
+        <v>-2.35048287609412</v>
+      </c>
+      <c r="ABE2" s="2">
+        <v>-2.34573034576197</v>
+      </c>
+      <c r="ABF2" s="2">
+        <v>-2.34305005180295</v>
+      </c>
+      <c r="ABG2" s="2">
+        <v>-2.35307612972113</v>
+      </c>
+      <c r="ABH2" s="2">
+        <v>-2.33055670783367</v>
+      </c>
+      <c r="ABI2" s="2">
+        <v>-2.33202135097721</v>
+      </c>
+      <c r="ABJ2" s="2">
+        <v>-2.34053739962084</v>
+      </c>
+      <c r="ABK2" s="2">
+        <v>-2.3136925476967</v>
+      </c>
+      <c r="ABL2" s="2">
+        <v>-2.31056705121916</v>
+      </c>
+      <c r="ABM2" s="2">
+        <v>-2.33441787475721</v>
+      </c>
+      <c r="ABN2" s="2">
+        <v>-2.29234942054262</v>
+      </c>
+      <c r="ABO2" s="2">
+        <v>-2.28823260145617</v>
+      </c>
+      <c r="ABP2" s="2">
+        <v>-2.29721435876548</v>
+      </c>
+      <c r="ABQ2" s="2">
+        <v>-2.2988623735356</v>
+      </c>
+      <c r="ABR2" s="2">
+        <v>-2.31223667469606</v>
+      </c>
+      <c r="ABS2" s="2">
+        <v>-2.29921223887012</v>
+      </c>
+      <c r="ABT2" s="2">
+        <v>-2.28059893594559</v>
+      </c>
+      <c r="ABU2" s="2">
+        <v>-2.28786165443964</v>
+      </c>
+      <c r="ABV2" s="2">
+        <v>-2.29407846674532</v>
+      </c>
+      <c r="ABW2" s="2">
+        <v>-2.29754825300346</v>
+      </c>
+      <c r="ABX2" s="2">
+        <v>-2.28533768872967</v>
+      </c>
+      <c r="ABY2" s="2">
+        <v>-2.28415521620256</v>
+      </c>
+      <c r="ABZ2" s="2">
+        <v>-2.28735171115619</v>
+      </c>
+      <c r="ACA2" s="2">
+        <v>-2.28988437432534</v>
+      </c>
+      <c r="ACB2" s="2">
+        <v>-2.26730712203562</v>
+      </c>
+      <c r="ACC2" s="2">
+        <v>-2.28695911188781</v>
+      </c>
+      <c r="ACD2" s="2">
+        <v>-2.27933992899377</v>
+      </c>
+      <c r="ACE2" s="2">
+        <v>-2.28194684024441</v>
+      </c>
+      <c r="ACF2" s="2">
+        <v>-2.30448410026497</v>
+      </c>
+      <c r="ACG2" s="2">
+        <v>-2.26122416380744</v>
+      </c>
+      <c r="ACH2" s="2">
+        <v>-2.26163094040315</v>
+      </c>
+      <c r="ACI2" s="2">
+        <v>-2.26523080676024</v>
+      </c>
+      <c r="ACJ2" s="2">
+        <v>-2.28156440741932</v>
+      </c>
+      <c r="ACK2" s="2">
+        <v>-2.28079495509665</v>
+      </c>
+      <c r="ACL2" s="2">
+        <v>-2.27323105253798</v>
+      </c>
+      <c r="ACM2" s="2">
+        <v>-2.23938849643404</v>
+      </c>
+      <c r="ACN2" s="2">
+        <v>-2.26633812825619</v>
+      </c>
+      <c r="ACO2" s="2">
+        <v>-2.26728583174577</v>
+      </c>
+      <c r="ACP2" s="2">
+        <v>-2.25898788989037</v>
+      </c>
+      <c r="ACQ2" s="2">
+        <v>-2.25864503030666</v>
+      </c>
+      <c r="ACR2" s="2">
+        <v>-2.27454639770854</v>
+      </c>
+      <c r="ACS2" s="2">
+        <v>-2.27017194025601</v>
+      </c>
+      <c r="ACT2" s="2">
+        <v>-2.2797969003551</v>
+      </c>
+      <c r="ACU2" s="2">
+        <v>-2.27567131331202</v>
+      </c>
+      <c r="ACV2" s="2">
+        <v>-2.26226270948126</v>
+      </c>
+      <c r="ACW2" s="2">
+        <v>-2.27972427357986</v>
+      </c>
+      <c r="ACX2" s="2">
+        <v>-2.26858592927105</v>
+      </c>
+      <c r="ACY2" s="2">
+        <v>-2.26018739554061</v>
+      </c>
+      <c r="ACZ2" s="2">
+        <v>-2.25911295508847</v>
+      </c>
+      <c r="ADA2" s="2">
+        <v>-2.2890159837834</v>
+      </c>
+      <c r="ADB2" s="2">
+        <v>-2.26680560296833</v>
+      </c>
+      <c r="ADC2" s="2">
+        <v>-2.29794240967681</v>
+      </c>
+      <c r="ADD2" s="2">
+        <v>-2.26222416867866</v>
+      </c>
+      <c r="ADE2" s="2">
+        <v>-2.27383203813115</v>
+      </c>
+      <c r="ADF2" s="2">
+        <v>-2.27004503864196</v>
+      </c>
+      <c r="ADG2" s="2">
+        <v>-2.27042224790752</v>
+      </c>
+      <c r="ADH2" s="2">
+        <v>-2.27893593278572</v>
+      </c>
+      <c r="ADI2" s="2">
+        <v>-2.27892695745485</v>
+      </c>
+      <c r="ADJ2" s="2">
+        <v>-2.26369371649662</v>
+      </c>
+      <c r="ADK2" s="2">
+        <v>-2.27222166616287</v>
+      </c>
+      <c r="ADL2" s="2">
+        <v>-2.27678404250124</v>
+      </c>
+      <c r="ADM2" s="2">
+        <v>-2.26933038676249</v>
+      </c>
+      <c r="ADN2" s="2">
+        <v>-2.28443209210911</v>
+      </c>
+      <c r="ADO2" s="2">
+        <v>-2.26836624479323</v>
+      </c>
+      <c r="ADP2" s="2">
+        <v>-2.28141068095818</v>
+      </c>
+      <c r="ADQ2" s="2">
+        <v>-2.26675609055448</v>
+      </c>
+      <c r="ADR2" s="2">
+        <v>-2.28144552934724</v>
+      </c>
+      <c r="ADS2" s="2">
+        <v>-2.26834508338078</v>
+      </c>
+      <c r="ADT2" s="2">
+        <v>-2.26943246351436</v>
+      </c>
+      <c r="ADU2" s="2">
+        <v>-2.27146238985368</v>
+      </c>
+      <c r="ADV2" s="2">
+        <v>-2.28750087877584</v>
+      </c>
+      <c r="ADW2" s="2">
+        <v>-2.2629011534036</v>
+      </c>
+      <c r="ADX2" s="2">
+        <v>-2.2577441583155</v>
+      </c>
+      <c r="ADY2" s="2">
+        <v>-2.24874778843691</v>
+      </c>
+      <c r="ADZ2" s="2">
+        <v>-2.25671028096603</v>
+      </c>
+      <c r="AEA2" s="2">
+        <v>-2.25339410521054</v>
+      </c>
+      <c r="AEB2" s="2">
+        <v>-2.26392705250948</v>
+      </c>
+      <c r="AEC2" s="2">
+        <v>-2.24588692685833</v>
+      </c>
+      <c r="AED2" s="2">
+        <v>-2.27071183335404</v>
+      </c>
+      <c r="AEE2" s="2">
+        <v>-2.22579406195609</v>
+      </c>
+      <c r="AEF2" s="2">
+        <v>-2.23186656414834</v>
+      </c>
+      <c r="AEG2" s="2">
+        <v>-2.26610759849353</v>
+      </c>
+      <c r="AEH2" s="2">
+        <v>-2.24684459350331</v>
+      </c>
+      <c r="AEI2" s="2">
+        <v>-2.24441931073244</v>
+      </c>
+      <c r="AEJ2" s="2">
+        <v>-2.23049981510119</v>
+      </c>
+      <c r="AEK2" s="2">
+        <v>-2.22934890103999</v>
+      </c>
+      <c r="AEL2" s="2">
+        <v>-2.21889613477482</v>
+      </c>
+      <c r="AEM2" s="2">
+        <v>-2.20847720198362</v>
+      </c>
+      <c r="AEN2" s="2">
+        <v>-2.19978557347013</v>
+      </c>
+      <c r="AEO2" s="2">
+        <v>-2.22296020985761</v>
+      </c>
+      <c r="AEP2" s="2">
+        <v>-2.19594276188998</v>
+      </c>
+      <c r="AEQ2" s="2">
+        <v>-2.17213044825447</v>
+      </c>
+      <c r="AER2" s="2">
+        <v>-2.1931736020191</v>
+      </c>
+      <c r="AES2" s="2">
+        <v>-2.19068421921975</v>
+      </c>
+      <c r="AET2" s="2">
+        <v>-2.20500936372199</v>
+      </c>
+      <c r="AEU2" s="2">
+        <v>-2.19261066946109</v>
+      </c>
+      <c r="AEV2" s="2">
+        <v>-2.18336761626135</v>
+      </c>
+      <c r="AEW2" s="2">
+        <v>-2.17584514519473</v>
+      </c>
+      <c r="AEX2" s="2">
+        <v>-2.1508877769283</v>
+      </c>
+      <c r="AEY2" s="2">
+        <v>-2.16360123410788</v>
+      </c>
+      <c r="AEZ2" s="2">
+        <v>-2.16382535856657</v>
+      </c>
+      <c r="AFA2" s="2">
+        <v>-2.15688957770425</v>
+      </c>
+      <c r="AFB2" s="2">
+        <v>-2.17777613300495</v>
+      </c>
+      <c r="AFC2" s="2">
+        <v>-2.14626653271679</v>
+      </c>
+      <c r="AFD2" s="2">
+        <v>-2.14829460687806</v>
+      </c>
+      <c r="AFE2" s="2">
+        <v>-2.13726544608908</v>
+      </c>
+      <c r="AFF2" s="2">
+        <v>-2.14577807218329</v>
+      </c>
+      <c r="AFG2" s="2">
+        <v>-2.12090304884897</v>
+      </c>
+      <c r="AFH2" s="2">
+        <v>-2.15106973029436</v>
+      </c>
+      <c r="AFI2" s="2">
+        <v>-2.13830485749237</v>
+      </c>
+      <c r="AFJ2" s="2">
+        <v>-2.14700507378988</v>
+      </c>
+      <c r="AFK2" s="2">
+        <v>-2.12072310600423</v>
+      </c>
+      <c r="AFL2" s="2">
+        <v>-2.12743568008368</v>
+      </c>
+      <c r="AFM2" s="2">
+        <v>-2.11609801492191</v>
+      </c>
+      <c r="AFN2" s="2">
+        <v>-2.12272516360662</v>
+      </c>
+      <c r="AFO2" s="2">
+        <v>-2.09460119078795</v>
+      </c>
+      <c r="AFP2" s="2">
+        <v>-2.10722419202545</v>
+      </c>
+      <c r="AFQ2" s="2">
+        <v>-2.11274409652549</v>
+      </c>
+      <c r="AFR2" s="2">
+        <v>-2.08802942378018</v>
+      </c>
+      <c r="AFS2" s="2">
+        <v>-2.07136914253935</v>
+      </c>
+      <c r="AFT2" s="2">
+        <v>-2.09307953076953</v>
+      </c>
+      <c r="AFU2" s="2">
+        <v>-2.0924312214286</v>
+      </c>
+      <c r="AFV2" s="2">
+        <v>-2.07260527672747</v>
+      </c>
+      <c r="AFW2" s="2">
+        <v>-2.08661301051422</v>
+      </c>
+      <c r="AFX2" s="2">
+        <v>-2.07782787123287</v>
+      </c>
+      <c r="AFY2" s="2">
+        <v>-2.09153240636597</v>
+      </c>
+      <c r="AFZ2" s="2">
+        <v>-2.06960540298429</v>
+      </c>
+      <c r="AGA2" s="2">
+        <v>-2.07167250771711</v>
+      </c>
+      <c r="AGB2" s="2">
+        <v>-2.05410250725198</v>
+      </c>
+      <c r="AGC2" s="2">
+        <v>-2.06699655818104</v>
+      </c>
+      <c r="AGD2" s="2">
+        <v>-2.06177831150243</v>
+      </c>
+      <c r="AGE2" s="2">
+        <v>-2.06032603615755</v>
+      </c>
+      <c r="AGF2" s="2">
+        <v>-2.0567037210135</v>
+      </c>
+      <c r="AGG2" s="2">
+        <v>-2.05253892283129</v>
+      </c>
+      <c r="AGH2" s="2">
+        <v>-2.04925445157917</v>
+      </c>
+      <c r="AGI2" s="2">
+        <v>-2.04158853500764</v>
+      </c>
+      <c r="AGJ2" s="2">
+        <v>-2.03551165067803</v>
+      </c>
+      <c r="AGK2" s="2">
+        <v>-2.03358063214037</v>
+      </c>
+      <c r="AGL2" s="2">
+        <v>-2.06138653135766</v>
+      </c>
+      <c r="AGM2" s="2">
+        <v>-2.03953012542507</v>
+      </c>
+      <c r="AGN2" s="2">
+        <v>-2.03584412565363</v>
+      </c>
+      <c r="AGO2" s="2">
+        <v>-2.02734243295871</v>
+      </c>
+      <c r="AGP2" s="2">
+        <v>-2.03744671865716</v>
+      </c>
+      <c r="AGQ2" s="2">
+        <v>-2.01543978663091</v>
+      </c>
+      <c r="AGR2" s="2">
+        <v>-2.02947092391164</v>
+      </c>
+      <c r="AGS2" s="2">
+        <v>-2.01761492246486</v>
+      </c>
+      <c r="AGT2" s="2">
+        <v>-1.99855907257699</v>
+      </c>
+      <c r="AGU2" s="2">
+        <v>-2.02357473696723</v>
+      </c>
+      <c r="AGV2" s="2">
+        <v>-2.03078906702708</v>
+      </c>
+      <c r="AGW2" s="2">
+        <v>-2.01197029041966</v>
+      </c>
+      <c r="AGX2" s="2">
+        <v>-2.00292676046246</v>
+      </c>
+      <c r="AGY2" s="2">
+        <v>-2.01868421940916</v>
+      </c>
+      <c r="AGZ2" s="2">
+        <v>-2.01643015473505</v>
+      </c>
+      <c r="AHA2" s="2">
+        <v>-2.02071546853155</v>
+      </c>
+      <c r="AHB2" s="2">
+        <v>-2.01752248755376</v>
+      </c>
+      <c r="AHC2" s="2">
+        <v>-2.00643336753583</v>
+      </c>
+      <c r="AHD2" s="2">
+        <v>-2.02999299184025</v>
+      </c>
+      <c r="AHE2" s="2">
+        <v>-2.03668264944924</v>
+      </c>
+      <c r="AHF2" s="2">
+        <v>-2.02982629946623</v>
+      </c>
+      <c r="AHG2" s="2">
+        <v>-2.02389945232202</v>
+      </c>
+      <c r="AHH2" s="2">
+        <v>-2.01135221983761</v>
+      </c>
+      <c r="AHI2" s="2">
+        <v>-2.04256546560575</v>
+      </c>
+      <c r="AHJ2" s="2">
+        <v>-2.03683137820075</v>
+      </c>
+      <c r="AHK2" s="2">
+        <v>-2.0482589185071</v>
+      </c>
+      <c r="AHL2" s="2">
+        <v>-2.03571226411244</v>
+      </c>
+      <c r="AHM2" s="2">
+        <v>-2.05663677713592</v>
+      </c>
+      <c r="AHN2" s="2">
+        <v>-2.03766124935511</v>
+      </c>
+      <c r="AHO2" s="2">
+        <v>-2.02344822191638</v>
+      </c>
+      <c r="AHP2" s="2">
+        <v>-2.04453291783581</v>
+      </c>
+      <c r="AHQ2" s="2">
+        <v>-2.05525606269975</v>
+      </c>
+      <c r="AHR2" s="2">
+        <v>-2.03609844001637</v>
+      </c>
+      <c r="AHS2" s="2">
+        <v>-2.03819814750216</v>
+      </c>
+      <c r="AHT2" s="2">
+        <v>-2.06351823992158</v>
+      </c>
+      <c r="AHU2" s="2">
+        <v>-2.06434746069867</v>
+      </c>
+      <c r="AHV2" s="2">
+        <v>-2.06884877179791</v>
+      </c>
+      <c r="AHW2" s="2">
+        <v>-2.07151478011477</v>
+      </c>
+      <c r="AHX2" s="2">
+        <v>-2.0934169670432</v>
+      </c>
+      <c r="AHY2" s="2">
+        <v>-2.08784711165163</v>
+      </c>
+      <c r="AHZ2" s="2">
+        <v>-2.10679622487994</v>
+      </c>
+      <c r="AIA2" s="2">
+        <v>-2.11334776361535</v>
+      </c>
+      <c r="AIB2" s="2">
+        <v>-2.11798657645309</v>
+      </c>
+      <c r="AIC2" s="2">
+        <v>-2.09657365820538</v>
+      </c>
+      <c r="AID2" s="2">
+        <v>-2.13382975755568</v>
+      </c>
+      <c r="AIE2" s="2">
+        <v>-2.1301514688106</v>
+      </c>
+      <c r="AIF2" s="2">
+        <v>-2.14570298122429</v>
+      </c>
+      <c r="AIG2" s="2">
+        <v>-2.14277391217864</v>
+      </c>
+      <c r="AIH2" s="2">
+        <v>-2.17659624352696</v>
+      </c>
+      <c r="AII2" s="2">
+        <v>-2.16086430474959</v>
+      </c>
+      <c r="AIJ2" s="2">
+        <v>-2.17473531103642</v>
+      </c>
+      <c r="AIK2" s="2">
+        <v>-2.20566706634196</v>
+      </c>
+      <c r="AIL2" s="2">
+        <v>-2.18209274045837</v>
+      </c>
+      <c r="AIM2" s="2">
+        <v>-2.18700551489482</v>
+      </c>
+      <c r="AIN2" s="2">
+        <v>-2.20987344759443</v>
+      </c>
+      <c r="AIO2" s="2">
+        <v>-2.21555366186284</v>
+      </c>
+      <c r="AIP2" s="2">
+        <v>-2.22842169097181</v>
+      </c>
+      <c r="AIQ2" s="2">
+        <v>-2.20388376989261</v>
+      </c>
+      <c r="AIR2" s="2">
+        <v>-2.24183602582766</v>
+      </c>
+      <c r="AIS2" s="2">
+        <v>-2.23643173930997</v>
+      </c>
+      <c r="AIT2" s="2">
+        <v>-2.23333815593437</v>
+      </c>
+      <c r="AIU2" s="2">
+        <v>-2.27322561804786</v>
+      </c>
+      <c r="AIV2" s="2">
+        <v>-2.27255217461356</v>
+      </c>
+      <c r="AIW2" s="2">
+        <v>-2.28850194771783</v>
+      </c>
+      <c r="AIX2" s="2">
+        <v>-2.27641457547425</v>
+      </c>
+      <c r="AIY2" s="2">
+        <v>-2.27603017674876</v>
+      </c>
+      <c r="AIZ2" s="2">
+        <v>-2.29936160408378</v>
+      </c>
+      <c r="AJA2" s="2">
+        <v>-2.31610490225193</v>
+      </c>
+      <c r="AJB2" s="2">
+        <v>-2.30443799572973</v>
+      </c>
+      <c r="AJC2" s="2">
+        <v>-2.32420596528018</v>
+      </c>
+      <c r="AJD2" s="2">
+        <v>-2.33669920278266</v>
+      </c>
+      <c r="AJE2" s="2">
+        <v>-2.36734982259364</v>
+      </c>
+      <c r="AJF2" s="2">
+        <v>-2.34567931892334</v>
+      </c>
+      <c r="AJG2" s="2">
+        <v>-2.38574463576285</v>
+      </c>
+      <c r="AJH2" s="2">
+        <v>-2.35452915754797</v>
+      </c>
+      <c r="AJI2" s="2">
+        <v>-2.36628675321873</v>
+      </c>
+      <c r="AJJ2" s="2">
+        <v>-2.38515705014901</v>
+      </c>
+      <c r="AJK2" s="2">
+        <v>-2.38121423130912</v>
+      </c>
+      <c r="AJL2" s="2">
+        <v>-2.3650184721275</v>
+      </c>
+      <c r="AJM2" s="2">
+        <v>-2.38923287035154</v>
+      </c>
+      <c r="AJN2" s="2">
+        <v>-2.40312804020327</v>
+      </c>
+      <c r="AJO2" s="2">
+        <v>-2.39286587187183</v>
+      </c>
+      <c r="AJP2" s="2">
+        <v>-2.40749967314214</v>
+      </c>
+      <c r="AJQ2" s="2">
+        <v>-2.40981594813629</v>
+      </c>
+      <c r="AJR2" s="2">
+        <v>-2.41699271084986</v>
+      </c>
+      <c r="AJS2" s="2">
+        <v>-2.41651636475068</v>
+      </c>
+      <c r="AJT2" s="2">
+        <v>-2.42489716171437</v>
+      </c>
+      <c r="AJU2" s="2">
+        <v>-2.41885005972382</v>
+      </c>
+      <c r="AJV2" s="2">
+        <v>-2.40850319240755</v>
+      </c>
+      <c r="AJW2" s="2">
+        <v>-2.42476235227742</v>
+      </c>
+      <c r="AJX2" s="2">
+        <v>-2.43257603338927</v>
+      </c>
+      <c r="AJY2" s="2">
+        <v>-2.4112938910465</v>
+      </c>
+      <c r="AJZ2" s="2">
+        <v>-2.40872856853746</v>
+      </c>
+      <c r="AKA2" s="2">
+        <v>-2.44379019171513</v>
+      </c>
+      <c r="AKB2" s="2">
+        <v>-2.41555139710835</v>
+      </c>
+      <c r="AKC2" s="2">
+        <v>-2.41642470774913</v>
+      </c>
+      <c r="AKD2" s="2">
+        <v>-2.41318942525999</v>
+      </c>
+      <c r="AKE2" s="2">
+        <v>-2.43489441961799</v>
+      </c>
+      <c r="AKF2" s="2">
+        <v>-2.40723407949584</v>
+      </c>
+      <c r="AKG2" s="2">
+        <v>-2.43103915819594</v>
+      </c>
+      <c r="AKH2" s="2">
+        <v>-2.43233253193862</v>
+      </c>
+      <c r="AKI2" s="2">
+        <v>-2.41491735883476</v>
+      </c>
+      <c r="AKJ2" s="2">
+        <v>-2.40883298924492</v>
+      </c>
+      <c r="AKK2" s="2">
+        <v>-2.41074917494734</v>
+      </c>
+      <c r="AKL2" s="2">
+        <v>-2.41982521540013</v>
+      </c>
+      <c r="AKM2" s="2">
+        <v>-2.4217326878263</v>
+      </c>
+      <c r="AKN2" s="2">
+        <v>-2.39588588433485</v>
+      </c>
+      <c r="AKO2" s="2">
+        <v>-2.38735270893043</v>
+      </c>
+      <c r="AKP2" s="2">
+        <v>-2.40327092844154</v>
+      </c>
+      <c r="AKQ2" s="2">
+        <v>-2.39311479782515</v>
+      </c>
+      <c r="AKR2" s="2">
+        <v>-2.37974170163444</v>
+      </c>
+      <c r="AKS2" s="2">
+        <v>-2.36903138089819</v>
+      </c>
+      <c r="AKT2" s="2">
+        <v>-2.37002790291152</v>
+      </c>
+      <c r="AKU2" s="2">
+        <v>-2.38229141306242</v>
+      </c>
+      <c r="AKV2" s="2">
+        <v>-2.38542159282229</v>
+      </c>
+      <c r="AKW2" s="2">
+        <v>-2.37345972086691</v>
+      </c>
+      <c r="AKX2" s="2">
+        <v>-2.37282683957551</v>
+      </c>
+      <c r="AKY2" s="2">
+        <v>-2.39086235300239</v>
+      </c>
+      <c r="AKZ2" s="2">
+        <v>-2.37407295402931</v>
+      </c>
+      <c r="ALA2" s="2">
+        <v>-2.33652234791979</v>
+      </c>
+      <c r="ALB2" s="2">
+        <v>-2.34021441965564</v>
+      </c>
+      <c r="ALC2" s="2">
+        <v>-2.3166050173429</v>
+      </c>
+      <c r="ALD2" s="2">
+        <v>-2.3594826756823</v>
+      </c>
+      <c r="ALE2" s="2">
+        <v>-2.33267274088094</v>
+      </c>
+      <c r="ALF2" s="2">
+        <v>-2.31648796869179</v>
+      </c>
+      <c r="ALG2" s="2">
+        <v>-2.34057715319059</v>
+      </c>
+      <c r="ALH2" s="2">
+        <v>-2.3186660667427</v>
+      </c>
+      <c r="ALI2" s="2">
+        <v>-2.32351455967836</v>
+      </c>
+      <c r="ALJ2" s="2">
+        <v>-2.33278549838325</v>
+      </c>
+      <c r="ALK2" s="2">
+        <v>-2.31243177227665</v>
+      </c>
+      <c r="ALL2" s="2">
+        <v>-2.31375280876514</v>
+      </c>
+      <c r="ALM2" s="2">
+        <v>-2.3122102069825</v>
       </c>
     </row>
   </sheetData>

--- a/python/Pi4.xlsx
+++ b/python/Pi4.xlsx
@@ -3367,3007 +3367,3007 @@
     </row>
     <row r="2" spans="1:1001">
       <c r="A2" s="2">
-        <v>-3.49536412316195</v>
+        <v>0.0951329824697919</v>
       </c>
       <c r="B2" s="2">
-        <v>-6.93509169884686</v>
+        <v>-0.00539802351752554</v>
       </c>
       <c r="C2" s="2">
-        <v>-13.4014261697641</v>
+        <v>-0.0150928262212385</v>
       </c>
       <c r="D2" s="2">
-        <v>-12.2133318277562</v>
+        <v>-0.00252356150732073</v>
       </c>
       <c r="E2" s="2">
-        <v>-6.73329852135422</v>
+        <v>-0.00871801040498908</v>
       </c>
       <c r="F2" s="2">
-        <v>-4.27826667255736</v>
+        <v>0.00885214454862448</v>
       </c>
       <c r="G2" s="2">
-        <v>-3.22704478204904</v>
+        <v>-0.0133487518656739</v>
       </c>
       <c r="H2" s="2">
-        <v>-2.87485962114559</v>
+        <v>-0.00196329570721491</v>
       </c>
       <c r="I2" s="2">
-        <v>-2.95812068264931</v>
+        <v>-0.00647464014751001</v>
       </c>
       <c r="J2" s="2">
-        <v>-3.29749212090895</v>
+        <v>-0.0097013588397347</v>
       </c>
       <c r="K2" s="2">
-        <v>-3.88746611145561</v>
+        <v>-0.00543031906932836</v>
       </c>
       <c r="L2" s="2">
-        <v>-4.63002815797022</v>
+        <v>-0.013003401181479</v>
       </c>
       <c r="M2" s="2">
-        <v>-5.3324979783315</v>
+        <v>0.00446207769550762</v>
       </c>
       <c r="N2" s="2">
-        <v>-5.79213437346863</v>
+        <v>0.00269346819174471</v>
       </c>
       <c r="O2" s="2">
-        <v>-5.83089614646893</v>
+        <v>-0.00465043652927193</v>
       </c>
       <c r="P2" s="2">
-        <v>-5.60033446658983</v>
+        <v>-0.0043594331063323</v>
       </c>
       <c r="Q2" s="2">
-        <v>-5.27490013615009</v>
+        <v>-0.00499455142771415</v>
       </c>
       <c r="R2" s="2">
-        <v>-4.99210841828433</v>
+        <v>-0.00613510039890492</v>
       </c>
       <c r="S2" s="2">
-        <v>-4.8230909009594</v>
+        <v>-0.0149772091904486</v>
       </c>
       <c r="T2" s="2">
-        <v>-4.7872701720408</v>
+        <v>-0.00447487692397807</v>
       </c>
       <c r="U2" s="2">
-        <v>-4.9084555252384</v>
+        <v>-0.00266823922247508</v>
       </c>
       <c r="V2" s="2">
-        <v>-5.07572046650928</v>
+        <v>-0.00413030548737347</v>
       </c>
       <c r="W2" s="2">
-        <v>-5.35075325142474</v>
+        <v>0.00183608455236685</v>
       </c>
       <c r="X2" s="2">
-        <v>-5.64652740925109</v>
+        <v>-0.00954792514357186</v>
       </c>
       <c r="Y2" s="2">
-        <v>-5.95640067172622</v>
+        <v>0.0109060896832502</v>
       </c>
       <c r="Z2" s="2">
-        <v>-6.23956695887345</v>
+        <v>0.0129345457946108</v>
       </c>
       <c r="AA2" s="2">
-        <v>-6.53695223891158</v>
+        <v>-0.0169594755028062</v>
       </c>
       <c r="AB2" s="2">
-        <v>-6.82722877156435</v>
+        <v>0.00495441887891876</v>
       </c>
       <c r="AC2" s="2">
-        <v>-7.14949792391736</v>
+        <v>-0.00420533895063382</v>
       </c>
       <c r="AD2" s="2">
-        <v>-7.53551465503045</v>
+        <v>0.00113087297127095</v>
       </c>
       <c r="AE2" s="2">
-        <v>-7.96409503766143</v>
+        <v>0.00379381037204145</v>
       </c>
       <c r="AF2" s="2">
-        <v>-8.523694342645021</v>
+        <v>-0.00801613547562249</v>
       </c>
       <c r="AG2" s="2">
-        <v>-9.175799285891159</v>
+        <v>0.00605727063360521</v>
       </c>
       <c r="AH2" s="2">
-        <v>-9.88525754236411</v>
+        <v>-0.0124128613889155</v>
       </c>
       <c r="AI2" s="2">
-        <v>-10.5935224159026</v>
+        <v>-0.0152773242212805</v>
       </c>
       <c r="AJ2" s="2">
-        <v>-11.2701329487876</v>
+        <v>-0.0160692049823776</v>
       </c>
       <c r="AK2" s="2">
-        <v>-11.6480955036741</v>
+        <v>-0.0161944334077354</v>
       </c>
       <c r="AL2" s="2">
-        <v>-11.7178974837006</v>
+        <v>-0.00921922329665209</v>
       </c>
       <c r="AM2" s="2">
-        <v>-11.3734883775981</v>
+        <v>0.00106864089660725</v>
       </c>
       <c r="AN2" s="2">
-        <v>-10.8034600134564</v>
+        <v>-0.0199269176855025</v>
       </c>
       <c r="AO2" s="2">
-        <v>-10.1295363198212</v>
+        <v>-0.0179882500454775</v>
       </c>
       <c r="AP2" s="2">
-        <v>-9.375433072298391</v>
+        <v>-0.0220355155748566</v>
       </c>
       <c r="AQ2" s="2">
-        <v>-8.7089485205321</v>
+        <v>-0.00964113202722826</v>
       </c>
       <c r="AR2" s="2">
-        <v>-8.06105248170679</v>
+        <v>-0.00949290134662056</v>
       </c>
       <c r="AS2" s="2">
-        <v>-7.5418675371707</v>
+        <v>-0.0160670816115422</v>
       </c>
       <c r="AT2" s="2">
-        <v>-7.04704645788235</v>
+        <v>-0.0172710933839876</v>
       </c>
       <c r="AU2" s="2">
-        <v>-6.6741845274551</v>
+        <v>-0.00143788713029548</v>
       </c>
       <c r="AV2" s="2">
-        <v>-6.31630900524627</v>
+        <v>0.00256020047160532</v>
       </c>
       <c r="AW2" s="2">
-        <v>-6.02354007950115</v>
+        <v>-0.00356566586908553</v>
       </c>
       <c r="AX2" s="2">
-        <v>-5.80106315217659</v>
+        <v>-0.0301997020632209</v>
       </c>
       <c r="AY2" s="2">
-        <v>-5.59535884229463</v>
+        <v>-0.0105792761272862</v>
       </c>
       <c r="AZ2" s="2">
-        <v>-5.42104064690678</v>
+        <v>-0.00653920641914544</v>
       </c>
       <c r="BA2" s="2">
-        <v>-5.30344428798936</v>
+        <v>-0.00225608678948505</v>
       </c>
       <c r="BB2" s="2">
-        <v>-5.17420588263688</v>
+        <v>0.00481543393864339</v>
       </c>
       <c r="BC2" s="2">
-        <v>-5.06429937636234</v>
+        <v>-0.00454384227747203</v>
       </c>
       <c r="BD2" s="2">
-        <v>-4.98811856132406</v>
+        <v>0.01116069648441</v>
       </c>
       <c r="BE2" s="2">
-        <v>-4.93468962077724</v>
+        <v>-0.028031868301314</v>
       </c>
       <c r="BF2" s="2">
-        <v>-4.87086787689608</v>
+        <v>-0.0183497579272267</v>
       </c>
       <c r="BG2" s="2">
-        <v>-4.82474226988652</v>
+        <v>-0.00905670891260126</v>
       </c>
       <c r="BH2" s="2">
-        <v>-4.75303671190277</v>
+        <v>-0.00225273689706794</v>
       </c>
       <c r="BI2" s="2">
-        <v>-4.73634578299248</v>
+        <v>-0.0112240880021678</v>
       </c>
       <c r="BJ2" s="2">
-        <v>-4.70838414087811</v>
+        <v>3.11065962936075E-05</v>
       </c>
       <c r="BK2" s="2">
-        <v>-4.66615181258282</v>
+        <v>-0.0107865533217102</v>
       </c>
       <c r="BL2" s="2">
-        <v>-4.63650195850427</v>
+        <v>-0.010012941725982</v>
       </c>
       <c r="BM2" s="2">
-        <v>-4.63497218041007</v>
+        <v>-0.008848148592688541</v>
       </c>
       <c r="BN2" s="2">
-        <v>-4.63878676364891</v>
+        <v>-0.0151015426277836</v>
       </c>
       <c r="BO2" s="2">
-        <v>-4.59823343848774</v>
+        <v>-0.0176849917337324</v>
       </c>
       <c r="BP2" s="2">
-        <v>-4.59709530304904</v>
+        <v>-0.008315887031227071</v>
       </c>
       <c r="BQ2" s="2">
-        <v>-4.58825328538896</v>
+        <v>-0.009498372560329401</v>
       </c>
       <c r="BR2" s="2">
-        <v>-4.58434892816338</v>
+        <v>-0.0110282766333325</v>
       </c>
       <c r="BS2" s="2">
-        <v>-4.57363238806543</v>
+        <v>0.0057167630753742</v>
       </c>
       <c r="BT2" s="2">
-        <v>-4.56168106759996</v>
+        <v>-0.00141014743671418</v>
       </c>
       <c r="BU2" s="2">
-        <v>-4.54081882906456</v>
+        <v>-0.00644389758147772</v>
       </c>
       <c r="BV2" s="2">
-        <v>-4.53351984881118</v>
+        <v>-0.00252418091775276</v>
       </c>
       <c r="BW2" s="2">
-        <v>-4.51384668289372</v>
+        <v>-0.0160393861079308</v>
       </c>
       <c r="BX2" s="2">
-        <v>-4.47567992573804</v>
+        <v>-0.0373868391253145</v>
       </c>
       <c r="BY2" s="2">
-        <v>-4.48665900798654</v>
+        <v>-0.0035678544980743</v>
       </c>
       <c r="BZ2" s="2">
-        <v>-4.43086542280899</v>
+        <v>-0.0194401275346681</v>
       </c>
       <c r="CA2" s="2">
-        <v>-4.42854536162102</v>
+        <v>-0.016962023335902</v>
       </c>
       <c r="CB2" s="2">
-        <v>-4.38963055186421</v>
+        <v>-0.0137346407668078</v>
       </c>
       <c r="CC2" s="2">
-        <v>-4.36528153544216</v>
+        <v>-0.0154097586990095</v>
       </c>
       <c r="CD2" s="2">
-        <v>-4.31575281063074</v>
+        <v>-0.0165163465940465</v>
       </c>
       <c r="CE2" s="2">
-        <v>-4.29400869238293</v>
+        <v>-0.009613721115964169</v>
       </c>
       <c r="CF2" s="2">
-        <v>-4.28957966059253</v>
+        <v>-0.0172476342182404</v>
       </c>
       <c r="CG2" s="2">
-        <v>-4.24371887942303</v>
+        <v>-0.0126284684648417</v>
       </c>
       <c r="CH2" s="2">
-        <v>-4.20115911333098</v>
+        <v>-0.00486732625608788</v>
       </c>
       <c r="CI2" s="2">
-        <v>-4.16322907729841</v>
+        <v>-0.0138681702561616</v>
       </c>
       <c r="CJ2" s="2">
-        <v>-4.16168124179501</v>
+        <v>-0.008210577631596661</v>
       </c>
       <c r="CK2" s="2">
-        <v>-4.11999064833834</v>
+        <v>-0.0173563868818328</v>
       </c>
       <c r="CL2" s="2">
-        <v>-4.0846025603849</v>
+        <v>-0.0172302426040758</v>
       </c>
       <c r="CM2" s="2">
-        <v>-4.06282880651112</v>
+        <v>0.009376733502409969</v>
       </c>
       <c r="CN2" s="2">
-        <v>-4.01329238956409</v>
+        <v>-0.00248418585438366</v>
       </c>
       <c r="CO2" s="2">
-        <v>-3.97748491034732</v>
+        <v>-0.024726894248482</v>
       </c>
       <c r="CP2" s="2">
-        <v>-3.92068918870057</v>
+        <v>-0.0147237563359227</v>
       </c>
       <c r="CQ2" s="2">
-        <v>-3.89559444059423</v>
+        <v>-0.0118008934878594</v>
       </c>
       <c r="CR2" s="2">
-        <v>-3.87483413332742</v>
+        <v>-0.0142269777765091</v>
       </c>
       <c r="CS2" s="2">
-        <v>-3.87427238080817</v>
+        <v>-0.0133583032218145</v>
       </c>
       <c r="CT2" s="2">
-        <v>-3.83620057283177</v>
+        <v>-0.013954866215082</v>
       </c>
       <c r="CU2" s="2">
-        <v>-3.80267923256119</v>
+        <v>-0.008604724354038079</v>
       </c>
       <c r="CV2" s="2">
-        <v>-3.75916818221664</v>
+        <v>-0.0111303670184985</v>
       </c>
       <c r="CW2" s="2">
-        <v>-3.73346493549322</v>
+        <v>-0.000537289790132976</v>
       </c>
       <c r="CX2" s="2">
-        <v>-3.7080931067133</v>
+        <v>-0.0269421982599469</v>
       </c>
       <c r="CY2" s="2">
-        <v>-3.69064777626757</v>
+        <v>-0.0130055255330055</v>
       </c>
       <c r="CZ2" s="2">
-        <v>-3.64045233250852</v>
+        <v>-0.0176726745274265</v>
       </c>
       <c r="DA2" s="2">
-        <v>-3.62275217718424</v>
+        <v>-0.00948199445342859</v>
       </c>
       <c r="DB2" s="2">
-        <v>-3.60230419385339</v>
+        <v>-0.00288575880623908</v>
       </c>
       <c r="DC2" s="2">
-        <v>-3.57409139225052</v>
+        <v>-0.00621257399716903</v>
       </c>
       <c r="DD2" s="2">
-        <v>-3.53083421363764</v>
+        <v>-0.0172698373536024</v>
       </c>
       <c r="DE2" s="2">
-        <v>-3.51404314758866</v>
+        <v>-0.0132129823244378</v>
       </c>
       <c r="DF2" s="2">
-        <v>-3.51259303395629</v>
+        <v>-0.0161396090427107</v>
       </c>
       <c r="DG2" s="2">
-        <v>-3.49387722861696</v>
+        <v>-0.017206926695058</v>
       </c>
       <c r="DH2" s="2">
-        <v>-3.43666448491992</v>
+        <v>-0.014585426190537</v>
       </c>
       <c r="DI2" s="2">
-        <v>-3.42886719533724</v>
+        <v>-0.00357211096077621</v>
       </c>
       <c r="DJ2" s="2">
-        <v>-3.38798786057534</v>
+        <v>-0.00468670391106698</v>
       </c>
       <c r="DK2" s="2">
-        <v>-3.393336099221</v>
+        <v>-0.026527957256259</v>
       </c>
       <c r="DL2" s="2">
-        <v>-3.39191248652794</v>
+        <v>-0.0104054172586904</v>
       </c>
       <c r="DM2" s="2">
-        <v>-3.37788209907546</v>
+        <v>-0.0101357264245602</v>
       </c>
       <c r="DN2" s="2">
-        <v>-3.35618696901591</v>
+        <v>-0.0153520737886523</v>
       </c>
       <c r="DO2" s="2">
-        <v>-3.34625143649227</v>
+        <v>-0.0189960089684784</v>
       </c>
       <c r="DP2" s="2">
-        <v>-3.32555398063912</v>
+        <v>-0.0105290933309119</v>
       </c>
       <c r="DQ2" s="2">
-        <v>-3.32843508439629</v>
+        <v>-0.0224013195625472</v>
       </c>
       <c r="DR2" s="2">
-        <v>-3.30090904528268</v>
+        <v>-0.0156301050055161</v>
       </c>
       <c r="DS2" s="2">
-        <v>-3.30729171843211</v>
+        <v>-0.0228588827077493</v>
       </c>
       <c r="DT2" s="2">
-        <v>-3.31488603667625</v>
+        <v>-0.00241519537610792</v>
       </c>
       <c r="DU2" s="2">
-        <v>-3.30183667366756</v>
+        <v>-0.00609766299132615</v>
       </c>
       <c r="DV2" s="2">
-        <v>-3.29508675492802</v>
+        <v>-0.00858805701711499</v>
       </c>
       <c r="DW2" s="2">
-        <v>-3.29592885416266</v>
+        <v>-0.015879356555317</v>
       </c>
       <c r="DX2" s="2">
-        <v>-3.2975561686342</v>
+        <v>-0.008175458911174429</v>
       </c>
       <c r="DY2" s="2">
-        <v>-3.30577916264112</v>
+        <v>-0.00666391603648448</v>
       </c>
       <c r="DZ2" s="2">
-        <v>-3.30818608280843</v>
+        <v>-0.021431274150536</v>
       </c>
       <c r="EA2" s="2">
-        <v>-3.31867464281477</v>
+        <v>-0.0129486276572316</v>
       </c>
       <c r="EB2" s="2">
-        <v>-3.32764781025646</v>
+        <v>-0.00868997204521885</v>
       </c>
       <c r="EC2" s="2">
-        <v>-3.34377377254796</v>
+        <v>-0.0167565819014342</v>
       </c>
       <c r="ED2" s="2">
-        <v>-3.35477268231001</v>
+        <v>-0.0187764772436892</v>
       </c>
       <c r="EE2" s="2">
-        <v>-3.36000009226695</v>
+        <v>-0.0302094436337538</v>
       </c>
       <c r="EF2" s="2">
-        <v>-3.38003695539622</v>
+        <v>-0.0195429356148915</v>
       </c>
       <c r="EG2" s="2">
-        <v>-3.38599219689962</v>
+        <v>-0.0274456291375114</v>
       </c>
       <c r="EH2" s="2">
-        <v>-3.40683067361789</v>
+        <v>-0.00382941286676092</v>
       </c>
       <c r="EI2" s="2">
-        <v>-3.40975360644623</v>
+        <v>-0.0284685232595179</v>
       </c>
       <c r="EJ2" s="2">
-        <v>-3.44541128092859</v>
+        <v>-0.018028333079033</v>
       </c>
       <c r="EK2" s="2">
-        <v>-3.45932745535039</v>
+        <v>-0.01542267290946</v>
       </c>
       <c r="EL2" s="2">
-        <v>-3.48914400597543</v>
+        <v>-0.0276690976900477</v>
       </c>
       <c r="EM2" s="2">
-        <v>-3.49423332129449</v>
+        <v>-0.0149833687258152</v>
       </c>
       <c r="EN2" s="2">
-        <v>-3.54706570214201</v>
+        <v>-0.0172824111476603</v>
       </c>
       <c r="EO2" s="2">
-        <v>-3.56476777990136</v>
+        <v>-0.015628641084145</v>
       </c>
       <c r="EP2" s="2">
-        <v>-3.58214599107805</v>
+        <v>-0.0229190424720452</v>
       </c>
       <c r="EQ2" s="2">
-        <v>-3.63490064637417</v>
+        <v>-0.0196514507918115</v>
       </c>
       <c r="ER2" s="2">
-        <v>-3.65466579387487</v>
+        <v>-0.0300550483638891</v>
       </c>
       <c r="ES2" s="2">
-        <v>-3.6763698968633</v>
+        <v>-0.0163455334678964</v>
       </c>
       <c r="ET2" s="2">
-        <v>-3.72474335409492</v>
+        <v>-0.0189504991596803</v>
       </c>
       <c r="EU2" s="2">
-        <v>-3.74172712426719</v>
+        <v>-0.00847910720001316</v>
       </c>
       <c r="EV2" s="2">
-        <v>-3.78363555419827</v>
+        <v>-0.0314890994583108</v>
       </c>
       <c r="EW2" s="2">
-        <v>-3.79760122079899</v>
+        <v>-0.0357700187053953</v>
       </c>
       <c r="EX2" s="2">
-        <v>-3.82308292852139</v>
+        <v>-0.0233440670001389</v>
       </c>
       <c r="EY2" s="2">
-        <v>-3.84918737802146</v>
+        <v>-0.0183322355460468</v>
       </c>
       <c r="EZ2" s="2">
-        <v>-3.88298378930688</v>
+        <v>-0.0222284664225852</v>
       </c>
       <c r="FA2" s="2">
-        <v>-3.8992990192548</v>
+        <v>-0.0183061948761289</v>
       </c>
       <c r="FB2" s="2">
-        <v>-3.93282070006566</v>
+        <v>-0.00414553274239513</v>
       </c>
       <c r="FC2" s="2">
-        <v>-3.94819118303531</v>
+        <v>-0.0322666753099132</v>
       </c>
       <c r="FD2" s="2">
-        <v>-3.95810662675635</v>
+        <v>-0.0160804293347521</v>
       </c>
       <c r="FE2" s="2">
-        <v>-3.98648907440442</v>
+        <v>-0.0233259184036001</v>
       </c>
       <c r="FF2" s="2">
-        <v>-4.01561683865079</v>
+        <v>-0.02286528702231</v>
       </c>
       <c r="FG2" s="2">
-        <v>-4.01011891568193</v>
+        <v>-0.008144616033690081</v>
       </c>
       <c r="FH2" s="2">
-        <v>-4.03447002676928</v>
+        <v>-0.0254626596890111</v>
       </c>
       <c r="FI2" s="2">
-        <v>-4.07591891525681</v>
+        <v>-0.0150212444320064</v>
       </c>
       <c r="FJ2" s="2">
-        <v>-4.08185095711853</v>
+        <v>-0.022615867211444</v>
       </c>
       <c r="FK2" s="2">
-        <v>-4.06389434558278</v>
+        <v>-0.0178468068755458</v>
       </c>
       <c r="FL2" s="2">
-        <v>-4.07340020103666</v>
+        <v>-0.0386586388095843</v>
       </c>
       <c r="FM2" s="2">
-        <v>-4.08506736863561</v>
+        <v>-0.00484128051406909</v>
       </c>
       <c r="FN2" s="2">
-        <v>-4.07479608295828</v>
+        <v>-0.00621428648541441</v>
       </c>
       <c r="FO2" s="2">
-        <v>-4.11524682311235</v>
+        <v>-0.0224418381520109</v>
       </c>
       <c r="FP2" s="2">
-        <v>-4.09033989427166</v>
+        <v>-0.00251321247424789</v>
       </c>
       <c r="FQ2" s="2">
-        <v>-4.10729348319362</v>
+        <v>-0.0134754314424004</v>
       </c>
       <c r="FR2" s="2">
-        <v>-4.09867325133978</v>
+        <v>-0.0165863856950624</v>
       </c>
       <c r="FS2" s="2">
-        <v>-4.10730331169578</v>
+        <v>-0.0137653220174773</v>
       </c>
       <c r="FT2" s="2">
-        <v>-4.11974382882345</v>
+        <v>-0.0141252528296883</v>
       </c>
       <c r="FU2" s="2">
-        <v>-4.12239872380083</v>
+        <v>-0.009783509862736239</v>
       </c>
       <c r="FV2" s="2">
-        <v>-4.12158419368111</v>
+        <v>-0.0230836005523823</v>
       </c>
       <c r="FW2" s="2">
-        <v>-4.11894631184595</v>
+        <v>-0.00211491120011316</v>
       </c>
       <c r="FX2" s="2">
-        <v>-4.11774703460563</v>
+        <v>-0.0217731056908142</v>
       </c>
       <c r="FY2" s="2">
-        <v>-4.10908199126471</v>
+        <v>-0.0181566048627956</v>
       </c>
       <c r="FZ2" s="2">
-        <v>-4.1438657380867</v>
+        <v>-0.0121366683727186</v>
       </c>
       <c r="GA2" s="2">
-        <v>-4.12258850294525</v>
+        <v>-0.00203473840002453</v>
       </c>
       <c r="GB2" s="2">
-        <v>-4.13478570734529</v>
+        <v>-0.0203726710562041</v>
       </c>
       <c r="GC2" s="2">
-        <v>-4.11975006624537</v>
+        <v>-0.0170235205497551</v>
       </c>
       <c r="GD2" s="2">
-        <v>-4.12357094419963</v>
+        <v>-0.020666602847701</v>
       </c>
       <c r="GE2" s="2">
-        <v>-4.10086898636101</v>
+        <v>-0.0329625154297295</v>
       </c>
       <c r="GF2" s="2">
-        <v>-4.05583671147751</v>
+        <v>-0.0260066954197645</v>
       </c>
       <c r="GG2" s="2">
-        <v>-4.11179905946464</v>
+        <v>-0.0172940961038321</v>
       </c>
       <c r="GH2" s="2">
-        <v>-4.10620966861246</v>
+        <v>-0.00482390988597366</v>
       </c>
       <c r="GI2" s="2">
-        <v>-4.10942079348872</v>
+        <v>-0.00766620742099837</v>
       </c>
       <c r="GJ2" s="2">
-        <v>-4.07704762208289</v>
+        <v>-0.0192091564640218</v>
       </c>
       <c r="GK2" s="2">
-        <v>-4.07325861718159</v>
+        <v>-0.0180415109796918</v>
       </c>
       <c r="GL2" s="2">
-        <v>-4.05800035602908</v>
+        <v>-0.0160247072968513</v>
       </c>
       <c r="GM2" s="2">
-        <v>-4.08952747082226</v>
+        <v>-0.00540801823933854</v>
       </c>
       <c r="GN2" s="2">
-        <v>-4.08310683868845</v>
+        <v>-0.0145432134708257</v>
       </c>
       <c r="GO2" s="2">
-        <v>-4.05789505852455</v>
+        <v>-0.0196927974447054</v>
       </c>
       <c r="GP2" s="2">
-        <v>-4.0565430024511</v>
+        <v>-0.0169054257874288</v>
       </c>
       <c r="GQ2" s="2">
-        <v>-4.05002900263826</v>
+        <v>-0.0182754999573743</v>
       </c>
       <c r="GR2" s="2">
-        <v>-4.03605790488638</v>
+        <v>-0.0134706785786892</v>
       </c>
       <c r="GS2" s="2">
-        <v>-4.0387801160344</v>
+        <v>-0.0124315642371356</v>
       </c>
       <c r="GT2" s="2">
-        <v>-4.03835204818114</v>
+        <v>-0.0199355164071511</v>
       </c>
       <c r="GU2" s="2">
-        <v>-4.01435939505339</v>
+        <v>-0.0185589809877613</v>
       </c>
       <c r="GV2" s="2">
-        <v>-3.99804561201625</v>
+        <v>-0.0151902705111783</v>
       </c>
       <c r="GW2" s="2">
-        <v>-3.98354070088779</v>
+        <v>-0.0218100500486264</v>
       </c>
       <c r="GX2" s="2">
-        <v>-3.98320383301605</v>
+        <v>-0.0193665095502374</v>
       </c>
       <c r="GY2" s="2">
-        <v>-3.97579835176997</v>
+        <v>-0.0298988661211304</v>
       </c>
       <c r="GZ2" s="2">
-        <v>-3.97634438071325</v>
+        <v>-0.0176455675274342</v>
       </c>
       <c r="HA2" s="2">
-        <v>-3.96711493902096</v>
+        <v>-0.0122338287603552</v>
       </c>
       <c r="HB2" s="2">
-        <v>-3.94876639140076</v>
+        <v>-0.0234614807772242</v>
       </c>
       <c r="HC2" s="2">
-        <v>-3.93578131460826</v>
+        <v>-0.0167474426450505</v>
       </c>
       <c r="HD2" s="2">
-        <v>-3.91754696234436</v>
+        <v>-0.0216747731046453</v>
       </c>
       <c r="HE2" s="2">
-        <v>-3.91082780808057</v>
+        <v>-0.0170112570164403</v>
       </c>
       <c r="HF2" s="2">
-        <v>-3.91587718721068</v>
+        <v>-0.0192627805741603</v>
       </c>
       <c r="HG2" s="2">
-        <v>-3.90452270521642</v>
+        <v>-0.0173030041360077</v>
       </c>
       <c r="HH2" s="2">
-        <v>-3.89616111757188</v>
+        <v>-0.00167846038760172</v>
       </c>
       <c r="HI2" s="2">
-        <v>-3.86810013269003</v>
+        <v>-0.0169852927813902</v>
       </c>
       <c r="HJ2" s="2">
-        <v>-3.87160898626338</v>
+        <v>-0.0119233935218725</v>
       </c>
       <c r="HK2" s="2">
-        <v>-3.85790562675328</v>
+        <v>-0.0141603705156717</v>
       </c>
       <c r="HL2" s="2">
-        <v>-3.82794502145904</v>
+        <v>-0.0227994696398555</v>
       </c>
       <c r="HM2" s="2">
-        <v>-3.83000176758535</v>
+        <v>-0.0216815933670238</v>
       </c>
       <c r="HN2" s="2">
-        <v>-3.82991501348208</v>
+        <v>-0.00896450381439769</v>
       </c>
       <c r="HO2" s="2">
-        <v>-3.80551836416604</v>
+        <v>-0.0247296311799872</v>
       </c>
       <c r="HP2" s="2">
-        <v>-3.78679289649325</v>
+        <v>-0.0194532402222703</v>
       </c>
       <c r="HQ2" s="2">
-        <v>-3.7920523433265</v>
+        <v>-8.74339016046931E-05</v>
       </c>
       <c r="HR2" s="2">
-        <v>-3.76907797988794</v>
+        <v>-0.0162439115401136</v>
       </c>
       <c r="HS2" s="2">
-        <v>-3.75034082589905</v>
+        <v>-0.00983215045780516</v>
       </c>
       <c r="HT2" s="2">
-        <v>-3.77453645539451</v>
+        <v>-0.00137550228394061</v>
       </c>
       <c r="HU2" s="2">
-        <v>-3.73109923256663</v>
+        <v>-0.008433259338444221</v>
       </c>
       <c r="HV2" s="2">
-        <v>-3.72122754154883</v>
+        <v>-0.0146793540804719</v>
       </c>
       <c r="HW2" s="2">
-        <v>-3.72900826762731</v>
+        <v>-0.0109936066528286</v>
       </c>
       <c r="HX2" s="2">
-        <v>-3.72300942271322</v>
+        <v>-0.0192992554400197</v>
       </c>
       <c r="HY2" s="2">
-        <v>-3.68167365588745</v>
+        <v>-0.0248407303789897</v>
       </c>
       <c r="HZ2" s="2">
-        <v>-3.67097491868322</v>
+        <v>-0.0247307466725537</v>
       </c>
       <c r="IA2" s="2">
-        <v>-3.69645236666427</v>
+        <v>-0.0224314049566411</v>
       </c>
       <c r="IB2" s="2">
-        <v>-3.65336808682728</v>
+        <v>-0.00414979530829758</v>
       </c>
       <c r="IC2" s="2">
-        <v>-3.65606697457588</v>
+        <v>-0.007855998371190821</v>
       </c>
       <c r="ID2" s="2">
-        <v>-3.63020801358217</v>
+        <v>-0.0163515768084267</v>
       </c>
       <c r="IE2" s="2">
-        <v>-3.62470742424026</v>
+        <v>-0.008226862986972431</v>
       </c>
       <c r="IF2" s="2">
-        <v>-3.60495440197462</v>
+        <v>-0.0116289039693842</v>
       </c>
       <c r="IG2" s="2">
-        <v>-3.59829679585316</v>
+        <v>-0.0116800319106823</v>
       </c>
       <c r="IH2" s="2">
-        <v>-3.6010782052721</v>
+        <v>-0.0217178520151485</v>
       </c>
       <c r="II2" s="2">
-        <v>-3.6003935890125</v>
+        <v>-0.0239029024917807</v>
       </c>
       <c r="IJ2" s="2">
-        <v>-3.58816017440336</v>
+        <v>-0.0297752707012543</v>
       </c>
       <c r="IK2" s="2">
-        <v>-3.56595302920406</v>
+        <v>-0.0174162548940142</v>
       </c>
       <c r="IL2" s="2">
-        <v>-3.5589308154449</v>
+        <v>-0.0228627681165505</v>
       </c>
       <c r="IM2" s="2">
-        <v>-3.55922618744872</v>
+        <v>-0.021980598579717</v>
       </c>
       <c r="IN2" s="2">
-        <v>-3.52571373365937</v>
+        <v>-0.0040841570947023</v>
       </c>
       <c r="IO2" s="2">
-        <v>-3.53990506778073</v>
+        <v>-0.012848057585746</v>
       </c>
       <c r="IP2" s="2">
-        <v>-3.53021946526233</v>
+        <v>-0.0108345786789597</v>
       </c>
       <c r="IQ2" s="2">
-        <v>-3.53093091239585</v>
+        <v>-0.0140966128852219</v>
       </c>
       <c r="IR2" s="2">
-        <v>-3.51773067632134</v>
+        <v>-0.0190476281180119</v>
       </c>
       <c r="IS2" s="2">
-        <v>-3.50635921822266</v>
+        <v>-0.0227848803282036</v>
       </c>
       <c r="IT2" s="2">
-        <v>-3.53471828700283</v>
+        <v>-0.0205886517314814</v>
       </c>
       <c r="IU2" s="2">
-        <v>-3.48665264216612</v>
+        <v>-0.0276118007642302</v>
       </c>
       <c r="IV2" s="2">
-        <v>-3.51366778707897</v>
+        <v>-0.0268005761664277</v>
       </c>
       <c r="IW2" s="2">
-        <v>-3.46497581905351</v>
+        <v>-0.021299189266923</v>
       </c>
       <c r="IX2" s="2">
-        <v>-3.49744616681273</v>
+        <v>-0.009792107765022019</v>
       </c>
       <c r="IY2" s="2">
-        <v>-3.47651062984482</v>
+        <v>-0.0187491264222195</v>
       </c>
       <c r="IZ2" s="2">
-        <v>-3.49807291959104</v>
+        <v>-0.0257349149850443</v>
       </c>
       <c r="JA2" s="2">
-        <v>-3.49847535652505</v>
+        <v>-0.0167045969039754</v>
       </c>
       <c r="JB2" s="2">
-        <v>-3.4727875683761</v>
+        <v>-0.029125249129338</v>
       </c>
       <c r="JC2" s="2">
-        <v>-3.49371900213209</v>
+        <v>-0.00551285987341096</v>
       </c>
       <c r="JD2" s="2">
-        <v>-3.49239481873341</v>
+        <v>-0.0191102099839393</v>
       </c>
       <c r="JE2" s="2">
-        <v>-3.4646659930607</v>
+        <v>-0.0119285222606381</v>
       </c>
       <c r="JF2" s="2">
-        <v>-3.47178195253948</v>
+        <v>-0.0141673543811412</v>
       </c>
       <c r="JG2" s="2">
-        <v>-3.45441500236221</v>
+        <v>-0.00380713310136032</v>
       </c>
       <c r="JH2" s="2">
-        <v>-3.48170452844339</v>
+        <v>-0.0133892922606351</v>
       </c>
       <c r="JI2" s="2">
-        <v>-3.45761405567323</v>
+        <v>-0.0220602594370684</v>
       </c>
       <c r="JJ2" s="2">
-        <v>-3.48657168957593</v>
+        <v>-0.0190937661059439</v>
       </c>
       <c r="JK2" s="2">
-        <v>-3.48194706327663</v>
+        <v>-0.0188433514563361</v>
       </c>
       <c r="JL2" s="2">
-        <v>-3.46012642532787</v>
+        <v>-0.0300859964644609</v>
       </c>
       <c r="JM2" s="2">
-        <v>-3.48504274348605</v>
+        <v>-0.0102406417342722</v>
       </c>
       <c r="JN2" s="2">
-        <v>-3.48101225667421</v>
+        <v>-0.0207100848708013</v>
       </c>
       <c r="JO2" s="2">
-        <v>-3.48167190382851</v>
+        <v>-0.0382539649241488</v>
       </c>
       <c r="JP2" s="2">
-        <v>-3.48862472431289</v>
+        <v>-0.0136555541806866</v>
       </c>
       <c r="JQ2" s="2">
-        <v>-3.48865373562975</v>
+        <v>-0.0210705362831613</v>
       </c>
       <c r="JR2" s="2">
-        <v>-3.51392389662613</v>
+        <v>-0.012997717791707</v>
       </c>
       <c r="JS2" s="2">
-        <v>-3.5168398117299</v>
+        <v>0.0033986207320273</v>
       </c>
       <c r="JT2" s="2">
-        <v>-3.47724052823396</v>
+        <v>-0.0198050912481003</v>
       </c>
       <c r="JU2" s="2">
-        <v>-3.5153876212637</v>
+        <v>-0.0246726886822245</v>
       </c>
       <c r="JV2" s="2">
-        <v>-3.48706476539511</v>
+        <v>-0.00940726572364888</v>
       </c>
       <c r="JW2" s="2">
-        <v>-3.5164080022728</v>
+        <v>-0.0110246371026213</v>
       </c>
       <c r="JX2" s="2">
-        <v>-3.50015910750312</v>
+        <v>-0.024627264249911</v>
       </c>
       <c r="JY2" s="2">
-        <v>-3.49946325963882</v>
+        <v>-0.00845529697535626</v>
       </c>
       <c r="JZ2" s="2">
-        <v>-3.53374524355689</v>
+        <v>-0.00664512560044549</v>
       </c>
       <c r="KA2" s="2">
-        <v>-3.54365111041027</v>
+        <v>-0.011299707486524</v>
       </c>
       <c r="KB2" s="2">
-        <v>-3.513138938612</v>
+        <v>-0.0219537933436158</v>
       </c>
       <c r="KC2" s="2">
-        <v>-3.54118848034579</v>
+        <v>-0.010160787730987</v>
       </c>
       <c r="KD2" s="2">
-        <v>-3.53129470063489</v>
+        <v>-0.0228108623521804</v>
       </c>
       <c r="KE2" s="2">
-        <v>-3.54506873153072</v>
+        <v>-0.0114702658022399</v>
       </c>
       <c r="KF2" s="2">
-        <v>-3.54657258220853</v>
+        <v>-0.009154399979674261</v>
       </c>
       <c r="KG2" s="2">
-        <v>-3.53725925764822</v>
+        <v>-0.0154134546788257</v>
       </c>
       <c r="KH2" s="2">
-        <v>-3.54712486103946</v>
+        <v>-0.008480361149173511</v>
       </c>
       <c r="KI2" s="2">
-        <v>-3.55261810356351</v>
+        <v>-0.017775934599499</v>
       </c>
       <c r="KJ2" s="2">
-        <v>-3.56756105172352</v>
+        <v>-0.0217926735072611</v>
       </c>
       <c r="KK2" s="2">
-        <v>-3.55033346056956</v>
+        <v>-0.0206822222361115</v>
       </c>
       <c r="KL2" s="2">
-        <v>-3.57169950304658</v>
+        <v>-0.0145098739961246</v>
       </c>
       <c r="KM2" s="2">
-        <v>-3.57410554703274</v>
+        <v>-0.0229123020623305</v>
       </c>
       <c r="KN2" s="2">
-        <v>-3.56858451046561</v>
+        <v>-0.00157945244121067</v>
       </c>
       <c r="KO2" s="2">
-        <v>-3.55990242816023</v>
+        <v>0.00282522039470641</v>
       </c>
       <c r="KP2" s="2">
-        <v>-3.58128854505965</v>
+        <v>-0.00509214851344964</v>
       </c>
       <c r="KQ2" s="2">
-        <v>-3.5637062671034</v>
+        <v>-0.0271412998576592</v>
       </c>
       <c r="KR2" s="2">
-        <v>-3.57048427384965</v>
+        <v>-0.00255246516389986</v>
       </c>
       <c r="KS2" s="2">
-        <v>-3.60207617478036</v>
+        <v>-0.0158036492262632</v>
       </c>
       <c r="KT2" s="2">
-        <v>-3.57633253753655</v>
+        <v>-0.0132870377514149</v>
       </c>
       <c r="KU2" s="2">
-        <v>-3.58900436777283</v>
+        <v>-0.0191511291419303</v>
       </c>
       <c r="KV2" s="2">
-        <v>-3.56782014938595</v>
+        <v>-0.0229323709321146</v>
       </c>
       <c r="KW2" s="2">
-        <v>-3.57055676796829</v>
+        <v>-0.0224066647620214</v>
       </c>
       <c r="KX2" s="2">
-        <v>-3.56689724385253</v>
+        <v>-0.0234120368953972</v>
       </c>
       <c r="KY2" s="2">
-        <v>-3.60058597449083</v>
+        <v>-0.00616797154511617</v>
       </c>
       <c r="KZ2" s="2">
-        <v>-3.6006775398134</v>
+        <v>-0.025822666057745</v>
       </c>
       <c r="LA2" s="2">
-        <v>-3.59488532490819</v>
+        <v>-0.0201658383149424</v>
       </c>
       <c r="LB2" s="2">
-        <v>-3.6023918588398</v>
+        <v>-0.0141288271282165</v>
       </c>
       <c r="LC2" s="2">
-        <v>-3.58700296179096</v>
+        <v>-0.00345768366753324</v>
       </c>
       <c r="LD2" s="2">
-        <v>-3.59597510511841</v>
+        <v>-0.0141440689225994</v>
       </c>
       <c r="LE2" s="2">
-        <v>-3.60863591445553</v>
+        <v>-0.0194844017498145</v>
       </c>
       <c r="LF2" s="2">
-        <v>-3.62249611367904</v>
+        <v>-0.0173988038439142</v>
       </c>
       <c r="LG2" s="2">
-        <v>-3.60746859665188</v>
+        <v>-0.0155569917769736</v>
       </c>
       <c r="LH2" s="2">
-        <v>-3.61227873117116</v>
+        <v>-0.00607226998275706</v>
       </c>
       <c r="LI2" s="2">
-        <v>-3.6029467035913</v>
+        <v>-0.0192444653566427</v>
       </c>
       <c r="LJ2" s="2">
-        <v>-3.60915488635089</v>
+        <v>-0.0274397449975621</v>
       </c>
       <c r="LK2" s="2">
-        <v>-3.63238784031077</v>
+        <v>-0.0237469840613909</v>
       </c>
       <c r="LL2" s="2">
-        <v>-3.62947305435926</v>
+        <v>-0.0061549087957803</v>
       </c>
       <c r="LM2" s="2">
-        <v>-3.64377976894142</v>
+        <v>-0.00938567214239973</v>
       </c>
       <c r="LN2" s="2">
-        <v>-3.60993428117109</v>
+        <v>-0.0242659495561102</v>
       </c>
       <c r="LO2" s="2">
-        <v>-3.62767637166843</v>
+        <v>-0.0172832752757185</v>
       </c>
       <c r="LP2" s="2">
-        <v>-3.64524689385713</v>
+        <v>-0.00940125109713278</v>
       </c>
       <c r="LQ2" s="2">
-        <v>-3.61829198302847</v>
+        <v>-0.0158392685361922</v>
       </c>
       <c r="LR2" s="2">
-        <v>-3.64745104664989</v>
+        <v>-0.0248226254804773</v>
       </c>
       <c r="LS2" s="2">
-        <v>-3.66987256715094</v>
+        <v>-0.0180004112110906</v>
       </c>
       <c r="LT2" s="2">
-        <v>-3.66253278916689</v>
+        <v>-0.0167897751655874</v>
       </c>
       <c r="LU2" s="2">
-        <v>-3.69359476641172</v>
+        <v>-0.0253532897365921</v>
       </c>
       <c r="LV2" s="2">
-        <v>-3.67809450242231</v>
+        <v>-0.00997184734717093</v>
       </c>
       <c r="LW2" s="2">
-        <v>-3.67048502696568</v>
+        <v>-0.0241313468804073</v>
       </c>
       <c r="LX2" s="2">
-        <v>-3.68903205099824</v>
+        <v>-0.0134721507324695</v>
       </c>
       <c r="LY2" s="2">
-        <v>-3.68516600628027</v>
+        <v>-0.0145433817207549</v>
       </c>
       <c r="LZ2" s="2">
-        <v>-3.69990315482735</v>
+        <v>-0.0256444067213748</v>
       </c>
       <c r="MA2" s="2">
-        <v>-3.69732073656133</v>
+        <v>-0.0188130776557246</v>
       </c>
       <c r="MB2" s="2">
-        <v>-3.71009469738738</v>
+        <v>-0.0190368101563653</v>
       </c>
       <c r="MC2" s="2">
-        <v>-3.68372702065764</v>
+        <v>-0.00560653246194525</v>
       </c>
       <c r="MD2" s="2">
-        <v>-3.68680860132306</v>
+        <v>-0.014691842531542</v>
       </c>
       <c r="ME2" s="2">
-        <v>-3.69529835128634</v>
+        <v>-0.018931901503623</v>
       </c>
       <c r="MF2" s="2">
-        <v>-3.68190206336497</v>
+        <v>-0.00741257749196377</v>
       </c>
       <c r="MG2" s="2">
-        <v>-3.70755043328576</v>
+        <v>-0.0190767235002448</v>
       </c>
       <c r="MH2" s="2">
-        <v>-3.69829256619189</v>
+        <v>-0.0237899951466789</v>
       </c>
       <c r="MI2" s="2">
-        <v>-3.69740134166455</v>
+        <v>-0.0127171018008114</v>
       </c>
       <c r="MJ2" s="2">
-        <v>-3.70758194186131</v>
+        <v>-0.00745063399287935</v>
       </c>
       <c r="MK2" s="2">
-        <v>-3.70809532683873</v>
+        <v>-0.0106031485313883</v>
       </c>
       <c r="ML2" s="2">
-        <v>-3.70708668659658</v>
+        <v>-0.0149526002328714</v>
       </c>
       <c r="MM2" s="2">
-        <v>-3.7144082849232</v>
+        <v>-0.0130542568578268</v>
       </c>
       <c r="MN2" s="2">
-        <v>-3.71113266604564</v>
+        <v>-0.0189991588509071</v>
       </c>
       <c r="MO2" s="2">
-        <v>-3.72140228425932</v>
+        <v>-0.00467042015062662</v>
       </c>
       <c r="MP2" s="2">
-        <v>-3.72191317517031</v>
+        <v>-0.0182169731377758</v>
       </c>
       <c r="MQ2" s="2">
-        <v>-3.71041618048651</v>
+        <v>-0.0103649943763287</v>
       </c>
       <c r="MR2" s="2">
-        <v>-3.74222537127635</v>
+        <v>-0.0328722011484681</v>
       </c>
       <c r="MS2" s="2">
-        <v>-3.70919363986671</v>
+        <v>-0.00574773163669274</v>
       </c>
       <c r="MT2" s="2">
-        <v>-3.71606946901828</v>
+        <v>-0.0115718329599974</v>
       </c>
       <c r="MU2" s="2">
-        <v>-3.70356492597889</v>
+        <v>-0.0182210164630261</v>
       </c>
       <c r="MV2" s="2">
-        <v>-3.68611828952964</v>
+        <v>-0.0104093612727423</v>
       </c>
       <c r="MW2" s="2">
-        <v>-3.72871662226436</v>
+        <v>-0.00890608133110719</v>
       </c>
       <c r="MX2" s="2">
-        <v>-3.73498530952767</v>
+        <v>-0.0125523343715125</v>
       </c>
       <c r="MY2" s="2">
-        <v>-3.70194157870375</v>
+        <v>-0.0124661399454091</v>
       </c>
       <c r="MZ2" s="2">
-        <v>-3.71414095393285</v>
+        <v>-0.0275866166920281</v>
       </c>
       <c r="NA2" s="2">
-        <v>-3.69722850242954</v>
+        <v>-0.00289540700447785</v>
       </c>
       <c r="NB2" s="2">
-        <v>-3.69735446313854</v>
+        <v>-0.0220260960861134</v>
       </c>
       <c r="NC2" s="2">
-        <v>-3.70460080264779</v>
+        <v>-0.0160620418968315</v>
       </c>
       <c r="ND2" s="2">
-        <v>-3.71214452870643</v>
+        <v>-0.0190804666216496</v>
       </c>
       <c r="NE2" s="2">
-        <v>-3.69705276604453</v>
+        <v>-0.0247693998992005</v>
       </c>
       <c r="NF2" s="2">
-        <v>-3.69152397566971</v>
+        <v>-0.0142949449649729</v>
       </c>
       <c r="NG2" s="2">
-        <v>-3.68398700149865</v>
+        <v>-0.020215783378836</v>
       </c>
       <c r="NH2" s="2">
-        <v>-3.70420113186042</v>
+        <v>-0.00713601426535183</v>
       </c>
       <c r="NI2" s="2">
-        <v>-3.67878486269128</v>
+        <v>-0.0143025395794295</v>
       </c>
       <c r="NJ2" s="2">
-        <v>-3.66832914886289</v>
+        <v>-0.0188937611630036</v>
       </c>
       <c r="NK2" s="2">
-        <v>-3.68648065018556</v>
+        <v>-0.0203227943066626</v>
       </c>
       <c r="NL2" s="2">
-        <v>-3.65812257107393</v>
+        <v>-0.0145282567374663</v>
       </c>
       <c r="NM2" s="2">
-        <v>-3.63853174708221</v>
+        <v>-0.0167771659999573</v>
       </c>
       <c r="NN2" s="2">
-        <v>-3.63403167766546</v>
+        <v>-0.0108615609770294</v>
       </c>
       <c r="NO2" s="2">
-        <v>-3.64655456073598</v>
+        <v>-0.0193123430129853</v>
       </c>
       <c r="NP2" s="2">
-        <v>-3.63699738978609</v>
+        <v>-0.0168206137502898</v>
       </c>
       <c r="NQ2" s="2">
-        <v>-3.62025520679573</v>
+        <v>-0.009130001366431689</v>
       </c>
       <c r="NR2" s="2">
-        <v>-3.60976875848687</v>
+        <v>-0.024301749226654</v>
       </c>
       <c r="NS2" s="2">
-        <v>-3.62058875224007</v>
+        <v>-0.0154121777707818</v>
       </c>
       <c r="NT2" s="2">
-        <v>-3.59496961435495</v>
+        <v>-0.0188719203325436</v>
       </c>
       <c r="NU2" s="2">
-        <v>-3.58408614279372</v>
+        <v>-0.00150370070931728</v>
       </c>
       <c r="NV2" s="2">
-        <v>-3.57355681247787</v>
+        <v>-0.0202631329756377</v>
       </c>
       <c r="NW2" s="2">
-        <v>-3.59639448962129</v>
+        <v>-0.0160711080576284</v>
       </c>
       <c r="NX2" s="2">
-        <v>-3.58151169521867</v>
+        <v>-0.011889968649437</v>
       </c>
       <c r="NY2" s="2">
-        <v>-3.57283520842206</v>
+        <v>-0.0216468337969587</v>
       </c>
       <c r="NZ2" s="2">
-        <v>-3.55822692060146</v>
+        <v>-0.0100467302164746</v>
       </c>
       <c r="OA2" s="2">
-        <v>-3.5485304439124</v>
+        <v>-0.0137019779021487</v>
       </c>
       <c r="OB2" s="2">
-        <v>-3.54652380871279</v>
+        <v>-0.0120070014016364</v>
       </c>
       <c r="OC2" s="2">
-        <v>-3.55825245151698</v>
+        <v>-0.0202069462888862</v>
       </c>
       <c r="OD2" s="2">
-        <v>-3.52255364770748</v>
+        <v>-0.0138055878593326</v>
       </c>
       <c r="OE2" s="2">
-        <v>-3.5417530882281</v>
+        <v>-0.0242833075255137</v>
       </c>
       <c r="OF2" s="2">
-        <v>-3.53202895012764</v>
+        <v>-0.00541012118427116</v>
       </c>
       <c r="OG2" s="2">
-        <v>-3.50709529092315</v>
+        <v>-0.0162137449853865</v>
       </c>
       <c r="OH2" s="2">
-        <v>-3.5050797186969</v>
+        <v>-0.0117499282113926</v>
       </c>
       <c r="OI2" s="2">
-        <v>-3.50065015139682</v>
+        <v>-0.00775920014403298</v>
       </c>
       <c r="OJ2" s="2">
-        <v>-3.49551993194633</v>
+        <v>-0.0157156514293092</v>
       </c>
       <c r="OK2" s="2">
-        <v>-3.49289333549926</v>
+        <v>-0.0126192940700247</v>
       </c>
       <c r="OL2" s="2">
-        <v>-3.48637595851246</v>
+        <v>-0.0292713461059376</v>
       </c>
       <c r="OM2" s="2">
-        <v>-3.47510270039185</v>
+        <v>-0.00155606300763361</v>
       </c>
       <c r="ON2" s="2">
-        <v>-3.45892609739275</v>
+        <v>-0.01069691061846</v>
       </c>
       <c r="OO2" s="2">
-        <v>-3.43243304082348</v>
+        <v>-0.0106246671385672</v>
       </c>
       <c r="OP2" s="2">
-        <v>-3.4624755667141</v>
+        <v>0.00483322665809987</v>
       </c>
       <c r="OQ2" s="2">
-        <v>-3.46564419793183</v>
+        <v>-0.0225573507083357</v>
       </c>
       <c r="OR2" s="2">
-        <v>-3.43613582051014</v>
+        <v>-0.0157827610349783</v>
       </c>
       <c r="OS2" s="2">
-        <v>-3.44073786994956</v>
+        <v>-0.0196536637361096</v>
       </c>
       <c r="OT2" s="2">
-        <v>-3.46946814760959</v>
+        <v>-0.0106629605610335</v>
       </c>
       <c r="OU2" s="2">
-        <v>-3.42512229887242</v>
+        <v>-0.00735764616935058</v>
       </c>
       <c r="OV2" s="2">
-        <v>-3.41623574292385</v>
+        <v>-0.00215742400871477</v>
       </c>
       <c r="OW2" s="2">
-        <v>-3.39435655491607</v>
+        <v>-0.0180281848646294</v>
       </c>
       <c r="OX2" s="2">
-        <v>-3.42426509809312</v>
+        <v>-0.0137042670595028</v>
       </c>
       <c r="OY2" s="2">
-        <v>-3.38928567508031</v>
+        <v>-0.0155622563688825</v>
       </c>
       <c r="OZ2" s="2">
-        <v>-3.39393397711171</v>
+        <v>-0.017345836513327</v>
       </c>
       <c r="PA2" s="2">
-        <v>-3.37256449024665</v>
+        <v>-0.0107786327124435</v>
       </c>
       <c r="PB2" s="2">
-        <v>-3.39008561997029</v>
+        <v>-0.0207504609289861</v>
       </c>
       <c r="PC2" s="2">
-        <v>-3.38770319308004</v>
+        <v>-0.0183599014185005</v>
       </c>
       <c r="PD2" s="2">
-        <v>-3.37818266600427</v>
+        <v>-0.0287682490056494</v>
       </c>
       <c r="PE2" s="2">
-        <v>-3.34970375872749</v>
+        <v>0.00825677290634046</v>
       </c>
       <c r="PF2" s="2">
-        <v>-3.35167747440401</v>
+        <v>-0.0101692744036</v>
       </c>
       <c r="PG2" s="2">
-        <v>-3.35486760871202</v>
+        <v>-0.0112165074287953</v>
       </c>
       <c r="PH2" s="2">
-        <v>-3.35517413105295</v>
+        <v>-0.0161892346459389</v>
       </c>
       <c r="PI2" s="2">
-        <v>-3.31907696281225</v>
+        <v>-0.0165601122914396</v>
       </c>
       <c r="PJ2" s="2">
-        <v>-3.31686325429381</v>
+        <v>-0.00768210160985871</v>
       </c>
       <c r="PK2" s="2">
-        <v>-3.31477138060713</v>
+        <v>-0.0144410046234515</v>
       </c>
       <c r="PL2" s="2">
-        <v>-3.32136989360078</v>
+        <v>-0.0088980064500996</v>
       </c>
       <c r="PM2" s="2">
-        <v>-3.3191600577476</v>
+        <v>-0.00378387006132622</v>
       </c>
       <c r="PN2" s="2">
-        <v>-3.30847776415605</v>
+        <v>-0.0134583983807795</v>
       </c>
       <c r="PO2" s="2">
-        <v>-3.30919217190151</v>
+        <v>-0.00680529091068957</v>
       </c>
       <c r="PP2" s="2">
-        <v>-3.32011313146543</v>
+        <v>-0.0155046450003241</v>
       </c>
       <c r="PQ2" s="2">
-        <v>-3.31284871935021</v>
+        <v>-0.00561007044833594</v>
       </c>
       <c r="PR2" s="2">
-        <v>-3.29758607048077</v>
+        <v>-0.0161005616356178</v>
       </c>
       <c r="PS2" s="2">
-        <v>-3.27199337760544</v>
+        <v>-0.0225046805567786</v>
       </c>
       <c r="PT2" s="2">
-        <v>-3.29007624297993</v>
+        <v>-0.0132177857462536</v>
       </c>
       <c r="PU2" s="2">
-        <v>-3.28534534573602</v>
+        <v>-0.00432360269208035</v>
       </c>
       <c r="PV2" s="2">
-        <v>-3.27536639291175</v>
+        <v>-0.00508990348684305</v>
       </c>
       <c r="PW2" s="2">
-        <v>-3.28486907162137</v>
+        <v>-0.0124293829239845</v>
       </c>
       <c r="PX2" s="2">
-        <v>-3.25738680203712</v>
+        <v>-0.0143782038675224</v>
       </c>
       <c r="PY2" s="2">
-        <v>-3.26180151688837</v>
+        <v>-0.0161230535623959</v>
       </c>
       <c r="PZ2" s="2">
-        <v>-3.25253511337958</v>
+        <v>-0.000376250453545289</v>
       </c>
       <c r="QA2" s="2">
-        <v>-3.26721494320207</v>
+        <v>-0.0100976516537233</v>
       </c>
       <c r="QB2" s="2">
-        <v>-3.24041294644785</v>
+        <v>-0.0118834937291123</v>
       </c>
       <c r="QC2" s="2">
-        <v>-3.24335622770159</v>
+        <v>-0.00472382796365144</v>
       </c>
       <c r="QD2" s="2">
-        <v>-3.25642702853735</v>
+        <v>-0.00133107703749947</v>
       </c>
       <c r="QE2" s="2">
-        <v>-3.24096661406388</v>
+        <v>-0.0154337796271439</v>
       </c>
       <c r="QF2" s="2">
-        <v>-3.21364088005809</v>
+        <v>-0.0214311520801152</v>
       </c>
       <c r="QG2" s="2">
-        <v>-3.24491124953791</v>
+        <v>-0.0238778008116186</v>
       </c>
       <c r="QH2" s="2">
-        <v>-3.22703560082292</v>
+        <v>-0.0141413252844924</v>
       </c>
       <c r="QI2" s="2">
-        <v>-3.24740599983042</v>
+        <v>-0.00768146988547453</v>
       </c>
       <c r="QJ2" s="2">
-        <v>-3.2303795372722</v>
+        <v>-0.0213637218700607</v>
       </c>
       <c r="QK2" s="2">
-        <v>-3.21450023463377</v>
+        <v>-0.011638694213915</v>
       </c>
       <c r="QL2" s="2">
-        <v>-3.25827900945193</v>
+        <v>-0.0208871106496757</v>
       </c>
       <c r="QM2" s="2">
-        <v>-3.24113994445927</v>
+        <v>-0.00676992939797129</v>
       </c>
       <c r="QN2" s="2">
-        <v>-3.23784554807993</v>
+        <v>-0.00724906665310157</v>
       </c>
       <c r="QO2" s="2">
-        <v>-3.24542854205012</v>
+        <v>-0.00668954472724494</v>
       </c>
       <c r="QP2" s="2">
-        <v>-3.24839465197484</v>
+        <v>-0.0150960316409401</v>
       </c>
       <c r="QQ2" s="2">
-        <v>-3.22903754565839</v>
+        <v>0.00166086403498941</v>
       </c>
       <c r="QR2" s="2">
-        <v>-3.23593861364217</v>
+        <v>-0.0169173138046531</v>
       </c>
       <c r="QS2" s="2">
-        <v>-3.24988284367251</v>
+        <v>-0.0207456309316265</v>
       </c>
       <c r="QT2" s="2">
-        <v>-3.25795719765055</v>
+        <v>-0.0269897546350074</v>
       </c>
       <c r="QU2" s="2">
-        <v>-3.24898980391008</v>
+        <v>-0.0182060678912496</v>
       </c>
       <c r="QV2" s="2">
-        <v>-3.27311202382846</v>
+        <v>-0.0243771966339617</v>
       </c>
       <c r="QW2" s="2">
-        <v>-3.24803479021218</v>
+        <v>-0.0145838986571873</v>
       </c>
       <c r="QX2" s="2">
-        <v>-3.27136104257411</v>
+        <v>-0.0193427181773544</v>
       </c>
       <c r="QY2" s="2">
-        <v>-3.26139858112272</v>
+        <v>0.0071354931746808</v>
       </c>
       <c r="QZ2" s="2">
-        <v>-3.26605114179003</v>
+        <v>-0.00124797575053147</v>
       </c>
       <c r="RA2" s="2">
-        <v>-3.25852153877273</v>
+        <v>-0.0142396697522829</v>
       </c>
       <c r="RB2" s="2">
-        <v>-3.27710368802822</v>
+        <v>-0.0109339438525793</v>
       </c>
       <c r="RC2" s="2">
-        <v>-3.28607543312587</v>
+        <v>-0.00649302450684237</v>
       </c>
       <c r="RD2" s="2">
-        <v>-3.3095620890369</v>
+        <v>-0.0101569190900242</v>
       </c>
       <c r="RE2" s="2">
-        <v>-3.30321764912464</v>
+        <v>-0.0260578440796935</v>
       </c>
       <c r="RF2" s="2">
-        <v>-3.3068705224665</v>
+        <v>-0.0111331146152661</v>
       </c>
       <c r="RG2" s="2">
-        <v>-3.30344914364549</v>
+        <v>0.000202333373960528</v>
       </c>
       <c r="RH2" s="2">
-        <v>-3.31303303954572</v>
+        <v>-0.01993109328488</v>
       </c>
       <c r="RI2" s="2">
-        <v>-3.32653465100121</v>
+        <v>-0.0242249389583992</v>
       </c>
       <c r="RJ2" s="2">
-        <v>-3.35323247569281</v>
+        <v>-0.00997914383514539</v>
       </c>
       <c r="RK2" s="2">
-        <v>-3.36008245072261</v>
+        <v>-0.014656007563269</v>
       </c>
       <c r="RL2" s="2">
-        <v>-3.35786491981612</v>
+        <v>-0.0152502148467635</v>
       </c>
       <c r="RM2" s="2">
-        <v>-3.35789505520672</v>
+        <v>-0.0223043649694943</v>
       </c>
       <c r="RN2" s="2">
-        <v>-3.37055806609162</v>
+        <v>-0.0142054083749148</v>
       </c>
       <c r="RO2" s="2">
-        <v>-3.37046537278114</v>
+        <v>-0.0175674371387177</v>
       </c>
       <c r="RP2" s="2">
-        <v>-3.36807687314797</v>
+        <v>-0.00522083280177503</v>
       </c>
       <c r="RQ2" s="2">
-        <v>-3.38686120290413</v>
+        <v>-0.0118221107110856</v>
       </c>
       <c r="RR2" s="2">
-        <v>-3.36888386699015</v>
+        <v>-0.0106245537905155</v>
       </c>
       <c r="RS2" s="2">
-        <v>-3.39813060399868</v>
+        <v>-0.0155670987574291</v>
       </c>
       <c r="RT2" s="2">
-        <v>-3.38194012772121</v>
+        <v>-0.0108258943191752</v>
       </c>
       <c r="RU2" s="2">
-        <v>-3.38895108119721</v>
+        <v>-0.00114667193543327</v>
       </c>
       <c r="RV2" s="2">
-        <v>-3.40613810065902</v>
+        <v>-0.0120771133162688</v>
       </c>
       <c r="RW2" s="2">
-        <v>-3.40893198455161</v>
+        <v>-0.0114567584287224</v>
       </c>
       <c r="RX2" s="2">
-        <v>-3.39857482413804</v>
+        <v>-0.009495150263183641</v>
       </c>
       <c r="RY2" s="2">
-        <v>-3.4291894302799</v>
+        <v>-0.0236596346896999</v>
       </c>
       <c r="RZ2" s="2">
-        <v>-3.40704691577589</v>
+        <v>-0.0203062147104924</v>
       </c>
       <c r="SA2" s="2">
-        <v>-3.39004003189222</v>
+        <v>-0.0117867188569042</v>
       </c>
       <c r="SB2" s="2">
-        <v>-3.3924382898566</v>
+        <v>-0.0106259752104406</v>
       </c>
       <c r="SC2" s="2">
-        <v>-3.38250057288523</v>
+        <v>-0.0130461959318663</v>
       </c>
       <c r="SD2" s="2">
-        <v>-3.3677837867033</v>
+        <v>-0.0132760743851852</v>
       </c>
       <c r="SE2" s="2">
-        <v>-3.38533333184168</v>
+        <v>-0.0109755603412514</v>
       </c>
       <c r="SF2" s="2">
-        <v>-3.36683720272415</v>
+        <v>-0.0141212990304873</v>
       </c>
       <c r="SG2" s="2">
-        <v>-3.36958120590149</v>
+        <v>-0.009099198623957021</v>
       </c>
       <c r="SH2" s="2">
-        <v>-3.33948094027887</v>
+        <v>-0.00910665247190477</v>
       </c>
       <c r="SI2" s="2">
-        <v>-3.30315512546888</v>
+        <v>-0.00628977718808652</v>
       </c>
       <c r="SJ2" s="2">
-        <v>-3.3380426809474</v>
+        <v>-0.0078831105911351</v>
       </c>
       <c r="SK2" s="2">
-        <v>-3.32284276958828</v>
+        <v>-0.0131682905108927</v>
       </c>
       <c r="SL2" s="2">
-        <v>-3.33100512838551</v>
+        <v>-0.00721949228910506</v>
       </c>
       <c r="SM2" s="2">
-        <v>-3.26455652522099</v>
+        <v>-0.00322515162853637</v>
       </c>
       <c r="SN2" s="2">
-        <v>-3.27265352967785</v>
+        <v>-0.0278379801832287</v>
       </c>
       <c r="SO2" s="2">
-        <v>-3.24923185690782</v>
+        <v>-0.0112459674640461</v>
       </c>
       <c r="SP2" s="2">
-        <v>-3.23848800493099</v>
+        <v>-0.0078321087387668</v>
       </c>
       <c r="SQ2" s="2">
-        <v>-3.2097108164347</v>
+        <v>-0.0107440200573791</v>
       </c>
       <c r="SR2" s="2">
-        <v>-3.20977157432945</v>
+        <v>-0.0166319698789423</v>
       </c>
       <c r="SS2" s="2">
-        <v>-3.15672656880571</v>
+        <v>-0.011450884840107</v>
       </c>
       <c r="ST2" s="2">
-        <v>-3.15962126734471</v>
+        <v>-0.0244285870914733</v>
       </c>
       <c r="SU2" s="2">
-        <v>-3.12758293509443</v>
+        <v>-0.00827174159804109</v>
       </c>
       <c r="SV2" s="2">
-        <v>-3.11311632987564</v>
+        <v>-0.0125353353902391</v>
       </c>
       <c r="SW2" s="2">
-        <v>-3.09427785735075</v>
+        <v>-0.0134927078767097</v>
       </c>
       <c r="SX2" s="2">
-        <v>-3.07584549303963</v>
+        <v>-0.0188183277171841</v>
       </c>
       <c r="SY2" s="2">
-        <v>-3.06003130208224</v>
+        <v>-0.00576643676176387</v>
       </c>
       <c r="SZ2" s="2">
-        <v>-3.02529099708167</v>
+        <v>-0.0246709615415416</v>
       </c>
       <c r="TA2" s="2">
-        <v>-2.98878707898017</v>
+        <v>-0.0159380577829043</v>
       </c>
       <c r="TB2" s="2">
-        <v>-2.98678953103507</v>
+        <v>-0.0142753834392025</v>
       </c>
       <c r="TC2" s="2">
-        <v>-2.95431253248254</v>
+        <v>-0.0165721945411918</v>
       </c>
       <c r="TD2" s="2">
-        <v>-2.9397544084147</v>
+        <v>-0.0105024995329314</v>
       </c>
       <c r="TE2" s="2">
-        <v>-2.922297964021</v>
+        <v>-0.0203502945545771</v>
       </c>
       <c r="TF2" s="2">
-        <v>-2.89222965555786</v>
+        <v>-0.00814200749312562</v>
       </c>
       <c r="TG2" s="2">
-        <v>-2.88103703782751</v>
+        <v>-0.0075734275456847</v>
       </c>
       <c r="TH2" s="2">
-        <v>-2.86190124167232</v>
+        <v>-0.0222832882571361</v>
       </c>
       <c r="TI2" s="2">
-        <v>-2.83032297207134</v>
+        <v>-0.0152786329174145</v>
       </c>
       <c r="TJ2" s="2">
-        <v>-2.83031461701214</v>
+        <v>-0.00766465272343994</v>
       </c>
       <c r="TK2" s="2">
-        <v>-2.8154934977624</v>
+        <v>-0.01656881213989</v>
       </c>
       <c r="TL2" s="2">
-        <v>-2.77451860564222</v>
+        <v>-0.0211432720544905</v>
       </c>
       <c r="TM2" s="2">
-        <v>-2.76587002773767</v>
+        <v>-0.012600612901278</v>
       </c>
       <c r="TN2" s="2">
-        <v>-2.73968401782374</v>
+        <v>-0.0073828782179632</v>
       </c>
       <c r="TO2" s="2">
-        <v>-2.73408002208872</v>
+        <v>-0.009766107085132319</v>
       </c>
       <c r="TP2" s="2">
-        <v>-2.69083172226467</v>
+        <v>-0.009178461808379151</v>
       </c>
       <c r="TQ2" s="2">
-        <v>-2.6915163922771</v>
+        <v>-0.019608069781317</v>
       </c>
       <c r="TR2" s="2">
-        <v>-2.67381017795941</v>
+        <v>-0.00998015022737804</v>
       </c>
       <c r="TS2" s="2">
-        <v>-2.65115725497144</v>
+        <v>-0.0101008582145059</v>
       </c>
       <c r="TT2" s="2">
-        <v>-2.65037117226097</v>
+        <v>-0.0112875820860919</v>
       </c>
       <c r="TU2" s="2">
-        <v>-2.63321653802054</v>
+        <v>-0.018607759397589</v>
       </c>
       <c r="TV2" s="2">
-        <v>-2.62781936016193</v>
+        <v>-0.0133144632153701</v>
       </c>
       <c r="TW2" s="2">
-        <v>-2.59727041658926</v>
+        <v>4.3138198861971E-05</v>
       </c>
       <c r="TX2" s="2">
-        <v>-2.59246870378135</v>
+        <v>-0.0262391775306858</v>
       </c>
       <c r="TY2" s="2">
-        <v>-2.57078015269322</v>
+        <v>-0.008932545157073949</v>
       </c>
       <c r="TZ2" s="2">
-        <v>-2.56074877811949</v>
+        <v>-0.0183080400745654</v>
       </c>
       <c r="UA2" s="2">
-        <v>-2.55295203931453</v>
+        <v>-0.00519723928250203</v>
       </c>
       <c r="UB2" s="2">
-        <v>-2.55509113293912</v>
+        <v>-0.0023075371813316</v>
       </c>
       <c r="UC2" s="2">
-        <v>-2.52834283451252</v>
+        <v>-0.00552544535213351</v>
       </c>
       <c r="UD2" s="2">
-        <v>-2.53135069618858</v>
+        <v>-0.0231789115276873</v>
       </c>
       <c r="UE2" s="2">
-        <v>-2.52010789613496</v>
+        <v>-0.0171567007685445</v>
       </c>
       <c r="UF2" s="2">
-        <v>-2.515751181581</v>
+        <v>-0.0109895925069182</v>
       </c>
       <c r="UG2" s="2">
-        <v>-2.48327805460026</v>
+        <v>-0.00409879505320701</v>
       </c>
       <c r="UH2" s="2">
-        <v>-2.49378209458582</v>
+        <v>-0.0164297887064997</v>
       </c>
       <c r="UI2" s="2">
-        <v>-2.48151611714555</v>
+        <v>-0.018061125717943</v>
       </c>
       <c r="UJ2" s="2">
-        <v>-2.47425819114207</v>
+        <v>-0.0117676500206542</v>
       </c>
       <c r="UK2" s="2">
-        <v>-2.47460066996865</v>
+        <v>-0.0169657388325559</v>
       </c>
       <c r="UL2" s="2">
-        <v>-2.46712231711061</v>
+        <v>-0.00333690356026406</v>
       </c>
       <c r="UM2" s="2">
-        <v>-2.45724587801829</v>
+        <v>-0.031894699022264</v>
       </c>
       <c r="UN2" s="2">
-        <v>-2.44990209757793</v>
+        <v>-0.0113116927867384</v>
       </c>
       <c r="UO2" s="2">
-        <v>-2.45671030381855</v>
+        <v>-0.008259641636338581</v>
       </c>
       <c r="UP2" s="2">
-        <v>-2.46070030366715</v>
+        <v>-0.0119034839154452</v>
       </c>
       <c r="UQ2" s="2">
-        <v>-2.44765437738105</v>
+        <v>-0.00954146635088641</v>
       </c>
       <c r="UR2" s="2">
-        <v>-2.42179962771372</v>
+        <v>-0.0139060162915383</v>
       </c>
       <c r="US2" s="2">
-        <v>-2.4409954894299</v>
+        <v>-0.0154026707776683</v>
       </c>
       <c r="UT2" s="2">
-        <v>-2.4436213469061</v>
+        <v>-0.0121376675301304</v>
       </c>
       <c r="UU2" s="2">
-        <v>-2.44474366279199</v>
+        <v>-0.0010690477557024</v>
       </c>
       <c r="UV2" s="2">
-        <v>-2.44854634265642</v>
+        <v>-0.0159244201389821</v>
       </c>
       <c r="UW2" s="2">
-        <v>-2.44593870812854</v>
+        <v>-0.0234306442340246</v>
       </c>
       <c r="UX2" s="2">
-        <v>-2.43306215083673</v>
+        <v>-0.0214122043928655</v>
       </c>
       <c r="UY2" s="2">
-        <v>-2.42568948066673</v>
+        <v>-0.00150046960634518</v>
       </c>
       <c r="UZ2" s="2">
-        <v>-2.41970098193885</v>
+        <v>-0.0106166725755092</v>
       </c>
       <c r="VA2" s="2">
-        <v>-2.42980935798081</v>
+        <v>-0.0133795909028355</v>
       </c>
       <c r="VB2" s="2">
-        <v>-2.45259097577628</v>
+        <v>-0.0250246758025657</v>
       </c>
       <c r="VC2" s="2">
-        <v>-2.46347711627144</v>
+        <v>-0.0044708282835586</v>
       </c>
       <c r="VD2" s="2">
-        <v>-2.43539890196917</v>
+        <v>-0.0153615087715963</v>
       </c>
       <c r="VE2" s="2">
-        <v>-2.4531598027841</v>
+        <v>-0.0213842006854538</v>
       </c>
       <c r="VF2" s="2">
-        <v>-2.47106145745109</v>
+        <v>-0.0173824642281995</v>
       </c>
       <c r="VG2" s="2">
-        <v>-2.46679953155593</v>
+        <v>-0.0266479845967492</v>
       </c>
       <c r="VH2" s="2">
-        <v>-2.47120752944373</v>
+        <v>-0.00340755737941661</v>
       </c>
       <c r="VI2" s="2">
-        <v>-2.48767371113635</v>
+        <v>-0.009372536641221689</v>
       </c>
       <c r="VJ2" s="2">
-        <v>-2.49841933351231</v>
+        <v>-0.0131883909526259</v>
       </c>
       <c r="VK2" s="2">
-        <v>-2.49224483709234</v>
+        <v>-0.00782157823901781</v>
       </c>
       <c r="VL2" s="2">
-        <v>-2.49249315339796</v>
+        <v>-0.00310702573082086</v>
       </c>
       <c r="VM2" s="2">
-        <v>-2.51974583234869</v>
+        <v>-0.0135639176888987</v>
       </c>
       <c r="VN2" s="2">
-        <v>-2.53188731040717</v>
+        <v>-0.00551592853911799</v>
       </c>
       <c r="VO2" s="2">
-        <v>-2.52011224515343</v>
+        <v>-0.0122705720480814</v>
       </c>
       <c r="VP2" s="2">
-        <v>-2.54624169397334</v>
+        <v>-0.000881885748029567</v>
       </c>
       <c r="VQ2" s="2">
-        <v>-2.52996471779948</v>
+        <v>-0.008022489495734491</v>
       </c>
       <c r="VR2" s="2">
-        <v>-2.55137317098446</v>
+        <v>-0.00605831117701259</v>
       </c>
       <c r="VS2" s="2">
-        <v>-2.54829271014671</v>
+        <v>-0.017360192503038</v>
       </c>
       <c r="VT2" s="2">
-        <v>-2.58899254808958</v>
+        <v>-0.0213092479837558</v>
       </c>
       <c r="VU2" s="2">
-        <v>-2.60076236405118</v>
+        <v>-0.011339995437786</v>
       </c>
       <c r="VV2" s="2">
-        <v>-2.62300519375648</v>
+        <v>-0.0059054500427221</v>
       </c>
       <c r="VW2" s="2">
-        <v>-2.61397170226101</v>
+        <v>-0.0033837705685533</v>
       </c>
       <c r="VX2" s="2">
-        <v>-2.62805631039106</v>
+        <v>-0.0197445174257854</v>
       </c>
       <c r="VY2" s="2">
-        <v>-2.65779721307344</v>
+        <v>-0.0208642590711992</v>
       </c>
       <c r="VZ2" s="2">
-        <v>-2.64296470748952</v>
+        <v>-0.0024304394988554</v>
       </c>
       <c r="WA2" s="2">
-        <v>-2.66308870212369</v>
+        <v>-0.0219535701448925</v>
       </c>
       <c r="WB2" s="2">
-        <v>-2.72639000452914</v>
+        <v>-0.0136921597417789</v>
       </c>
       <c r="WC2" s="2">
-        <v>-2.71136525430073</v>
+        <v>-0.0100690204238132</v>
       </c>
       <c r="WD2" s="2">
-        <v>-2.73670320416085</v>
+        <v>-0.00811033362693264</v>
       </c>
       <c r="WE2" s="2">
-        <v>-2.74027688818319</v>
+        <v>-0.0246756226012978</v>
       </c>
       <c r="WF2" s="2">
-        <v>-2.76762263688293</v>
+        <v>-0.016604972122948</v>
       </c>
       <c r="WG2" s="2">
-        <v>-2.75723494747422</v>
+        <v>-0.01375691277631</v>
       </c>
       <c r="WH2" s="2">
-        <v>-2.7828586352767</v>
+        <v>-0.00329400732633377</v>
       </c>
       <c r="WI2" s="2">
-        <v>-2.78231231730961</v>
+        <v>-0.0159156826421878</v>
       </c>
       <c r="WJ2" s="2">
-        <v>-2.82484463736074</v>
+        <v>-0.017782470603877</v>
       </c>
       <c r="WK2" s="2">
-        <v>-2.83718921233592</v>
+        <v>-0.008910528256562701</v>
       </c>
       <c r="WL2" s="2">
-        <v>-2.8500674459778</v>
+        <v>-0.0194056048813463</v>
       </c>
       <c r="WM2" s="2">
-        <v>-2.89140830645649</v>
+        <v>-0.00914710411550243</v>
       </c>
       <c r="WN2" s="2">
-        <v>-2.90812903754883</v>
+        <v>-0.00327957751281614</v>
       </c>
       <c r="WO2" s="2">
-        <v>-2.90086195506496</v>
+        <v>-0.0140225539098874</v>
       </c>
       <c r="WP2" s="2">
-        <v>-2.9296825761186</v>
+        <v>-0.0169745586247157</v>
       </c>
       <c r="WQ2" s="2">
-        <v>-2.94300706759832</v>
+        <v>-0.0180888953507014</v>
       </c>
       <c r="WR2" s="2">
-        <v>-2.9851717257749</v>
+        <v>-0.00524087702048133</v>
       </c>
       <c r="WS2" s="2">
-        <v>-2.98188543164659</v>
+        <v>-0.00131963389296445</v>
       </c>
       <c r="WT2" s="2">
-        <v>-3.02302813132374</v>
+        <v>-0.0156168476537323</v>
       </c>
       <c r="WU2" s="2">
-        <v>-3.04265708871043</v>
+        <v>-0.0144625059544893</v>
       </c>
       <c r="WV2" s="2">
-        <v>-3.03687728198519</v>
+        <v>-0.00930182456483189</v>
       </c>
       <c r="WW2" s="2">
-        <v>-3.04857584725398</v>
+        <v>0.00121219768194348</v>
       </c>
       <c r="WX2" s="2">
-        <v>-3.0681424510053</v>
+        <v>-0.00520758466874695</v>
       </c>
       <c r="WY2" s="2">
-        <v>-3.10473211332817</v>
+        <v>-0.0176388255750754</v>
       </c>
       <c r="WZ2" s="2">
-        <v>-3.08988330484369</v>
+        <v>-0.00792851991812632</v>
       </c>
       <c r="XA2" s="2">
-        <v>-3.10756962147248</v>
+        <v>-0.0170403558305539</v>
       </c>
       <c r="XB2" s="2">
-        <v>-3.1206417593338</v>
+        <v>-0.015478619547147</v>
       </c>
       <c r="XC2" s="2">
-        <v>-3.1297184833297</v>
+        <v>-0.00802584937551261</v>
       </c>
       <c r="XD2" s="2">
-        <v>-3.14789935213862</v>
+        <v>-0.0141962569218321</v>
       </c>
       <c r="XE2" s="2">
-        <v>-3.13558647717061</v>
+        <v>-0.0168991250831717</v>
       </c>
       <c r="XF2" s="2">
-        <v>-3.16564365660401</v>
+        <v>-0.00264798668427075</v>
       </c>
       <c r="XG2" s="2">
-        <v>-3.17507179310007</v>
+        <v>-0.009155525973361389</v>
       </c>
       <c r="XH2" s="2">
-        <v>-3.21285261895311</v>
+        <v>-0.00821128413012847</v>
       </c>
       <c r="XI2" s="2">
-        <v>-3.21961362687333</v>
+        <v>-0.014590810055177</v>
       </c>
       <c r="XJ2" s="2">
-        <v>-3.19522368262866</v>
+        <v>-0.00140366862817893</v>
       </c>
       <c r="XK2" s="2">
-        <v>-3.20512947752827</v>
+        <v>-0.029827507764088</v>
       </c>
       <c r="XL2" s="2">
-        <v>-3.21613377744785</v>
+        <v>-0.00651241754025717</v>
       </c>
       <c r="XM2" s="2">
-        <v>-3.19465485945172</v>
+        <v>-0.008796638283729121</v>
       </c>
       <c r="XN2" s="2">
-        <v>-3.18914609901356</v>
+        <v>-0.0240376265588548</v>
       </c>
       <c r="XO2" s="2">
-        <v>-3.21847761989278</v>
+        <v>-0.0145132870504041</v>
       </c>
       <c r="XP2" s="2">
-        <v>-3.17595031291081</v>
+        <v>-0.0138962064264477</v>
       </c>
       <c r="XQ2" s="2">
-        <v>-3.20065501816618</v>
+        <v>-0.00960446059661829</v>
       </c>
       <c r="XR2" s="2">
-        <v>-3.17636780248154</v>
+        <v>-0.0130841405628924</v>
       </c>
       <c r="XS2" s="2">
-        <v>-3.16341960687983</v>
+        <v>-0.0198560803698553</v>
       </c>
       <c r="XT2" s="2">
-        <v>-3.20174985233828</v>
+        <v>-0.009473977629275271</v>
       </c>
       <c r="XU2" s="2">
-        <v>-3.15810099110816</v>
+        <v>-0.008161958197014501</v>
       </c>
       <c r="XV2" s="2">
-        <v>-3.16157698306981</v>
+        <v>-0.00521349990894853</v>
       </c>
       <c r="XW2" s="2">
-        <v>-3.11469716879136</v>
+        <v>-0.00926990102579993</v>
       </c>
       <c r="XX2" s="2">
-        <v>-3.11554788265093</v>
+        <v>-0.0229244284094218</v>
       </c>
       <c r="XY2" s="2">
-        <v>-3.10873237675697</v>
+        <v>-0.0195818116674127</v>
       </c>
       <c r="XZ2" s="2">
-        <v>-3.08893254501823</v>
+        <v>-0.00844820287359957</v>
       </c>
       <c r="YA2" s="2">
-        <v>-3.07322543350844</v>
+        <v>-0.0161691076316454</v>
       </c>
       <c r="YB2" s="2">
-        <v>-3.06462680965258</v>
+        <v>-0.0116772700668195</v>
       </c>
       <c r="YC2" s="2">
-        <v>-3.0480482408227</v>
+        <v>-0.00705861821962767</v>
       </c>
       <c r="YD2" s="2">
-        <v>-3.03840812306362</v>
+        <v>-0.014134579264525</v>
       </c>
       <c r="YE2" s="2">
-        <v>-3.01573075167999</v>
+        <v>-0.0135726290448256</v>
       </c>
       <c r="YF2" s="2">
-        <v>-2.99814958775023</v>
+        <v>-0.019653455697828</v>
       </c>
       <c r="YG2" s="2">
-        <v>-2.99419512007126</v>
+        <v>-0.019439596700686</v>
       </c>
       <c r="YH2" s="2">
-        <v>-2.96192600175883</v>
+        <v>-0.0096982511925398</v>
       </c>
       <c r="YI2" s="2">
-        <v>-2.95266427831911</v>
+        <v>-0.0148744990761412</v>
       </c>
       <c r="YJ2" s="2">
-        <v>-2.93527400311349</v>
+        <v>-0.0108732077434825</v>
       </c>
       <c r="YK2" s="2">
-        <v>-2.89346324874739</v>
+        <v>-0.00843877037355242</v>
       </c>
       <c r="YL2" s="2">
-        <v>-2.87588959652528</v>
+        <v>0.00247071423698663</v>
       </c>
       <c r="YM2" s="2">
-        <v>-2.87308143398945</v>
+        <v>-0.0144805498576245</v>
       </c>
       <c r="YN2" s="2">
-        <v>-2.86651797351027</v>
+        <v>-0.0154295856956682</v>
       </c>
       <c r="YO2" s="2">
-        <v>-2.84899322462041</v>
+        <v>-0.00672183761038284</v>
       </c>
       <c r="YP2" s="2">
-        <v>-2.83500026972459</v>
+        <v>-0.000371635038832754</v>
       </c>
       <c r="YQ2" s="2">
-        <v>-2.79133562196036</v>
+        <v>-0.00929501388085972</v>
       </c>
       <c r="YR2" s="2">
-        <v>-2.79928581266887</v>
+        <v>-0.0172773665814744</v>
       </c>
       <c r="YS2" s="2">
-        <v>-2.79386351611842</v>
+        <v>-0.0156461889056523</v>
       </c>
       <c r="YT2" s="2">
-        <v>-2.74148138666475</v>
+        <v>-0.017216971161194</v>
       </c>
       <c r="YU2" s="2">
-        <v>-2.73597721268668</v>
+        <v>-0.0265035047263394</v>
       </c>
       <c r="YV2" s="2">
-        <v>-2.70679625743521</v>
+        <v>-0.0101223501309145</v>
       </c>
       <c r="YW2" s="2">
-        <v>-2.69643442769679</v>
+        <v>-0.0142618260886147</v>
       </c>
       <c r="YX2" s="2">
-        <v>-2.69339077661976</v>
+        <v>-0.012691216920393</v>
       </c>
       <c r="YY2" s="2">
-        <v>-2.66658109802301</v>
+        <v>-0.00531570904517978</v>
       </c>
       <c r="YZ2" s="2">
-        <v>-2.65402193966123</v>
+        <v>-0.0134146015875459</v>
       </c>
       <c r="ZA2" s="2">
-        <v>-2.66499361320974</v>
+        <v>-0.0122034438942878</v>
       </c>
       <c r="ZB2" s="2">
-        <v>-2.63736462612635</v>
+        <v>-0.0103753961124362</v>
       </c>
       <c r="ZC2" s="2">
-        <v>-2.63115115728495</v>
+        <v>-0.0225413034135218</v>
       </c>
       <c r="ZD2" s="2">
-        <v>-2.59521932314058</v>
+        <v>-0.0170663475960375</v>
       </c>
       <c r="ZE2" s="2">
-        <v>-2.59739223016135</v>
+        <v>-0.008061740783066131</v>
       </c>
       <c r="ZF2" s="2">
-        <v>-2.60068605067507</v>
+        <v>-0.00406221354509044</v>
       </c>
       <c r="ZG2" s="2">
-        <v>-2.55735427222827</v>
+        <v>-0.0124836290186518</v>
       </c>
       <c r="ZH2" s="2">
-        <v>-2.56512301773591</v>
+        <v>0.00227248760306501</v>
       </c>
       <c r="ZI2" s="2">
-        <v>-2.53767316004978</v>
+        <v>-0.0107863680693761</v>
       </c>
       <c r="ZJ2" s="2">
-        <v>-2.56602073542391</v>
+        <v>-0.010986900495357</v>
       </c>
       <c r="ZK2" s="2">
-        <v>-2.55100461960355</v>
+        <v>-0.009553792664472399</v>
       </c>
       <c r="ZL2" s="2">
-        <v>-2.52032542993571</v>
+        <v>-0.0100357486156307</v>
       </c>
       <c r="ZM2" s="2">
-        <v>-2.51097414041596</v>
+        <v>0.00300662593028487</v>
       </c>
       <c r="ZN2" s="2">
-        <v>-2.49280683431207</v>
+        <v>0.00567135712169087</v>
       </c>
       <c r="ZO2" s="2">
-        <v>-2.5002667915992</v>
+        <v>-0.000258334906984899</v>
       </c>
       <c r="ZP2" s="2">
-        <v>-2.48405688539567</v>
+        <v>-0.000282804277724543</v>
       </c>
       <c r="ZQ2" s="2">
-        <v>-2.49447877772784</v>
+        <v>-0.0177821177555966</v>
       </c>
       <c r="ZR2" s="2">
-        <v>-2.48678697931259</v>
+        <v>-0.0106289434824789</v>
       </c>
       <c r="ZS2" s="2">
-        <v>-2.47145068644467</v>
+        <v>-0.0172341144462586</v>
       </c>
       <c r="ZT2" s="2">
-        <v>-2.45048615267258</v>
+        <v>-0.00128073174210307</v>
       </c>
       <c r="ZU2" s="2">
-        <v>-2.45662095032588</v>
+        <v>-0.00768111803521448</v>
       </c>
       <c r="ZV2" s="2">
-        <v>-2.45742405327119</v>
+        <v>-0.00363320080268091</v>
       </c>
       <c r="ZW2" s="2">
-        <v>-2.44874945302447</v>
+        <v>-0.00449611726430831</v>
       </c>
       <c r="ZX2" s="2">
-        <v>-2.44928056193033</v>
+        <v>-0.000548072994779611</v>
       </c>
       <c r="ZY2" s="2">
-        <v>-2.45452434513105</v>
+        <v>-0.00197581920935842</v>
       </c>
       <c r="ZZ2" s="2">
-        <v>-2.44511336743851</v>
+        <v>-0.00758744295620487</v>
       </c>
       <c r="AAA2" s="2">
-        <v>-2.42316591787851</v>
+        <v>-0.00852736334107675</v>
       </c>
       <c r="AAB2" s="2">
-        <v>-2.40574978397613</v>
+        <v>-0.0111156566899598</v>
       </c>
       <c r="AAC2" s="2">
-        <v>-2.42445224038329</v>
+        <v>-0.0180018004694665</v>
       </c>
       <c r="AAD2" s="2">
-        <v>-2.41675624763752</v>
+        <v>-0.0214363212092348</v>
       </c>
       <c r="AAE2" s="2">
-        <v>-2.41729417417757</v>
+        <v>-0.0175138746836947</v>
       </c>
       <c r="AAF2" s="2">
-        <v>-2.41966848313837</v>
+        <v>0.000787842890001835</v>
       </c>
       <c r="AAG2" s="2">
-        <v>-2.40161175047755</v>
+        <v>-0.0200128876268995</v>
       </c>
       <c r="AAH2" s="2">
-        <v>-2.41271987990486</v>
+        <v>0.00299901621584666</v>
       </c>
       <c r="AAI2" s="2">
-        <v>-2.38425504119707</v>
+        <v>-0.00695514481842379</v>
       </c>
       <c r="AAJ2" s="2">
-        <v>-2.39356107528546</v>
+        <v>-0.00488930320331589</v>
       </c>
       <c r="AAK2" s="2">
-        <v>-2.38370427857161</v>
+        <v>-0.0142123770245506</v>
       </c>
       <c r="AAL2" s="2">
-        <v>-2.3836231435599</v>
+        <v>-0.0109897501809345</v>
       </c>
       <c r="AAM2" s="2">
-        <v>-2.39647323447723</v>
+        <v>-0.00968993245920222</v>
       </c>
       <c r="AAN2" s="2">
-        <v>-2.38314972161255</v>
+        <v>-0.0103802845155507</v>
       </c>
       <c r="AAO2" s="2">
-        <v>-2.38076947514499</v>
+        <v>-0.00663806667162978</v>
       </c>
       <c r="AAP2" s="2">
-        <v>-2.36864090106945</v>
+        <v>-0.0115249762146062</v>
       </c>
       <c r="AAQ2" s="2">
-        <v>-2.34958651333372</v>
+        <v>-0.0154838796526974</v>
       </c>
       <c r="AAR2" s="2">
-        <v>-2.39427108753652</v>
+        <v>0.000293114795818882</v>
       </c>
       <c r="AAS2" s="2">
-        <v>-2.36916763167986</v>
+        <v>-0.0116776300682619</v>
       </c>
       <c r="AAT2" s="2">
-        <v>-2.3627186775918</v>
+        <v>-0.0125446886014778</v>
       </c>
       <c r="AAU2" s="2">
-        <v>-2.3716653153221</v>
+        <v>-0.0205502435521857</v>
       </c>
       <c r="AAV2" s="2">
-        <v>-2.36712859542776</v>
+        <v>0.00582216222479189</v>
       </c>
       <c r="AAW2" s="2">
-        <v>-2.34782067732285</v>
+        <v>-0.00427455960865081</v>
       </c>
       <c r="AAX2" s="2">
-        <v>-2.37176771939922</v>
+        <v>-0.00535777619036908</v>
       </c>
       <c r="AAY2" s="2">
-        <v>-2.35557071714146</v>
+        <v>-0.0168912413745031</v>
       </c>
       <c r="AAZ2" s="2">
-        <v>-2.36035501816081</v>
+        <v>-0.0162151420053066</v>
       </c>
       <c r="ABA2" s="2">
-        <v>-2.33780329644801</v>
+        <v>-0.0136018722411974</v>
       </c>
       <c r="ABB2" s="2">
-        <v>-2.35530503566464</v>
+        <v>-0.0201237531783723</v>
       </c>
       <c r="ABC2" s="2">
-        <v>-2.33759308449125</v>
+        <v>0.000540630185415704</v>
       </c>
       <c r="ABD2" s="2">
-        <v>-2.35048287609412</v>
+        <v>-0.0198152114042272</v>
       </c>
       <c r="ABE2" s="2">
-        <v>-2.34573034576197</v>
+        <v>-0.00956568628641538</v>
       </c>
       <c r="ABF2" s="2">
-        <v>-2.34305005180295</v>
+        <v>-0.00982746801648705</v>
       </c>
       <c r="ABG2" s="2">
-        <v>-2.35307612972113</v>
+        <v>-0.0137514299344647</v>
       </c>
       <c r="ABH2" s="2">
-        <v>-2.33055670783367</v>
+        <v>-0.0115211572282239</v>
       </c>
       <c r="ABI2" s="2">
-        <v>-2.33202135097721</v>
+        <v>-0.009043768159607189</v>
       </c>
       <c r="ABJ2" s="2">
-        <v>-2.34053739962084</v>
+        <v>-0.00718907864179882</v>
       </c>
       <c r="ABK2" s="2">
-        <v>-2.3136925476967</v>
+        <v>-0.00858715084695876</v>
       </c>
       <c r="ABL2" s="2">
-        <v>-2.31056705121916</v>
+        <v>-0.00469404409503617</v>
       </c>
       <c r="ABM2" s="2">
-        <v>-2.33441787475721</v>
+        <v>0.0118038830624977</v>
       </c>
       <c r="ABN2" s="2">
-        <v>-2.29234942054262</v>
+        <v>-0.0136540544159048</v>
       </c>
       <c r="ABO2" s="2">
-        <v>-2.28823260145617</v>
+        <v>-0.0146968971629816</v>
       </c>
       <c r="ABP2" s="2">
-        <v>-2.29721435876548</v>
+        <v>-0.00677520375674559</v>
       </c>
       <c r="ABQ2" s="2">
-        <v>-2.2988623735356</v>
+        <v>-0.00910851998201636</v>
       </c>
       <c r="ABR2" s="2">
-        <v>-2.31223667469606</v>
+        <v>-0.0110612095342552</v>
       </c>
       <c r="ABS2" s="2">
-        <v>-2.29921223887012</v>
+        <v>-0.00763914479374339</v>
       </c>
       <c r="ABT2" s="2">
-        <v>-2.28059893594559</v>
+        <v>-0.00873205163799563</v>
       </c>
       <c r="ABU2" s="2">
-        <v>-2.28786165443964</v>
+        <v>-0.00944647208564151</v>
       </c>
       <c r="ABV2" s="2">
-        <v>-2.29407846674532</v>
+        <v>-0.015304266797764</v>
       </c>
       <c r="ABW2" s="2">
-        <v>-2.29754825300346</v>
+        <v>-0.0204789877502501</v>
       </c>
       <c r="ABX2" s="2">
-        <v>-2.28533768872967</v>
+        <v>-0.0126057511753111</v>
       </c>
       <c r="ABY2" s="2">
-        <v>-2.28415521620256</v>
+        <v>-0.00466210856348295</v>
       </c>
       <c r="ABZ2" s="2">
-        <v>-2.28735171115619</v>
+        <v>-0.009316755360647929</v>
       </c>
       <c r="ACA2" s="2">
-        <v>-2.28988437432534</v>
+        <v>-0.0119052245394175</v>
       </c>
       <c r="ACB2" s="2">
-        <v>-2.26730712203562</v>
+        <v>-0.0024300179861815</v>
       </c>
       <c r="ACC2" s="2">
-        <v>-2.28695911188781</v>
+        <v>-0.0111410192662666</v>
       </c>
       <c r="ACD2" s="2">
-        <v>-2.27933992899377</v>
+        <v>-0.0133746175489697</v>
       </c>
       <c r="ACE2" s="2">
-        <v>-2.28194684024441</v>
+        <v>-0.0130532271400364</v>
       </c>
       <c r="ACF2" s="2">
-        <v>-2.30448410026497</v>
+        <v>-0.00624563360188756</v>
       </c>
       <c r="ACG2" s="2">
-        <v>-2.26122416380744</v>
+        <v>-0.0101694931808231</v>
       </c>
       <c r="ACH2" s="2">
-        <v>-2.26163094040315</v>
+        <v>-0.0267515280306423</v>
       </c>
       <c r="ACI2" s="2">
-        <v>-2.26523080676024</v>
+        <v>-0.0197278738487729</v>
       </c>
       <c r="ACJ2" s="2">
-        <v>-2.28156440741932</v>
+        <v>-0.0177653952329981</v>
       </c>
       <c r="ACK2" s="2">
-        <v>-2.28079495509665</v>
+        <v>-0.0194531181814949</v>
       </c>
       <c r="ACL2" s="2">
-        <v>-2.27323105253798</v>
+        <v>-0.0124540116159835</v>
       </c>
       <c r="ACM2" s="2">
-        <v>-2.23938849643404</v>
+        <v>-0.0139240911482602</v>
       </c>
       <c r="ACN2" s="2">
-        <v>-2.26633812825619</v>
+        <v>-0.00565206517359365</v>
       </c>
       <c r="ACO2" s="2">
-        <v>-2.26728583174577</v>
+        <v>-0.0103128995848241</v>
       </c>
       <c r="ACP2" s="2">
-        <v>-2.25898788989037</v>
+        <v>-0.0174356533736165</v>
       </c>
       <c r="ACQ2" s="2">
-        <v>-2.25864503030666</v>
+        <v>-0.00516649450286329</v>
       </c>
       <c r="ACR2" s="2">
-        <v>-2.27454639770854</v>
+        <v>-0.0117568818186243</v>
       </c>
       <c r="ACS2" s="2">
-        <v>-2.27017194025601</v>
+        <v>-0.0192071919016824</v>
       </c>
       <c r="ACT2" s="2">
-        <v>-2.2797969003551</v>
+        <v>-0.00355796798571829</v>
       </c>
       <c r="ACU2" s="2">
-        <v>-2.27567131331202</v>
+        <v>-0.0176951891040857</v>
       </c>
       <c r="ACV2" s="2">
-        <v>-2.26226270948126</v>
+        <v>-0.0148934150832364</v>
       </c>
       <c r="ACW2" s="2">
-        <v>-2.27972427357986</v>
+        <v>-0.00799401934457214</v>
       </c>
       <c r="ACX2" s="2">
-        <v>-2.26858592927105</v>
+        <v>0.00300502178056832</v>
       </c>
       <c r="ACY2" s="2">
-        <v>-2.26018739554061</v>
+        <v>-0.0152039523132221</v>
       </c>
       <c r="ACZ2" s="2">
-        <v>-2.25911295508847</v>
+        <v>-0.0215114753177588</v>
       </c>
       <c r="ADA2" s="2">
-        <v>-2.2890159837834</v>
+        <v>-0.00650179650130522</v>
       </c>
       <c r="ADB2" s="2">
-        <v>-2.26680560296833</v>
+        <v>-0.00757500638014782</v>
       </c>
       <c r="ADC2" s="2">
-        <v>-2.29794240967681</v>
+        <v>-0.00255955803940327</v>
       </c>
       <c r="ADD2" s="2">
-        <v>-2.26222416867866</v>
+        <v>-0.0134141481339085</v>
       </c>
       <c r="ADE2" s="2">
-        <v>-2.27383203813115</v>
+        <v>-0.0182310355073745</v>
       </c>
       <c r="ADF2" s="2">
-        <v>-2.27004503864196</v>
+        <v>-0.0124750009811591</v>
       </c>
       <c r="ADG2" s="2">
-        <v>-2.27042224790752</v>
+        <v>0.000374046707730788</v>
       </c>
       <c r="ADH2" s="2">
-        <v>-2.27893593278572</v>
+        <v>-0.0179458311842226</v>
       </c>
       <c r="ADI2" s="2">
-        <v>-2.27892695745485</v>
+        <v>-0.008224940615907891</v>
       </c>
       <c r="ADJ2" s="2">
-        <v>-2.26369371649662</v>
+        <v>-0.0192603062063283</v>
       </c>
       <c r="ADK2" s="2">
-        <v>-2.27222166616287</v>
+        <v>-0.0195971689134589</v>
       </c>
       <c r="ADL2" s="2">
-        <v>-2.27678404250124</v>
+        <v>-0.0157485087452041</v>
       </c>
       <c r="ADM2" s="2">
-        <v>-2.26933038676249</v>
+        <v>-0.0219948224085988</v>
       </c>
       <c r="ADN2" s="2">
-        <v>-2.28443209210911</v>
+        <v>-0.0108341342714561</v>
       </c>
       <c r="ADO2" s="2">
-        <v>-2.26836624479323</v>
+        <v>-0.0151734281176205</v>
       </c>
       <c r="ADP2" s="2">
-        <v>-2.28141068095818</v>
+        <v>-0.0182574230473891</v>
       </c>
       <c r="ADQ2" s="2">
-        <v>-2.26675609055448</v>
+        <v>-0.0128242456109991</v>
       </c>
       <c r="ADR2" s="2">
-        <v>-2.28144552934724</v>
+        <v>-0.01303299471534</v>
       </c>
       <c r="ADS2" s="2">
-        <v>-2.26834508338078</v>
+        <v>-0.0137991127563889</v>
       </c>
       <c r="ADT2" s="2">
-        <v>-2.26943246351436</v>
+        <v>-0.0152688122225776</v>
       </c>
       <c r="ADU2" s="2">
-        <v>-2.27146238985368</v>
+        <v>-0.0109868230980753</v>
       </c>
       <c r="ADV2" s="2">
-        <v>-2.28750087877584</v>
+        <v>-0.0208204170418839</v>
       </c>
       <c r="ADW2" s="2">
-        <v>-2.2629011534036</v>
+        <v>-0.0172449403560366</v>
       </c>
       <c r="ADX2" s="2">
-        <v>-2.2577441583155</v>
+        <v>-0.0115601572144608</v>
       </c>
       <c r="ADY2" s="2">
-        <v>-2.24874778843691</v>
+        <v>-0.0164667992328987</v>
       </c>
       <c r="ADZ2" s="2">
-        <v>-2.25671028096603</v>
+        <v>-0.00489843836103363</v>
       </c>
       <c r="AEA2" s="2">
-        <v>-2.25339410521054</v>
+        <v>-0.0164037492599544</v>
       </c>
       <c r="AEB2" s="2">
-        <v>-2.26392705250948</v>
+        <v>-0.0201829594427583</v>
       </c>
       <c r="AEC2" s="2">
-        <v>-2.24588692685833</v>
+        <v>-0.0185407331912526</v>
       </c>
       <c r="AED2" s="2">
-        <v>-2.27071183335404</v>
+        <v>0.000611197994042537</v>
       </c>
       <c r="AEE2" s="2">
-        <v>-2.22579406195609</v>
+        <v>-0.0198243359799152</v>
       </c>
       <c r="AEF2" s="2">
-        <v>-2.23186656414834</v>
+        <v>-0.0120357095631807</v>
       </c>
       <c r="AEG2" s="2">
-        <v>-2.26610759849353</v>
+        <v>-0.0187863741586301</v>
       </c>
       <c r="AEH2" s="2">
-        <v>-2.24684459350331</v>
+        <v>-0.015512116657763</v>
       </c>
       <c r="AEI2" s="2">
-        <v>-2.24441931073244</v>
+        <v>-0.0145996008139027</v>
       </c>
       <c r="AEJ2" s="2">
-        <v>-2.23049981510119</v>
+        <v>-0.00621321169404449</v>
       </c>
       <c r="AEK2" s="2">
-        <v>-2.22934890103999</v>
+        <v>-0.00077127907225678</v>
       </c>
       <c r="AEL2" s="2">
-        <v>-2.21889613477482</v>
+        <v>-0.00350827358995039</v>
       </c>
       <c r="AEM2" s="2">
-        <v>-2.20847720198362</v>
+        <v>-0.0186921373950921</v>
       </c>
       <c r="AEN2" s="2">
-        <v>-2.19978557347013</v>
+        <v>-0.024680891269887</v>
       </c>
       <c r="AEO2" s="2">
-        <v>-2.22296020985761</v>
+        <v>-0.0184836066339205</v>
       </c>
       <c r="AEP2" s="2">
-        <v>-2.19594276188998</v>
+        <v>-0.0159078193976649</v>
       </c>
       <c r="AEQ2" s="2">
-        <v>-2.17213044825447</v>
+        <v>-0.0244615569737822</v>
       </c>
       <c r="AER2" s="2">
-        <v>-2.1931736020191</v>
+        <v>-0.00169905241412163</v>
       </c>
       <c r="AES2" s="2">
-        <v>-2.19068421921975</v>
+        <v>-0.0118524622129704</v>
       </c>
       <c r="AET2" s="2">
-        <v>-2.20500936372199</v>
+        <v>-0.00649360798303442</v>
       </c>
       <c r="AEU2" s="2">
-        <v>-2.19261066946109</v>
+        <v>-0.0131532369609704</v>
       </c>
       <c r="AEV2" s="2">
-        <v>-2.18336761626135</v>
+        <v>0.00195390149144878</v>
       </c>
       <c r="AEW2" s="2">
-        <v>-2.17584514519473</v>
+        <v>-0.0113162815860804</v>
       </c>
       <c r="AEX2" s="2">
-        <v>-2.1508877769283</v>
+        <v>-0.0145995963740944</v>
       </c>
       <c r="AEY2" s="2">
-        <v>-2.16360123410788</v>
+        <v>-0.0216111421631435</v>
       </c>
       <c r="AEZ2" s="2">
-        <v>-2.16382535856657</v>
+        <v>-0.00527617583112218</v>
       </c>
       <c r="AFA2" s="2">
-        <v>-2.15688957770425</v>
+        <v>-0.008931631957892381</v>
       </c>
       <c r="AFB2" s="2">
-        <v>-2.17777613300495</v>
+        <v>-0.0317413281388443</v>
       </c>
       <c r="AFC2" s="2">
-        <v>-2.14626653271679</v>
+        <v>-0.0223665114318414</v>
       </c>
       <c r="AFD2" s="2">
-        <v>-2.14829460687806</v>
+        <v>-0.0205875673523469</v>
       </c>
       <c r="AFE2" s="2">
-        <v>-2.13726544608908</v>
+        <v>-0.0197565757304294</v>
       </c>
       <c r="AFF2" s="2">
-        <v>-2.14577807218329</v>
+        <v>-0.0202092553043415</v>
       </c>
       <c r="AFG2" s="2">
-        <v>-2.12090304884897</v>
+        <v>-0.0255198040117207</v>
       </c>
       <c r="AFH2" s="2">
-        <v>-2.15106973029436</v>
+        <v>-0.018638334666074</v>
       </c>
       <c r="AFI2" s="2">
-        <v>-2.13830485749237</v>
+        <v>-0.0124862806865258</v>
       </c>
       <c r="AFJ2" s="2">
-        <v>-2.14700507378988</v>
+        <v>-0.00756125224328135</v>
       </c>
       <c r="AFK2" s="2">
-        <v>-2.12072310600423</v>
+        <v>-0.011674401850059</v>
       </c>
       <c r="AFL2" s="2">
-        <v>-2.12743568008368</v>
+        <v>-0.0205168476654009</v>
       </c>
       <c r="AFM2" s="2">
-        <v>-2.11609801492191</v>
+        <v>-0.0252602418806382</v>
       </c>
       <c r="AFN2" s="2">
-        <v>-2.12272516360662</v>
+        <v>-0.0180383045421378</v>
       </c>
       <c r="AFO2" s="2">
-        <v>-2.09460119078795</v>
+        <v>-0.0200710173541555</v>
       </c>
       <c r="AFP2" s="2">
-        <v>-2.10722419202545</v>
+        <v>-0.0224777465056146</v>
       </c>
       <c r="AFQ2" s="2">
-        <v>-2.11274409652549</v>
+        <v>-0.0154182932019521</v>
       </c>
       <c r="AFR2" s="2">
-        <v>-2.08802942378018</v>
+        <v>-0.0280742580954049</v>
       </c>
       <c r="AFS2" s="2">
-        <v>-2.07136914253935</v>
+        <v>-0.0169658877214688</v>
       </c>
       <c r="AFT2" s="2">
-        <v>-2.09307953076953</v>
+        <v>-0.00623781702564338</v>
       </c>
       <c r="AFU2" s="2">
-        <v>-2.0924312214286</v>
+        <v>-0.0128160732817559</v>
       </c>
       <c r="AFV2" s="2">
-        <v>-2.07260527672747</v>
+        <v>-0.0222961163633217</v>
       </c>
       <c r="AFW2" s="2">
-        <v>-2.08661301051422</v>
+        <v>-0.0106658235747455</v>
       </c>
       <c r="AFX2" s="2">
-        <v>-2.07782787123287</v>
+        <v>-0.023412310471287</v>
       </c>
       <c r="AFY2" s="2">
-        <v>-2.09153240636597</v>
+        <v>-0.0282021694530078</v>
       </c>
       <c r="AFZ2" s="2">
-        <v>-2.06960540298429</v>
+        <v>-0.0148805945538583</v>
       </c>
       <c r="AGA2" s="2">
-        <v>-2.07167250771711</v>
+        <v>-0.0134214229869732</v>
       </c>
       <c r="AGB2" s="2">
-        <v>-2.05410250725198</v>
+        <v>-0.0197446791464875</v>
       </c>
       <c r="AGC2" s="2">
-        <v>-2.06699655818104</v>
+        <v>-0.0178235804936477</v>
       </c>
       <c r="AGD2" s="2">
-        <v>-2.06177831150243</v>
+        <v>-0.0239012448476716</v>
       </c>
       <c r="AGE2" s="2">
-        <v>-2.06032603615755</v>
+        <v>-0.0188765215699373</v>
       </c>
       <c r="AGF2" s="2">
-        <v>-2.0567037210135</v>
+        <v>-0.00864146271419497</v>
       </c>
       <c r="AGG2" s="2">
-        <v>-2.05253892283129</v>
+        <v>-0.0187603600331265</v>
       </c>
       <c r="AGH2" s="2">
-        <v>-2.04925445157917</v>
+        <v>-0.0240146876082241</v>
       </c>
       <c r="AGI2" s="2">
-        <v>-2.04158853500764</v>
+        <v>-0.0161316764692917</v>
       </c>
       <c r="AGJ2" s="2">
-        <v>-2.03551165067803</v>
+        <v>-0.0176669550949542</v>
       </c>
       <c r="AGK2" s="2">
-        <v>-2.03358063214037</v>
+        <v>-0.0198737467295861</v>
       </c>
       <c r="AGL2" s="2">
-        <v>-2.06138653135766</v>
+        <v>-0.0109673974630647</v>
       </c>
       <c r="AGM2" s="2">
-        <v>-2.03953012542507</v>
+        <v>-0.0122660477907311</v>
       </c>
       <c r="AGN2" s="2">
-        <v>-2.03584412565363</v>
+        <v>-0.0141825169706708</v>
       </c>
       <c r="AGO2" s="2">
-        <v>-2.02734243295871</v>
+        <v>-0.0263508629781778</v>
       </c>
       <c r="AGP2" s="2">
-        <v>-2.03744671865716</v>
+        <v>-0.0117895117295078</v>
       </c>
       <c r="AGQ2" s="2">
-        <v>-2.01543978663091</v>
+        <v>-0.0187649596898974</v>
       </c>
       <c r="AGR2" s="2">
-        <v>-2.02947092391164</v>
+        <v>-0.0219415090356269</v>
       </c>
       <c r="AGS2" s="2">
-        <v>-2.01761492246486</v>
+        <v>-0.0231820934973582</v>
       </c>
       <c r="AGT2" s="2">
-        <v>-1.99855907257699</v>
+        <v>-0.021665048696577</v>
       </c>
       <c r="AGU2" s="2">
-        <v>-2.02357473696723</v>
+        <v>-0.0198589527733581</v>
       </c>
       <c r="AGV2" s="2">
-        <v>-2.03078906702708</v>
+        <v>-0.0123613577733757</v>
       </c>
       <c r="AGW2" s="2">
-        <v>-2.01197029041966</v>
+        <v>-0.0163219164889316</v>
       </c>
       <c r="AGX2" s="2">
-        <v>-2.00292676046246</v>
+        <v>-0.00711945451491283</v>
       </c>
       <c r="AGY2" s="2">
-        <v>-2.01868421940916</v>
+        <v>-0.00782760700089526</v>
       </c>
       <c r="AGZ2" s="2">
-        <v>-2.01643015473505</v>
+        <v>-0.012898708968063</v>
       </c>
       <c r="AHA2" s="2">
-        <v>-2.02071546853155</v>
+        <v>-0.0161676894707124</v>
       </c>
       <c r="AHB2" s="2">
-        <v>-2.01752248755376</v>
+        <v>-0.0326678380586942</v>
       </c>
       <c r="AHC2" s="2">
-        <v>-2.00643336753583</v>
+        <v>-0.0251834368894115</v>
       </c>
       <c r="AHD2" s="2">
-        <v>-2.02999299184025</v>
+        <v>-0.0115492101465345</v>
       </c>
       <c r="AHE2" s="2">
-        <v>-2.03668264944924</v>
+        <v>-0.0227711552331293</v>
       </c>
       <c r="AHF2" s="2">
-        <v>-2.02982629946623</v>
+        <v>-0.00600015308251254</v>
       </c>
       <c r="AHG2" s="2">
-        <v>-2.02389945232202</v>
+        <v>-0.0110692644687257</v>
       </c>
       <c r="AHH2" s="2">
-        <v>-2.01135221983761</v>
+        <v>-0.0037005494607368</v>
       </c>
       <c r="AHI2" s="2">
-        <v>-2.04256546560575</v>
+        <v>-0.00136163135204552</v>
       </c>
       <c r="AHJ2" s="2">
-        <v>-2.03683137820075</v>
+        <v>0.00194712194283891</v>
       </c>
       <c r="AHK2" s="2">
-        <v>-2.0482589185071</v>
+        <v>-0.0126047800783065</v>
       </c>
       <c r="AHL2" s="2">
-        <v>-2.03571226411244</v>
+        <v>-0.01981789776982</v>
       </c>
       <c r="AHM2" s="2">
-        <v>-2.05663677713592</v>
+        <v>-0.0203523371040397</v>
       </c>
       <c r="AHN2" s="2">
-        <v>-2.03766124935511</v>
+        <v>-0.00272128967409351</v>
       </c>
       <c r="AHO2" s="2">
-        <v>-2.02344822191638</v>
+        <v>-0.0005779421940118481</v>
       </c>
       <c r="AHP2" s="2">
-        <v>-2.04453291783581</v>
+        <v>-0.0116262779624093</v>
       </c>
       <c r="AHQ2" s="2">
-        <v>-2.05525606269975</v>
+        <v>-0.0248645163149631</v>
       </c>
       <c r="AHR2" s="2">
-        <v>-2.03609844001637</v>
+        <v>-0.0132808659749543</v>
       </c>
       <c r="AHS2" s="2">
-        <v>-2.03819814750216</v>
+        <v>-0.007844739297736641</v>
       </c>
       <c r="AHT2" s="2">
-        <v>-2.06351823992158</v>
+        <v>-0.0231604604432058</v>
       </c>
       <c r="AHU2" s="2">
-        <v>-2.06434746069867</v>
+        <v>-0.0263794838731876</v>
       </c>
       <c r="AHV2" s="2">
-        <v>-2.06884877179791</v>
+        <v>-0.0151347325185591</v>
       </c>
       <c r="AHW2" s="2">
-        <v>-2.07151478011477</v>
+        <v>-0.0167409279356204</v>
       </c>
       <c r="AHX2" s="2">
-        <v>-2.0934169670432</v>
+        <v>-0.0167771770878629</v>
       </c>
       <c r="AHY2" s="2">
-        <v>-2.08784711165163</v>
+        <v>-2.71335550971589E-05</v>
       </c>
       <c r="AHZ2" s="2">
-        <v>-2.10679622487994</v>
+        <v>-0.0193687904155161</v>
       </c>
       <c r="AIA2" s="2">
-        <v>-2.11334776361535</v>
+        <v>-0.0173805456728122</v>
       </c>
       <c r="AIB2" s="2">
-        <v>-2.11798657645309</v>
+        <v>-0.0104410878677323</v>
       </c>
       <c r="AIC2" s="2">
-        <v>-2.09657365820538</v>
+        <v>-0.00640523841757702</v>
       </c>
       <c r="AID2" s="2">
-        <v>-2.13382975755568</v>
+        <v>-0.0068397213092561</v>
       </c>
       <c r="AIE2" s="2">
-        <v>-2.1301514688106</v>
+        <v>-0.00231875569537613</v>
       </c>
       <c r="AIF2" s="2">
-        <v>-2.14570298122429</v>
+        <v>-0.00498077144883497</v>
       </c>
       <c r="AIG2" s="2">
-        <v>-2.14277391217864</v>
+        <v>-0.0172662779913402</v>
       </c>
       <c r="AIH2" s="2">
-        <v>-2.17659624352696</v>
+        <v>-0.0166821603150286</v>
       </c>
       <c r="AII2" s="2">
-        <v>-2.16086430474959</v>
+        <v>-0.0244281160987093</v>
       </c>
       <c r="AIJ2" s="2">
-        <v>-2.17473531103642</v>
+        <v>-0.00800842538527405</v>
       </c>
       <c r="AIK2" s="2">
-        <v>-2.20566706634196</v>
+        <v>-0.0118480401581635</v>
       </c>
       <c r="AIL2" s="2">
-        <v>-2.18209274045837</v>
+        <v>-0.0175325833342826</v>
       </c>
       <c r="AIM2" s="2">
-        <v>-2.18700551489482</v>
+        <v>-0.00457423355142769</v>
       </c>
       <c r="AIN2" s="2">
-        <v>-2.20987344759443</v>
+        <v>-0.00564794699460586</v>
       </c>
       <c r="AIO2" s="2">
-        <v>-2.21555366186284</v>
+        <v>-0.0111076320974395</v>
       </c>
       <c r="AIP2" s="2">
-        <v>-2.22842169097181</v>
+        <v>-0.00723862323723427</v>
       </c>
       <c r="AIQ2" s="2">
-        <v>-2.20388376989261</v>
+        <v>-0.007893557246696711</v>
       </c>
       <c r="AIR2" s="2">
-        <v>-2.24183602582766</v>
+        <v>-0.0171718311312493</v>
       </c>
       <c r="AIS2" s="2">
-        <v>-2.23643173930997</v>
+        <v>-0.0116653094074781</v>
       </c>
       <c r="AIT2" s="2">
-        <v>-2.23333815593437</v>
+        <v>-0.020893756104904</v>
       </c>
       <c r="AIU2" s="2">
-        <v>-2.27322561804786</v>
+        <v>-0.0115754521623106</v>
       </c>
       <c r="AIV2" s="2">
-        <v>-2.27255217461356</v>
+        <v>-0.0159940940110929</v>
       </c>
       <c r="AIW2" s="2">
-        <v>-2.28850194771783</v>
+        <v>-0.00227050536011438</v>
       </c>
       <c r="AIX2" s="2">
-        <v>-2.27641457547425</v>
+        <v>-0.00629609949161343</v>
       </c>
       <c r="AIY2" s="2">
-        <v>-2.27603017674876</v>
+        <v>-0.0159575185706176</v>
       </c>
       <c r="AIZ2" s="2">
-        <v>-2.29936160408378</v>
+        <v>-0.0238659818532827</v>
       </c>
       <c r="AJA2" s="2">
-        <v>-2.31610490225193</v>
+        <v>-0.0233991751431318</v>
       </c>
       <c r="AJB2" s="2">
-        <v>-2.30443799572973</v>
+        <v>-0.012943708012357</v>
       </c>
       <c r="AJC2" s="2">
-        <v>-2.32420596528018</v>
+        <v>0.007939539502805159</v>
       </c>
       <c r="AJD2" s="2">
-        <v>-2.33669920278266</v>
+        <v>-0.0247207853826164</v>
       </c>
       <c r="AJE2" s="2">
-        <v>-2.36734982259364</v>
+        <v>-0.0116830049350859</v>
       </c>
       <c r="AJF2" s="2">
-        <v>-2.34567931892334</v>
+        <v>-0.00559065676279154</v>
       </c>
       <c r="AJG2" s="2">
-        <v>-2.38574463576285</v>
+        <v>-0.0196115430638546</v>
       </c>
       <c r="AJH2" s="2">
-        <v>-2.35452915754797</v>
+        <v>-0.0108076185077464</v>
       </c>
       <c r="AJI2" s="2">
-        <v>-2.36628675321873</v>
+        <v>-0.00472113618316825</v>
       </c>
       <c r="AJJ2" s="2">
-        <v>-2.38515705014901</v>
+        <v>-0.00514555020393551</v>
       </c>
       <c r="AJK2" s="2">
-        <v>-2.38121423130912</v>
+        <v>-0.013463707634481</v>
       </c>
       <c r="AJL2" s="2">
-        <v>-2.3650184721275</v>
+        <v>-0.00457334974015404</v>
       </c>
       <c r="AJM2" s="2">
-        <v>-2.38923287035154</v>
+        <v>-0.0122019749545176</v>
       </c>
       <c r="AJN2" s="2">
-        <v>-2.40312804020327</v>
+        <v>-0.0213996124891075</v>
       </c>
       <c r="AJO2" s="2">
-        <v>-2.39286587187183</v>
+        <v>-0.0156018839109952</v>
       </c>
       <c r="AJP2" s="2">
-        <v>-2.40749967314214</v>
+        <v>-0.0227475269119754</v>
       </c>
       <c r="AJQ2" s="2">
-        <v>-2.40981594813629</v>
+        <v>-0.0233920215791285</v>
       </c>
       <c r="AJR2" s="2">
-        <v>-2.41699271084986</v>
+        <v>-0.0191548898645416</v>
       </c>
       <c r="AJS2" s="2">
-        <v>-2.41651636475068</v>
+        <v>-0.00156944158930145</v>
       </c>
       <c r="AJT2" s="2">
-        <v>-2.42489716171437</v>
+        <v>-0.0180947208857744</v>
       </c>
       <c r="AJU2" s="2">
-        <v>-2.41885005972382</v>
+        <v>-0.0165208685490357</v>
       </c>
       <c r="AJV2" s="2">
-        <v>-2.40850319240755</v>
+        <v>-0.028282355040601</v>
       </c>
       <c r="AJW2" s="2">
-        <v>-2.42476235227742</v>
+        <v>-0.00805954360061749</v>
       </c>
       <c r="AJX2" s="2">
-        <v>-2.43257603338927</v>
+        <v>-0.0167045142805557</v>
       </c>
       <c r="AJY2" s="2">
-        <v>-2.4112938910465</v>
+        <v>-0.026048864444099</v>
       </c>
       <c r="AJZ2" s="2">
-        <v>-2.40872856853746</v>
+        <v>-0.0245743403402404</v>
       </c>
       <c r="AKA2" s="2">
-        <v>-2.44379019171513</v>
+        <v>-0.009425531851188419</v>
       </c>
       <c r="AKB2" s="2">
-        <v>-2.41555139710835</v>
+        <v>-0.016435893714774</v>
       </c>
       <c r="AKC2" s="2">
-        <v>-2.41642470774913</v>
+        <v>-0.0229344668202908</v>
       </c>
       <c r="AKD2" s="2">
-        <v>-2.41318942525999</v>
+        <v>-0.0294301658929926</v>
       </c>
       <c r="AKE2" s="2">
-        <v>-2.43489441961799</v>
+        <v>-0.0159523688830147</v>
       </c>
       <c r="AKF2" s="2">
-        <v>-2.40723407949584</v>
+        <v>-0.0113535250383663</v>
       </c>
       <c r="AKG2" s="2">
-        <v>-2.43103915819594</v>
+        <v>-0.0115303155959081</v>
       </c>
       <c r="AKH2" s="2">
-        <v>-2.43233253193862</v>
+        <v>-0.0168476330815138</v>
       </c>
       <c r="AKI2" s="2">
-        <v>-2.41491735883476</v>
+        <v>-0.0123529797377022</v>
       </c>
       <c r="AKJ2" s="2">
-        <v>-2.40883298924492</v>
+        <v>-0.0202756730881183</v>
       </c>
       <c r="AKK2" s="2">
-        <v>-2.41074917494734</v>
+        <v>-0.0178448909758818</v>
       </c>
       <c r="AKL2" s="2">
-        <v>-2.41982521540013</v>
+        <v>-0.0186318145004831</v>
       </c>
       <c r="AKM2" s="2">
-        <v>-2.4217326878263</v>
+        <v>-0.0163276858676293</v>
       </c>
       <c r="AKN2" s="2">
-        <v>-2.39588588433485</v>
+        <v>-0.0109474795715807</v>
       </c>
       <c r="AKO2" s="2">
-        <v>-2.38735270893043</v>
+        <v>-0.0241927852460605</v>
       </c>
       <c r="AKP2" s="2">
-        <v>-2.40327092844154</v>
+        <v>-0.0327876738556784</v>
       </c>
       <c r="AKQ2" s="2">
-        <v>-2.39311479782515</v>
+        <v>-0.0207752830709807</v>
       </c>
       <c r="AKR2" s="2">
-        <v>-2.37974170163444</v>
+        <v>-0.0166904706132552</v>
       </c>
       <c r="AKS2" s="2">
-        <v>-2.36903138089819</v>
+        <v>-0.00983405754037555</v>
       </c>
       <c r="AKT2" s="2">
-        <v>-2.37002790291152</v>
+        <v>-0.0138818269515224</v>
       </c>
       <c r="AKU2" s="2">
-        <v>-2.38229141306242</v>
+        <v>-0.00727220385147538</v>
       </c>
       <c r="AKV2" s="2">
-        <v>-2.38542159282229</v>
+        <v>-0.0115642117987075</v>
       </c>
       <c r="AKW2" s="2">
-        <v>-2.37345972086691</v>
+        <v>-0.022330272931282</v>
       </c>
       <c r="AKX2" s="2">
-        <v>-2.37282683957551</v>
+        <v>-0.00691569494607192</v>
       </c>
       <c r="AKY2" s="2">
-        <v>-2.39086235300239</v>
+        <v>-0.00715812443675093</v>
       </c>
       <c r="AKZ2" s="2">
-        <v>-2.37407295402931</v>
+        <v>-0.000365049458148168</v>
       </c>
       <c r="ALA2" s="2">
-        <v>-2.33652234791979</v>
+        <v>-0.0167255782941684</v>
       </c>
       <c r="ALB2" s="2">
-        <v>-2.34021441965564</v>
+        <v>-0.011986644378601</v>
       </c>
       <c r="ALC2" s="2">
-        <v>-2.3166050173429</v>
+        <v>-0.0176184987881309</v>
       </c>
       <c r="ALD2" s="2">
-        <v>-2.3594826756823</v>
+        <v>-0.0160504729028908</v>
       </c>
       <c r="ALE2" s="2">
-        <v>-2.33267274088094</v>
+        <v>-0.0102682741275187</v>
       </c>
       <c r="ALF2" s="2">
-        <v>-2.31648796869179</v>
+        <v>-0.0188341609461513</v>
       </c>
       <c r="ALG2" s="2">
-        <v>-2.34057715319059</v>
+        <v>-0.0161768656027984</v>
       </c>
       <c r="ALH2" s="2">
-        <v>-2.3186660667427</v>
+        <v>-0.0291843281809148</v>
       </c>
       <c r="ALI2" s="2">
-        <v>-2.32351455967836</v>
+        <v>-0.0154598734582066</v>
       </c>
       <c r="ALJ2" s="2">
-        <v>-2.33278549838325</v>
+        <v>-0.009649097975698601</v>
       </c>
       <c r="ALK2" s="2">
-        <v>-2.31243177227665</v>
+        <v>-0.0124917596933688</v>
       </c>
       <c r="ALL2" s="2">
-        <v>-2.31375280876514</v>
+        <v>-0.00647891497310319</v>
       </c>
       <c r="ALM2" s="2">
-        <v>-2.3122102069825</v>
+        <v>-0.00681482031541518</v>
       </c>
     </row>
   </sheetData>
